--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy-bak\nop-wf\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508F4DAB-25E7-49A0-A22E-3AA4B58074D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E344FF3-61C6-42C3-860E-400C59BBF4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -343,10 +343,6 @@
   </si>
   <si>
     <t>maven.groupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>io.nop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1693,6 +1689,10 @@
   </si>
   <si>
     <t>Tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.github.entropy-cloud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2009,6 +2009,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2036,13 +2063,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2052,27 +2073,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2438,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2448,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2458,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2478,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2488,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2658,7 +2658,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -2682,7 +2682,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -2691,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -2708,7 +2708,7 @@
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -2795,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2822,7 +2822,7 @@
         <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -2840,14 +2840,14 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -2874,14 +2874,14 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -2906,14 +2906,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -2936,14 +2936,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -2966,19 +2966,19 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
       <c r="J12" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K12" s="8">
         <v>30</v>
@@ -2998,19 +2998,19 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -3026,19 +3026,19 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
       <c r="J14" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -3054,14 +3054,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -3085,7 +3085,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>38</v>
@@ -3094,13 +3094,13 @@
         <v>39</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -3126,7 +3126,7 @@
         <v>42</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>27</v>
@@ -3160,7 +3160,7 @@
         <v>46</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>27</v>
@@ -3192,7 +3192,7 @@
         <v>50</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>27</v>
@@ -3226,7 +3226,7 @@
         <v>53</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>27</v>
@@ -3331,7 +3331,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -3355,7 +3355,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -3364,7 +3364,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -3466,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3493,7 +3493,7 @@
         <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -3510,7 +3510,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>26</v>
@@ -3520,7 +3520,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -3545,14 +3545,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -3577,14 +3577,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -3596,7 +3596,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -3609,14 +3609,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>305</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -3649,7 +3649,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>27</v>
@@ -3683,7 +3683,7 @@
         <v>46</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>27</v>
@@ -3718,6 +3718,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -3725,12 +3731,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3769,7 +3769,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -3793,7 +3793,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -3802,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -3904,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3931,7 +3931,7 @@
         <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -3948,17 +3948,17 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -3983,14 +3983,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -4014,17 +4014,17 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -4049,14 +4049,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -4088,7 +4088,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -4100,7 +4100,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="8"/>
@@ -4113,14 +4113,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -4143,14 +4143,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -4173,14 +4173,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -4203,14 +4203,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -4233,14 +4233,14 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>317</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -4261,14 +4261,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>320</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -4292,7 +4292,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>38</v>
@@ -4301,7 +4301,7 @@
         <v>39</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>27</v>
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>27</v>
@@ -4367,7 +4367,7 @@
         <v>46</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>27</v>
@@ -4399,7 +4399,7 @@
         <v>50</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>27</v>
@@ -4433,7 +4433,7 @@
         <v>53</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>27</v>
@@ -4458,7 +4458,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>55</v>
@@ -4467,7 +4467,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="11" t="s">
@@ -4502,6 +4502,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -4509,12 +4515,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4526,8 +4526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4539,7 +4539,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4564,32 +4564,32 @@
         <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4597,54 +4597,54 @@
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4827,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -4844,11 +4844,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4859,10 +4859,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>28</v>
@@ -4878,7 +4878,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -4895,7 +4895,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -4910,7 +4910,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -4925,7 +4925,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -4942,7 +4942,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -4957,7 +4957,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -4974,13 +4974,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -4991,7 +4991,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -5008,7 +5008,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -5112,7 +5112,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -5136,7 +5136,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -5145,7 +5145,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -5247,7 +5247,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -5274,7 +5274,7 @@
         <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -5291,16 +5291,16 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>21</v>
@@ -5328,14 +5328,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -5360,14 +5360,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -5426,14 +5426,14 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
@@ -5456,17 +5456,17 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>27</v>
@@ -5497,7 +5497,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8" t="s">
@@ -5510,7 +5510,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="1"/>
@@ -5525,7 +5525,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>38</v>
@@ -5534,7 +5534,7 @@
         <v>39</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>27</v>
@@ -5566,7 +5566,7 @@
         <v>42</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>27</v>
@@ -5600,7 +5600,7 @@
         <v>46</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>27</v>
@@ -5632,7 +5632,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>27</v>
@@ -5666,7 +5666,7 @@
         <v>53</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>27</v>
@@ -5691,7 +5691,7 @@
         <v>54</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>55</v>
@@ -5700,7 +5700,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="11" t="s">
@@ -5759,7 +5759,7 @@
     </row>
     <row r="25" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -5828,7 +5828,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -5852,7 +5852,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -5861,7 +5861,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -5963,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -5990,7 +5990,7 @@
         <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -6007,14 +6007,14 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>21</v>
@@ -6042,14 +6042,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -6074,14 +6074,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -6106,14 +6106,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -6135,17 +6135,17 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -6161,7 +6161,7 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -6179,7 +6179,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8" t="s">
@@ -6191,7 +6191,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="8"/>
@@ -6204,14 +6204,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>387</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>58</v>
@@ -6243,7 +6243,7 @@
         <v>59</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>60</v>
@@ -6294,14 +6294,14 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>377</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -6322,14 +6322,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -6350,14 +6350,14 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>224</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
@@ -6380,14 +6380,14 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="8"/>
@@ -6410,14 +6410,14 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
@@ -6440,14 +6440,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
@@ -6470,14 +6470,14 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>390</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -6500,14 +6500,14 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
@@ -6530,14 +6530,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -6560,14 +6560,14 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -6590,14 +6590,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -6620,14 +6620,14 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>374</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -6650,14 +6650,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -6680,14 +6680,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -6710,14 +6710,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -6740,14 +6740,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>383</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -6770,14 +6770,14 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -6800,14 +6800,14 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>371</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -6830,14 +6830,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -6860,14 +6860,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -6893,7 +6893,7 @@
         <v>37</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>38</v>
@@ -6902,7 +6902,7 @@
         <v>39</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>27</v>
@@ -6934,7 +6934,7 @@
         <v>42</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>27</v>
@@ -6968,7 +6968,7 @@
         <v>46</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>27</v>
@@ -7000,7 +7000,7 @@
         <v>50</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>27</v>
@@ -7034,7 +7034,7 @@
         <v>53</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>27</v>
@@ -7059,7 +7059,7 @@
         <v>54</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>55</v>
@@ -7068,7 +7068,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="11" t="s">
@@ -7120,35 +7120,35 @@
       <c r="P44" s="33"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="57"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="40"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="58">
+      <c r="A47" s="41">
         <v>1</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="54"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
@@ -7158,25 +7158,25 @@
       <c r="H47" s="31"/>
       <c r="I47" s="32"/>
       <c r="J47" s="33"/>
-      <c r="K47" s="47" t="s">
+      <c r="K47" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L47" s="49"/>
+      <c r="L47" s="46"/>
       <c r="M47" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
       <c r="P47" s="37"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="53" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="54"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
@@ -7184,14 +7184,14 @@
         <v>3</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="47" t="s">
+      <c r="K48" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="L48" s="49"/>
+      <c r="L48" s="46"/>
       <c r="M48" s="35" t="s">
         <v>74</v>
       </c>
@@ -7200,16 +7200,16 @@
       <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="54"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="44"/>
       <c r="D49" s="31"/>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
@@ -7222,11 +7222,11 @@
       <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="53" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="31"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
@@ -7234,121 +7234,131 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="33"/>
-      <c r="K50" s="47" t="s">
+      <c r="K50" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L50" s="49"/>
+      <c r="L50" s="46"/>
       <c r="M50" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N50" s="36"/>
       <c r="O50" s="36"/>
       <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="38" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="40"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="49"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="47" t="s">
+      <c r="G52" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="49"/>
-      <c r="I52" s="47" t="s">
+      <c r="H52" s="46"/>
+      <c r="I52" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="51"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="58"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="9">
         <v>1</v>
       </c>
-      <c r="C53" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="43"/>
+      <c r="C53" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="D53" s="51"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="H53" s="43"/>
+      <c r="G53" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H53" s="52"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="45"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="54"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="52"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="43"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="45"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="M49:P49"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A44:P44"/>
     <mergeCell ref="A46:P46"/>
@@ -7365,28 +7375,18 @@
     <mergeCell ref="M48:P48"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7397,7 +7397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37:A44"/>
     </sheetView>
   </sheetViews>
@@ -7425,7 +7425,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -7449,7 +7449,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -7458,7 +7458,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -7560,7 +7560,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -7587,7 +7587,7 @@
         <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -7604,17 +7604,17 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -7639,14 +7639,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -7671,14 +7671,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -7705,14 +7705,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -7744,7 +7744,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -7756,7 +7756,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -7767,14 +7767,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>387</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -7797,16 +7797,16 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -7829,14 +7829,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -7859,14 +7859,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>393</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -7889,19 +7889,19 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
       <c r="J17" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -7917,14 +7917,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>232</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -7947,16 +7947,16 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>226</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
@@ -7979,14 +7979,14 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>339</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="8"/>
@@ -8009,14 +8009,14 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
@@ -8039,16 +8039,16 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
@@ -8062,7 +8062,7 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -8073,14 +8073,14 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -8103,14 +8103,14 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
@@ -8124,7 +8124,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -8135,14 +8135,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -8165,16 +8165,16 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="G26" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -8188,7 +8188,7 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P26" s="1"/>
     </row>
@@ -8199,14 +8199,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -8229,16 +8229,16 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -8261,14 +8261,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -8291,14 +8291,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>396</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -8321,14 +8321,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>399</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -8358,7 +8358,7 @@
         <v>59</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -8379,11 +8379,11 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>62</v>
@@ -8407,14 +8407,14 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -8435,14 +8435,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>317</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -8463,14 +8463,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>248</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8" t="s">
@@ -8493,16 +8493,16 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="8"/>
@@ -8525,13 +8525,13 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>404</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>9</v>
@@ -8560,7 +8560,7 @@
         <v>37</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>38</v>
@@ -8569,7 +8569,7 @@
         <v>39</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>27</v>
@@ -8594,7 +8594,7 @@
         <v>40</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>41</v>
@@ -8603,7 +8603,7 @@
         <v>42</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>27</v>
@@ -8630,7 +8630,7 @@
         <v>44</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>45</v>
@@ -8639,7 +8639,7 @@
         <v>46</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>27</v>
@@ -8664,7 +8664,7 @@
         <v>48</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>49</v>
@@ -8673,7 +8673,7 @@
         <v>50</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>27</v>
@@ -8700,7 +8700,7 @@
         <v>51</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>52</v>
@@ -8709,7 +8709,7 @@
         <v>53</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>27</v>
@@ -8734,7 +8734,7 @@
         <v>54</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>55</v>
@@ -8743,7 +8743,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="11" t="s">
@@ -8777,35 +8777,35 @@
       <c r="P45" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="57"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="40"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="58">
+      <c r="A48" s="41">
         <v>1</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="54"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
@@ -8815,23 +8815,23 @@
       <c r="H48" s="31"/>
       <c r="I48" s="32"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="47" t="s">
+      <c r="K48" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L48" s="49"/>
+      <c r="L48" s="46"/>
       <c r="M48" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="36"/>
       <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="54"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="31" t="s">
         <v>29</v>
       </c>
@@ -8841,14 +8841,14 @@
         <v>3</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="33"/>
-      <c r="K49" s="47" t="s">
+      <c r="K49" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="L49" s="49"/>
+      <c r="L49" s="46"/>
       <c r="M49" s="35" t="s">
         <v>74</v>
       </c>
@@ -8857,16 +8857,16 @@
       <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="54"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="44"/>
       <c r="D50" s="31"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
@@ -8879,11 +8879,11 @@
       <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="53" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="54"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="31"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
@@ -8891,117 +8891,117 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="33"/>
-      <c r="K51" s="47" t="s">
+      <c r="K51" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="49"/>
+      <c r="L51" s="46"/>
       <c r="M51" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
       <c r="P51" s="37"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
-      <c r="B52" s="38" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="40"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="49"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="47" t="s">
+      <c r="G53" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="49"/>
-      <c r="I53" s="47" t="s">
+      <c r="H53" s="46"/>
+      <c r="I53" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="49"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="51"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="58"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="9">
         <v>1</v>
       </c>
-      <c r="C54" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43"/>
+      <c r="C54" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="52"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="H54" s="43"/>
+      <c r="G54" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H54" s="52"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="45"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="54"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="43"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="52"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="43"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="45"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="54"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="58">
+      <c r="A56" s="41">
         <v>2</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="54"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
@@ -9011,25 +9011,25 @@
       <c r="H56" s="31"/>
       <c r="I56" s="32"/>
       <c r="J56" s="33"/>
-      <c r="K56" s="47" t="s">
+      <c r="K56" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L56" s="49"/>
+      <c r="L56" s="46"/>
       <c r="M56" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N56" s="36"/>
       <c r="O56" s="36"/>
       <c r="P56" s="37"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="54"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
@@ -9037,14 +9037,14 @@
         <v>3</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="33"/>
-      <c r="K57" s="47" t="s">
+      <c r="K57" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="L57" s="49"/>
+      <c r="L57" s="46"/>
       <c r="M57" s="35" t="s">
         <v>74</v>
       </c>
@@ -9053,16 +9053,16 @@
       <c r="P57" s="37"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="54"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="44"/>
       <c r="D58" s="31"/>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
       <c r="G58" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
@@ -9075,11 +9075,11 @@
       <c r="P58" s="37"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="53" t="s">
+      <c r="A59" s="42"/>
+      <c r="B59" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="31"/>
       <c r="E59" s="32"/>
       <c r="F59" s="32"/>
@@ -9087,165 +9087,123 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="33"/>
-      <c r="K59" s="47" t="s">
+      <c r="K59" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="49"/>
+      <c r="L59" s="46"/>
       <c r="M59" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
       <c r="P59" s="37"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="38" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="40"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="49"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="48"/>
-      <c r="E61" s="49"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="47" t="s">
+      <c r="G61" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="49"/>
-      <c r="I61" s="47" t="s">
+      <c r="H61" s="46"/>
+      <c r="I61" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="49"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="51"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="58"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="59"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="9">
         <v>1</v>
       </c>
-      <c r="C62" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="43"/>
+      <c r="C62" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="H62" s="43"/>
+      <c r="G62" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H62" s="52"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="45"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="54"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="59"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="52"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="43"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="52"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="45"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="54"/>
     </row>
     <row r="64" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A47:P47"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="B48:C48"/>
@@ -9262,19 +9220,61 @@
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="M50:P50"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9313,7 +9313,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -9337,7 +9337,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -9346,7 +9346,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -9448,7 +9448,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -9475,7 +9475,7 @@
         <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -9493,14 +9493,14 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -9527,14 +9527,14 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -9561,14 +9561,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -9593,17 +9593,17 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
@@ -9637,7 +9637,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>27</v>
@@ -9671,7 +9671,7 @@
         <v>46</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>27</v>
@@ -9705,35 +9705,35 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="58">
+      <c r="A17" s="41">
         <v>1</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -9743,25 +9743,25 @@
       <c r="H17" s="31"/>
       <c r="I17" s="32"/>
       <c r="J17" s="33"/>
-      <c r="K17" s="47" t="s">
+      <c r="K17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="49"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="37"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
@@ -9769,14 +9769,14 @@
         <v>3</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="49"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="35" t="s">
         <v>74</v>
       </c>
@@ -9785,16 +9785,16 @@
       <c r="P18" s="37"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="54"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="44"/>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
@@ -9807,11 +9807,11 @@
       <c r="P19" s="37"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
@@ -9819,117 +9819,117 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
-      <c r="K20" s="47" t="s">
+      <c r="K20" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="49"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="40"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="47" t="s">
+      <c r="H22" s="46"/>
+      <c r="I22" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="51"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+      <c r="C23" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="43"/>
+      <c r="G23" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" s="52"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="45"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="54"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="43"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="45"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="58">
+      <c r="A25" s="41">
         <v>2</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -9939,25 +9939,25 @@
       <c r="H25" s="31"/>
       <c r="I25" s="32"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L25" s="49"/>
+      <c r="L25" s="46"/>
       <c r="M25" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -9965,14 +9965,14 @@
         <v>3</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="L26" s="49"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="35" t="s">
         <v>74</v>
       </c>
@@ -9981,16 +9981,16 @@
       <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="54"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="44"/>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
@@ -10003,11 +10003,11 @@
       <c r="P27" s="37"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="54"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -10015,117 +10015,117 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="47" t="s">
+      <c r="K28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="49"/>
+      <c r="L28" s="46"/>
       <c r="M28" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="38" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="47" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="51"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="58"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="C31" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="H31" s="43"/>
+      <c r="G31" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="52"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="45"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="54"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="43"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="45"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="54"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="58">
+      <c r="A33" s="41">
         <v>3</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="54"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
@@ -10135,25 +10135,25 @@
       <c r="H33" s="31"/>
       <c r="I33" s="32"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L33" s="49"/>
+      <c r="L33" s="46"/>
       <c r="M33" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
@@ -10161,14 +10161,14 @@
         <v>3</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="33"/>
-      <c r="K34" s="47" t="s">
+      <c r="K34" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="L34" s="49"/>
+      <c r="L34" s="46"/>
       <c r="M34" s="35" t="s">
         <v>74</v>
       </c>
@@ -10177,16 +10177,16 @@
       <c r="P34" s="37"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="54"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="44"/>
       <c r="D35" s="31"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -10199,11 +10199,11 @@
       <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="31"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
@@ -10211,124 +10211,189 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="33"/>
-      <c r="K36" s="47" t="s">
+      <c r="K36" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="49"/>
+      <c r="L36" s="46"/>
       <c r="M36" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="37"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="49"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="47" t="s">
+      <c r="H38" s="46"/>
+      <c r="I38" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="51"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="58"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="9">
         <v>1</v>
       </c>
-      <c r="C39" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="C39" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="H39" s="43"/>
+      <c r="G39" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="H39" s="52"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="45"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="54"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="52"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="43"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="45"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:F25"/>
@@ -10353,86 +10418,21 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10471,7 +10471,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -10495,7 +10495,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -10504,7 +10504,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -10606,7 +10606,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -10633,7 +10633,7 @@
         <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -10650,13 +10650,13 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>26</v>
@@ -10687,14 +10687,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -10719,14 +10719,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -10751,17 +10751,17 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>335</v>
-      </c>
       <c r="H11" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
@@ -10784,17 +10784,17 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -10817,14 +10817,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -10847,14 +10847,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -10877,14 +10877,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -10910,7 +10910,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>38</v>
@@ -10919,7 +10919,7 @@
         <v>39</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>27</v>
@@ -10951,7 +10951,7 @@
         <v>42</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>27</v>
@@ -10985,7 +10985,7 @@
         <v>46</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>27</v>
@@ -11017,7 +11017,7 @@
         <v>50</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>27</v>
@@ -11051,7 +11051,7 @@
         <v>53</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>27</v>
@@ -11085,35 +11085,35 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="40"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="58">
+      <c r="A23" s="41">
         <v>1</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
@@ -11123,25 +11123,25 @@
       <c r="H23" s="31"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
-      <c r="K23" s="47" t="s">
+      <c r="K23" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="49"/>
+      <c r="L23" s="46"/>
       <c r="M23" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -11149,14 +11149,14 @@
         <v>3</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="47" t="s">
+      <c r="K24" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="49"/>
+      <c r="L24" s="46"/>
       <c r="M24" s="35" t="s">
         <v>74</v>
       </c>
@@ -11165,16 +11165,16 @@
       <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="54"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="44"/>
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
@@ -11187,11 +11187,11 @@
       <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="31"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -11199,117 +11199,117 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="49"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="47" t="s">
+      <c r="H28" s="46"/>
+      <c r="I28" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="51"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="58"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="9">
         <v>1</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
+      <c r="C29" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="H29" s="43"/>
+      <c r="G29" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="52"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="45"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="54"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="43"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="45"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="54"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="58">
+      <c r="A31" s="41">
         <v>2</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="54"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E31" s="61"/>
       <c r="F31" s="61"/>
@@ -11319,25 +11319,25 @@
       <c r="H31" s="31"/>
       <c r="I31" s="32"/>
       <c r="J31" s="33"/>
-      <c r="K31" s="47" t="s">
+      <c r="K31" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="49"/>
+      <c r="L31" s="46"/>
       <c r="M31" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="37"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E32" s="61"/>
       <c r="F32" s="61"/>
@@ -11345,14 +11345,14 @@
         <v>3</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="33"/>
-      <c r="K32" s="47" t="s">
+      <c r="K32" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="L32" s="49"/>
+      <c r="L32" s="46"/>
       <c r="M32" s="35" t="s">
         <v>74</v>
       </c>
@@ -11361,11 +11361,11 @@
       <c r="P32" s="37"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="53" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="54"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="31"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
@@ -11373,102 +11373,102 @@
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="49"/>
+      <c r="L33" s="46"/>
       <c r="M33" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="49"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="47" t="s">
+      <c r="H35" s="46"/>
+      <c r="I35" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="51"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="58"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="9">
         <v>1</v>
       </c>
-      <c r="C36" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="C36" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="H36" s="43"/>
+      <c r="G36" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="H36" s="52"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="45"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="54"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="43"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="45"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -11476,24 +11476,51 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A31:A37"/>
@@ -11510,51 +11537,24 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="M24:P24"/>
     <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11592,7 +11592,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -11616,7 +11616,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -11625,7 +11625,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -11642,7 +11642,7 @@
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -11729,7 +11729,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -11756,7 +11756,7 @@
         <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -11774,14 +11774,14 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -11808,14 +11808,14 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -11840,14 +11840,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -11870,14 +11870,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -11900,19 +11900,19 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
       <c r="J12" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K12" s="8">
         <v>30</v>
@@ -11932,19 +11932,19 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -11960,19 +11960,19 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
       <c r="J14" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -11988,14 +11988,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -12019,7 +12019,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>38</v>
@@ -12028,13 +12028,13 @@
         <v>39</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -12060,7 +12060,7 @@
         <v>42</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>27</v>
@@ -12094,7 +12094,7 @@
         <v>46</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>27</v>
@@ -12126,7 +12126,7 @@
         <v>50</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>27</v>
@@ -12160,7 +12160,7 @@
         <v>53</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>27</v>
@@ -12213,6 +12213,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A3:C3"/>
@@ -12221,12 +12227,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E344FF3-61C6-42C3-860E-400C59BBF4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B135B4F-A222-4734-9871-6CE0A002916B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="407">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1281,10 +1281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wf/log-level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LOG_MSG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1693,6 +1689,18 @@
   </si>
   <si>
     <t>io.github.entropy-cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core/log-level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kv-table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>many-to-many</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2009,33 +2017,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2063,7 +2044,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2073,6 +2060,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2458,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2498,7 +2506,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2708,7 +2716,7 @@
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -3305,7 +3313,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3596,7 +3604,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>301</v>
+        <v>404</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -3609,14 +3617,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>304</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -3718,12 +3726,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -3731,6 +3733,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3742,7 +3750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7711274-7647-4015-9FD3-BA5E2CD7FAAA}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3769,7 +3777,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -3793,7 +3801,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -3802,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -3951,14 +3959,14 @@
         <v>94</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -3983,14 +3991,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>322</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -4024,7 +4032,7 @@
         <v>146</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -4049,14 +4057,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -4100,7 +4108,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="8"/>
@@ -4233,14 +4241,14 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>316</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -4261,14 +4269,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -4502,12 +4510,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -4515,6 +4517,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4526,7 +4534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4539,7 +4547,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -4597,7 +4605,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>83</v>
@@ -5008,7 +5016,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -5294,13 +5302,13 @@
         <v>94</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>21</v>
@@ -6191,7 +6199,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="8"/>
@@ -6204,14 +6212,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>386</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -6294,14 +6302,14 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>376</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -6470,14 +6478,14 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>388</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>389</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -6530,14 +6538,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>331</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -6620,14 +6628,14 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -6710,14 +6718,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>378</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>379</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -6740,14 +6748,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>382</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -6770,14 +6778,14 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -6800,14 +6808,14 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -6830,14 +6838,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -6860,14 +6868,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -7120,33 +7128,33 @@
       <c r="P44" s="33"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="40"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="57"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="41">
+      <c r="A47" s="58">
         <v>1</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="44"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="31" t="s">
         <v>142</v>
       </c>
@@ -7158,10 +7166,10 @@
       <c r="H47" s="31"/>
       <c r="I47" s="32"/>
       <c r="J47" s="33"/>
-      <c r="K47" s="45" t="s">
+      <c r="K47" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L47" s="46"/>
+      <c r="L47" s="49"/>
       <c r="M47" s="35" t="s">
         <v>144</v>
       </c>
@@ -7170,11 +7178,11 @@
       <c r="P47" s="37"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43" t="s">
+      <c r="A48" s="59"/>
+      <c r="B48" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="44"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="31" t="s">
         <v>167</v>
       </c>
@@ -7188,10 +7196,10 @@
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="45" t="s">
+      <c r="K48" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="L48" s="46"/>
+      <c r="L48" s="49"/>
       <c r="M48" s="35" t="s">
         <v>74</v>
       </c>
@@ -7200,11 +7208,11 @@
       <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="44"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="31"/>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
@@ -7222,11 +7230,11 @@
       <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43" t="s">
+      <c r="A50" s="59"/>
+      <c r="B50" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="44"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="31"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
@@ -7234,10 +7242,10 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="33"/>
-      <c r="K50" s="45" t="s">
+      <c r="K50" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L50" s="46"/>
+      <c r="L50" s="49"/>
       <c r="M50" s="35" t="s">
         <v>109</v>
       </c>
@@ -7246,97 +7254,131 @@
       <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="47" t="s">
+      <c r="A51" s="59"/>
+      <c r="B51" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="49"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="40"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="46"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
       <c r="F52" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="45" t="s">
+      <c r="H52" s="49"/>
+      <c r="I52" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="46"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="58"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="51"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="9">
         <v>1</v>
       </c>
-      <c r="C53" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="52"/>
+      <c r="C53" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="50" t="s">
+      <c r="G53" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="H53" s="52"/>
+      <c r="H53" s="43"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="54"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="45"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="52"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="52"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="43"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="54"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A44:P44"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="M49:P49"/>
     <mergeCell ref="B51:J51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:P51"/>
@@ -7353,40 +7395,6 @@
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:P53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A44:P44"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7756,7 +7764,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -7767,14 +7775,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>386</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -7859,14 +7867,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>391</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>392</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -7889,19 +7897,19 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>352</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
       <c r="J17" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -7979,14 +7987,14 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>338</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="8"/>
@@ -8016,7 +8024,7 @@
         <v>227</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
@@ -8062,7 +8070,7 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -8103,14 +8111,14 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
@@ -8124,7 +8132,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -8135,14 +8143,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -8188,7 +8196,7 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P26" s="1"/>
     </row>
@@ -8291,14 +8299,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>394</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>395</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -8321,14 +8329,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -8358,7 +8366,7 @@
         <v>59</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -8379,11 +8387,11 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>62</v>
@@ -8414,7 +8422,7 @@
         <v>172</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -8435,14 +8443,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>316</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -8493,16 +8501,16 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>400</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="8"/>
@@ -8525,13 +8533,13 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>9</v>
@@ -8777,33 +8785,33 @@
       <c r="P45" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="40"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="57"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="41">
+      <c r="A48" s="58">
         <v>1</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="44"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="31" t="s">
         <v>142</v>
       </c>
@@ -8815,10 +8823,10 @@
       <c r="H48" s="31"/>
       <c r="I48" s="32"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="45" t="s">
+      <c r="K48" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L48" s="46"/>
+      <c r="L48" s="49"/>
       <c r="M48" s="35" t="s">
         <v>144</v>
       </c>
@@ -8827,11 +8835,11 @@
       <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="44"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="31" t="s">
         <v>29</v>
       </c>
@@ -8845,10 +8853,10 @@
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="33"/>
-      <c r="K49" s="45" t="s">
+      <c r="K49" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="L49" s="46"/>
+      <c r="L49" s="49"/>
       <c r="M49" s="35" t="s">
         <v>74</v>
       </c>
@@ -8857,11 +8865,11 @@
       <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43" t="s">
+      <c r="A50" s="59"/>
+      <c r="B50" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="44"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="31"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
@@ -8879,11 +8887,11 @@
       <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43" t="s">
+      <c r="A51" s="59"/>
+      <c r="B51" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="44"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="31"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
@@ -8891,10 +8899,10 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="33"/>
-      <c r="K51" s="45" t="s">
+      <c r="K51" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="46"/>
+      <c r="L51" s="49"/>
       <c r="M51" s="35" t="s">
         <v>109</v>
       </c>
@@ -8903,103 +8911,103 @@
       <c r="P51" s="37"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="47" t="s">
+      <c r="A52" s="59"/>
+      <c r="B52" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="49"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="40"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="46"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="G53" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="45" t="s">
+      <c r="H53" s="49"/>
+      <c r="I53" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="46"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="58"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="51"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="9">
         <v>1</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="52"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="50" t="s">
+      <c r="G54" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="H54" s="52"/>
+      <c r="H54" s="43"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="54"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="45"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="52"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="43"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="54"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="45"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="41">
+      <c r="A56" s="58">
         <v>2</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="44"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="31" t="s">
         <v>254</v>
       </c>
@@ -9011,10 +9019,10 @@
       <c r="H56" s="31"/>
       <c r="I56" s="32"/>
       <c r="J56" s="33"/>
-      <c r="K56" s="45" t="s">
+      <c r="K56" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L56" s="46"/>
+      <c r="L56" s="49"/>
       <c r="M56" s="35" t="s">
         <v>144</v>
       </c>
@@ -9023,11 +9031,11 @@
       <c r="P56" s="37"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43" t="s">
+      <c r="A57" s="59"/>
+      <c r="B57" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="44"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="31" t="s">
         <v>118</v>
       </c>
@@ -9041,10 +9049,10 @@
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="33"/>
-      <c r="K57" s="45" t="s">
+      <c r="K57" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="L57" s="46"/>
+      <c r="L57" s="49"/>
       <c r="M57" s="35" t="s">
         <v>74</v>
       </c>
@@ -9053,11 +9061,11 @@
       <c r="P57" s="37"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43" t="s">
+      <c r="A58" s="59"/>
+      <c r="B58" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="44"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="31"/>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
@@ -9075,11 +9083,11 @@
       <c r="P58" s="37"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="43" t="s">
+      <c r="A59" s="59"/>
+      <c r="B59" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="44"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="31"/>
       <c r="E59" s="32"/>
       <c r="F59" s="32"/>
@@ -9087,10 +9095,10 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="33"/>
-      <c r="K59" s="45" t="s">
+      <c r="K59" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="46"/>
+      <c r="L59" s="49"/>
       <c r="M59" s="35" t="s">
         <v>109</v>
       </c>
@@ -9099,111 +9107,153 @@
       <c r="P59" s="37"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
-      <c r="B60" s="47" t="s">
+      <c r="A60" s="59"/>
+      <c r="B60" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="49"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="40"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C61" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="46"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
       <c r="F61" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="45" t="s">
+      <c r="G61" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="45" t="s">
+      <c r="H61" s="49"/>
+      <c r="I61" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="46"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="58"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="51"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="9">
         <v>1</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="43"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="50" t="s">
+      <c r="G62" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="H62" s="52"/>
+      <c r="H62" s="43"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="54"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="45"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="52"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="43"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="54"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="45"/>
     </row>
     <row r="64" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
     <mergeCell ref="A47:P47"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="B48:C48"/>
@@ -9220,61 +9270,19 @@
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9285,8 +9293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C32C7CF-B3F4-4DAF-B908-118F3127E9A6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9362,7 +9370,9 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="28" t="s">
+        <v>406</v>
+      </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -9603,7 +9613,7 @@
         <v>158</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
@@ -9705,33 +9715,33 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="57"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+      <c r="A17" s="58">
         <v>1</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="31" t="s">
         <v>142</v>
       </c>
@@ -9743,10 +9753,10 @@
       <c r="H17" s="31"/>
       <c r="I17" s="32"/>
       <c r="J17" s="33"/>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="46"/>
+      <c r="L17" s="49"/>
       <c r="M17" s="35" t="s">
         <v>144</v>
       </c>
@@ -9755,11 +9765,11 @@
       <c r="P17" s="37"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="31" t="s">
         <v>194</v>
       </c>
@@ -9773,10 +9783,10 @@
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="45" t="s">
+      <c r="K18" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="46"/>
+      <c r="L18" s="49"/>
       <c r="M18" s="35" t="s">
         <v>74</v>
       </c>
@@ -9785,11 +9795,11 @@
       <c r="P18" s="37"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
@@ -9807,11 +9817,11 @@
       <c r="P19" s="37"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
@@ -9819,10 +9829,10 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
-      <c r="K20" s="45" t="s">
+      <c r="K20" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="46"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="35" t="s">
         <v>109</v>
       </c>
@@ -9831,103 +9841,103 @@
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="47" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="40"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="46"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="45" t="s">
+      <c r="H22" s="49"/>
+      <c r="I22" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="58"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="51"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="54"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="45"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="52"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="54"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="45"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="41">
+      <c r="A25" s="58">
         <v>2</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="31" t="s">
         <v>196</v>
       </c>
@@ -9939,10 +9949,10 @@
       <c r="H25" s="31"/>
       <c r="I25" s="32"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="45" t="s">
+      <c r="K25" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L25" s="46"/>
+      <c r="L25" s="49"/>
       <c r="M25" s="35" t="s">
         <v>198</v>
       </c>
@@ -9951,11 +9961,11 @@
       <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="31" t="s">
         <v>199</v>
       </c>
@@ -9969,10 +9979,10 @@
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="L26" s="46"/>
+      <c r="L26" s="49"/>
       <c r="M26" s="35" t="s">
         <v>74</v>
       </c>
@@ -9981,11 +9991,11 @@
       <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="44"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -10003,11 +10013,11 @@
       <c r="P27" s="37"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="44"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -10015,10 +10025,10 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="45" t="s">
+      <c r="K28" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="46"/>
+      <c r="L28" s="49"/>
       <c r="M28" s="35" t="s">
         <v>109</v>
       </c>
@@ -10027,103 +10037,103 @@
       <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="49"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="46"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="46"/>
-      <c r="I30" s="45" t="s">
+      <c r="H30" s="49"/>
+      <c r="I30" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="58"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="51"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="52"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="54"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="45"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="52"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="54"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="45"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="41">
+      <c r="A33" s="58">
         <v>3</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="44"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="31" t="s">
         <v>201</v>
       </c>
@@ -10135,10 +10145,10 @@
       <c r="H33" s="31"/>
       <c r="I33" s="32"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="45" t="s">
+      <c r="K33" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L33" s="46"/>
+      <c r="L33" s="49"/>
       <c r="M33" s="35" t="s">
         <v>198</v>
       </c>
@@ -10147,11 +10157,11 @@
       <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43" t="s">
+      <c r="A34" s="59"/>
+      <c r="B34" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="44"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="31" t="s">
         <v>199</v>
       </c>
@@ -10165,10 +10175,10 @@
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="33"/>
-      <c r="K34" s="45" t="s">
+      <c r="K34" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="L34" s="46"/>
+      <c r="L34" s="49"/>
       <c r="M34" s="35" t="s">
         <v>74</v>
       </c>
@@ -10177,11 +10187,11 @@
       <c r="P34" s="37"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43" t="s">
+      <c r="A35" s="59"/>
+      <c r="B35" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="44"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="31"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
@@ -10199,11 +10209,11 @@
       <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43" t="s">
+      <c r="A36" s="59"/>
+      <c r="B36" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="31"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
@@ -10211,10 +10221,10 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="33"/>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="46"/>
+      <c r="L36" s="49"/>
       <c r="M36" s="35" t="s">
         <v>109</v>
       </c>
@@ -10223,144 +10233,145 @@
       <c r="P36" s="37"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="47" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="49"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="46"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
       <c r="F38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="45" t="s">
+      <c r="H38" s="49"/>
+      <c r="I38" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="58"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="51"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="9">
         <v>1</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="H39" s="52"/>
+      <c r="H39" s="43"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="54"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="45"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="52"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="52"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="43"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="54"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:A24"/>
@@ -10385,54 +10396,53 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10443,7 +10453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -10755,13 +10765,13 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>334</v>
-      </c>
       <c r="H11" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
@@ -11085,33 +11095,33 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="40"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="57"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="41">
+      <c r="A23" s="58">
         <v>1</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="44"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="31" t="s">
         <v>142</v>
       </c>
@@ -11123,10 +11133,10 @@
       <c r="H23" s="31"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="46"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="35" t="s">
         <v>144</v>
       </c>
@@ -11135,11 +11145,11 @@
       <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="31" t="s">
         <v>194</v>
       </c>
@@ -11153,10 +11163,10 @@
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="45" t="s">
+      <c r="K24" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="46"/>
+      <c r="L24" s="49"/>
       <c r="M24" s="35" t="s">
         <v>74</v>
       </c>
@@ -11165,11 +11175,11 @@
       <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -11187,11 +11197,11 @@
       <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="31"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -11199,10 +11209,10 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="46"/>
+      <c r="L26" s="49"/>
       <c r="M26" s="35" t="s">
         <v>109</v>
       </c>
@@ -11211,103 +11221,103 @@
       <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="47" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="49"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="46"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="46"/>
-      <c r="I28" s="45" t="s">
+      <c r="H28" s="49"/>
+      <c r="I28" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="58"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="51"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="9">
         <v>1</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="54"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="45"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="52"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="54"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="45"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="41">
+      <c r="A31" s="58">
         <v>2</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="60" t="s">
         <v>261</v>
       </c>
@@ -11319,10 +11329,10 @@
       <c r="H31" s="31"/>
       <c r="I31" s="32"/>
       <c r="J31" s="33"/>
-      <c r="K31" s="45" t="s">
+      <c r="K31" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="46"/>
+      <c r="L31" s="49"/>
       <c r="M31" s="35" t="s">
         <v>198</v>
       </c>
@@ -11331,11 +11341,11 @@
       <c r="P31" s="37"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43" t="s">
+      <c r="A32" s="59"/>
+      <c r="B32" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="60" t="s">
         <v>182</v>
       </c>
@@ -11349,10 +11359,10 @@
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="33"/>
-      <c r="K32" s="45" t="s">
+      <c r="K32" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="L32" s="46"/>
+      <c r="L32" s="49"/>
       <c r="M32" s="35" t="s">
         <v>74</v>
       </c>
@@ -11361,11 +11371,11 @@
       <c r="P32" s="37"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="44"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="31"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
@@ -11373,10 +11383,10 @@
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="45" t="s">
+      <c r="K33" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="46"/>
+      <c r="L33" s="49"/>
       <c r="M33" s="35" t="s">
         <v>109</v>
       </c>
@@ -11385,90 +11395,90 @@
       <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="47" t="s">
+      <c r="A34" s="59"/>
+      <c r="B34" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="49"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="46"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="45" t="s">
+      <c r="H35" s="49"/>
+      <c r="I35" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="46"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="58"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="51"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="9">
         <v>1</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="H36" s="52"/>
+      <c r="H36" s="43"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="54"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="45"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="52"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="43"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="54"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -11476,6 +11486,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K24:L24"/>
@@ -11492,69 +11565,6 @@
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11566,7 +11576,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="D4" sqref="D4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11592,7 +11602,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -11616,7 +11626,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -11625,7 +11635,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -11642,7 +11652,7 @@
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -12213,12 +12223,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A3:C3"/>
@@ -12227,6 +12231,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B135B4F-A222-4734-9871-6CE0A002916B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69204E4F-11D7-4175-BA38-F13798914E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="406">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INTEGER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,10 +503,6 @@
   </si>
   <si>
     <t>deptId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1701,6 +1693,10 @@
   </si>
   <si>
     <t>many-to-many</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子流程实例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2017,6 +2013,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2044,13 +2067,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2060,27 +2077,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2436,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2446,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2456,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2466,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2476,7 +2472,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2486,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2496,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2506,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2666,7 +2662,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -2690,7 +2686,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -2699,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -2716,7 +2712,7 @@
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -2803,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2815,7 +2811,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -2827,10 +2823,10 @@
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -2848,14 +2844,14 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -2882,14 +2878,14 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -2914,21 +2910,21 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -2944,14 +2940,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -2974,19 +2970,19 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
       <c r="J12" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K12" s="8">
         <v>30</v>
@@ -3006,19 +3002,19 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -3034,19 +3030,19 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
       <c r="J14" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -3062,19 +3058,19 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
       <c r="J15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -3090,25 +3086,25 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -3124,17 +3120,17 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>27</v>
@@ -3158,23 +3154,23 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3190,17 +3186,17 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>27</v>
@@ -3224,23 +3220,23 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="H20" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -3339,7 +3335,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -3363,7 +3359,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -3372,7 +3368,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -3474,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3486,7 +3482,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -3498,10 +3494,10 @@
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -3518,7 +3514,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>26</v>
@@ -3528,7 +3524,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -3553,14 +3549,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -3585,26 +3581,26 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -3617,14 +3613,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -3647,17 +3643,17 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="H12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>27</v>
@@ -3681,23 +3677,23 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -3726,6 +3722,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -3733,12 +3735,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3777,7 +3773,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -3801,7 +3797,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -3810,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -3912,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3924,7 +3920,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -3936,10 +3932,10 @@
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -3956,17 +3952,17 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -3991,14 +3987,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -4022,17 +4018,17 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -4057,14 +4053,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -4089,26 +4085,26 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="8"/>
@@ -4121,14 +4117,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -4151,14 +4147,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -4181,14 +4177,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -4211,14 +4207,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -4241,19 +4237,19 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
       <c r="J17" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -4269,19 +4265,19 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
       <c r="J18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -4297,25 +4293,25 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -4331,17 +4327,17 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="H20" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>27</v>
@@ -4365,23 +4361,23 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="H21" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -4397,17 +4393,17 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="H22" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>27</v>
@@ -4431,23 +4427,23 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="H23" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -4463,19 +4459,19 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="11" t="s">
@@ -4510,6 +4506,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -4517,12 +4519,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4547,7 +4543,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -4558,101 +4554,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="11" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4710,13 +4706,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>6</v>
@@ -4725,7 +4721,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4733,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -4750,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -4767,7 +4763,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -4784,7 +4780,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -4801,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -4818,7 +4814,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -4835,7 +4831,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -4852,11 +4848,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4867,10 +4863,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>28</v>
@@ -4886,7 +4882,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -4903,11 +4899,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -4918,11 +4914,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -4933,7 +4929,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -4950,11 +4946,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -4965,7 +4961,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -4982,13 +4978,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -4999,7 +4995,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -5016,7 +5012,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -5092,7 +5088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -5120,7 +5116,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -5144,7 +5140,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -5153,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -5255,7 +5251,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -5267,7 +5263,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -5279,10 +5275,10 @@
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -5299,16 +5295,16 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>21</v>
@@ -5336,14 +5332,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -5368,14 +5364,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -5399,17 +5395,17 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -5434,14 +5430,14 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
@@ -5464,17 +5460,17 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>27</v>
@@ -5498,27 +5494,27 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="1"/>
@@ -5530,25 +5526,25 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="H15" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -5564,17 +5560,17 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>27</v>
@@ -5598,23 +5594,23 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -5630,17 +5626,17 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>27</v>
@@ -5664,23 +5660,23 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -5696,19 +5692,19 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="11" t="s">
@@ -5761,13 +5757,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -5808,7 +5804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -5836,7 +5832,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -5860,7 +5856,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -5869,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -5971,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -5983,7 +5979,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -5995,10 +5991,10 @@
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -6015,14 +6011,14 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>21</v>
@@ -6050,14 +6046,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -6082,14 +6078,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -6114,14 +6110,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -6143,17 +6139,17 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -6169,7 +6165,7 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -6180,26 +6176,26 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="8"/>
@@ -6212,14 +6208,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -6241,22 +6237,22 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
       <c r="J15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -6271,22 +6267,22 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
       <c r="J16" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -6302,19 +6298,19 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
       <c r="J17" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -6330,19 +6326,19 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
       <c r="J18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -6358,14 +6354,14 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
@@ -6388,14 +6384,14 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="8"/>
@@ -6418,14 +6414,14 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
@@ -6448,14 +6444,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
@@ -6478,14 +6474,14 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -6508,14 +6504,14 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
@@ -6538,14 +6534,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -6568,14 +6564,14 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -6598,14 +6594,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -6628,14 +6624,14 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -6658,14 +6654,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -6688,14 +6684,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -6718,14 +6714,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -6748,14 +6744,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -6778,14 +6774,14 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -6808,14 +6804,14 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -6838,14 +6834,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -6868,14 +6864,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -6898,25 +6894,25 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="11" t="s">
+      <c r="G37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="H37" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -6932,17 +6928,17 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="H38" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>27</v>
@@ -6966,23 +6962,23 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="H39" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -6998,17 +6994,17 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="H40" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>27</v>
@@ -7032,23 +7028,23 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="H41" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -7064,19 +7060,19 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="11" t="s">
@@ -7128,63 +7124,63 @@
       <c r="P44" s="33"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="57"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="40"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="58">
+      <c r="A47" s="41">
         <v>1</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="54"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H47" s="31"/>
       <c r="I47" s="32"/>
       <c r="J47" s="33"/>
-      <c r="K47" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L47" s="49"/>
+      <c r="K47" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L47" s="46"/>
       <c r="M47" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
       <c r="P47" s="37"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="53" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="54"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
@@ -7192,32 +7188,32 @@
         <v>3</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="47" t="s">
+      <c r="K48" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="46"/>
+      <c r="M48" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="L48" s="49"/>
-      <c r="M48" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="36"/>
       <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="54"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="44"/>
       <c r="D49" s="31"/>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
@@ -7230,11 +7226,11 @@
       <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="53" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="31"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
@@ -7242,121 +7238,131 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="33"/>
-      <c r="K50" s="47" t="s">
+      <c r="K50" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L50" s="49"/>
+      <c r="L50" s="46"/>
       <c r="M50" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N50" s="36"/>
       <c r="O50" s="36"/>
       <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="38" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="40"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="49"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="47" t="s">
+      <c r="G52" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="49"/>
-      <c r="I52" s="47" t="s">
+      <c r="H52" s="46"/>
+      <c r="I52" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="51"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="58"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="9">
         <v>1</v>
       </c>
-      <c r="C53" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="43"/>
+      <c r="C53" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D53" s="51"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="H53" s="43"/>
+      <c r="G53" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="H53" s="52"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="45"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="54"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="52"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="43"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="45"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="M49:P49"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A44:P44"/>
     <mergeCell ref="A46:P46"/>
@@ -7373,28 +7379,18 @@
     <mergeCell ref="M48:P48"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7405,8 +7401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7433,7 +7429,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -7457,7 +7453,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -7466,7 +7462,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -7568,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -7580,7 +7576,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -7592,10 +7588,10 @@
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -7612,17 +7608,17 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -7647,14 +7643,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -7679,14 +7675,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -7700,7 +7696,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -7713,14 +7709,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -7745,26 +7741,26 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -7775,14 +7771,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -7805,16 +7801,16 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -7837,14 +7833,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -7867,14 +7863,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -7897,19 +7893,19 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
       <c r="J17" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -7925,14 +7921,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -7955,16 +7951,16 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
@@ -7987,14 +7983,14 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="8"/>
@@ -8017,14 +8013,14 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
@@ -8047,16 +8043,16 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
@@ -8070,7 +8066,7 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -8081,14 +8077,14 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -8111,14 +8107,14 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>342</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
@@ -8132,7 +8128,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -8143,14 +8139,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>343</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -8173,16 +8169,16 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>234</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -8196,7 +8192,7 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P26" s="1"/>
     </row>
@@ -8207,14 +8203,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -8237,16 +8233,16 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -8269,14 +8265,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -8299,14 +8295,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -8329,14 +8325,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -8359,19 +8355,19 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
       <c r="J32" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -8387,19 +8383,19 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -8415,19 +8411,19 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -8443,19 +8439,19 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -8471,21 +8467,21 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -8501,16 +8497,16 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="8"/>
@@ -8533,13 +8529,13 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>9</v>
@@ -8565,25 +8561,25 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="G39" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="H39" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -8599,19 +8595,19 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="H40" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>27</v>
@@ -8635,25 +8631,25 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="11" t="s">
+      <c r="G41" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="H41" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -8669,19 +8665,19 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42" s="11" t="s">
+      <c r="G42" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="H42" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>27</v>
@@ -8705,25 +8701,25 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="11" t="s">
+      <c r="G43" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="H43" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -8739,19 +8735,19 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="11" t="s">
@@ -8785,63 +8781,63 @@
       <c r="P45" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="57"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="40"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="58">
+      <c r="A48" s="41">
         <v>1</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="54"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
       <c r="G48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="31"/>
       <c r="I48" s="32"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L48" s="49"/>
+      <c r="K48" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L48" s="46"/>
       <c r="M48" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="36"/>
       <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="54"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="31" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
@@ -8849,32 +8845,32 @@
         <v>3</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="33"/>
-      <c r="K49" s="47" t="s">
+      <c r="K49" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="46"/>
+      <c r="M49" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="L49" s="49"/>
-      <c r="M49" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
       <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="54"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="44"/>
       <c r="D50" s="31"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
@@ -8887,11 +8883,11 @@
       <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="53" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="54"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="31"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
@@ -8899,145 +8895,145 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="33"/>
-      <c r="K51" s="47" t="s">
+      <c r="K51" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="49"/>
+      <c r="L51" s="46"/>
       <c r="M51" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
       <c r="P51" s="37"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
-      <c r="B52" s="38" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="40"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="49"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="47" t="s">
+      <c r="G53" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="49"/>
-      <c r="I53" s="47" t="s">
+      <c r="H53" s="46"/>
+      <c r="I53" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="49"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="51"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="58"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="9">
         <v>1</v>
       </c>
-      <c r="C54" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43"/>
+      <c r="C54" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="52"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="H54" s="43"/>
+      <c r="G54" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="H54" s="52"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="45"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="54"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="43"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="52"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="43"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="45"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="54"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="58">
+      <c r="A56" s="41">
         <v>2</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="54"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
       <c r="G56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H56" s="31"/>
       <c r="I56" s="32"/>
       <c r="J56" s="33"/>
-      <c r="K56" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L56" s="49"/>
+      <c r="K56" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L56" s="46"/>
       <c r="M56" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N56" s="36"/>
       <c r="O56" s="36"/>
       <c r="P56" s="37"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="54"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="31" t="s">
-        <v>118</v>
+        <v>405</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
@@ -9045,32 +9041,32 @@
         <v>3</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="33"/>
-      <c r="K57" s="47" t="s">
+      <c r="K57" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L57" s="46"/>
+      <c r="M57" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="L57" s="49"/>
-      <c r="M57" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
       <c r="P57" s="37"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="54"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="44"/>
       <c r="D58" s="31"/>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
       <c r="G58" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
@@ -9083,11 +9079,11 @@
       <c r="P58" s="37"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="53" t="s">
+      <c r="A59" s="42"/>
+      <c r="B59" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="31"/>
       <c r="E59" s="32"/>
       <c r="F59" s="32"/>
@@ -9095,165 +9091,123 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="33"/>
-      <c r="K59" s="47" t="s">
+      <c r="K59" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="49"/>
+      <c r="L59" s="46"/>
       <c r="M59" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
       <c r="P59" s="37"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="38" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="40"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="49"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="48"/>
-      <c r="E61" s="49"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="47" t="s">
+      <c r="G61" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="49"/>
-      <c r="I61" s="47" t="s">
+      <c r="H61" s="46"/>
+      <c r="I61" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="49"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="51"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="58"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="59"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="9">
         <v>1</v>
       </c>
-      <c r="C62" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="43"/>
+      <c r="C62" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="H62" s="43"/>
+      <c r="G62" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="H62" s="52"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="45"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="54"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="59"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="52"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="43"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="52"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="45"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="54"/>
     </row>
     <row r="64" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A47:P47"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="B48:C48"/>
@@ -9270,19 +9224,61 @@
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="M50:P50"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9293,7 +9289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C32C7CF-B3F4-4DAF-B908-118F3127E9A6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:M4"/>
     </sheetView>
   </sheetViews>
@@ -9321,7 +9317,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -9345,7 +9341,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -9354,7 +9350,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -9371,7 +9367,7 @@
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -9458,7 +9454,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -9470,7 +9466,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -9482,10 +9478,10 @@
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -9503,14 +9499,14 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -9537,14 +9533,14 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -9571,14 +9567,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -9603,17 +9599,17 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
@@ -9637,17 +9633,17 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="H12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>27</v>
@@ -9671,23 +9667,23 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -9715,63 +9711,63 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="58">
+      <c r="A17" s="41">
         <v>1</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="32"/>
       <c r="J17" s="33"/>
-      <c r="K17" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="49"/>
+      <c r="K17" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="46"/>
       <c r="M17" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="37"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
@@ -9779,32 +9775,32 @@
         <v>3</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="46"/>
+      <c r="M18" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="37"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="54"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="44"/>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
@@ -9817,11 +9813,11 @@
       <c r="P19" s="37"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
@@ -9829,145 +9825,145 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
-      <c r="K20" s="47" t="s">
+      <c r="K20" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="49"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="40"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="47" t="s">
+      <c r="H22" s="46"/>
+      <c r="I22" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="51"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+      <c r="C23" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="H23" s="43"/>
+      <c r="G23" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="52"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="45"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="54"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="43"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="45"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="58">
+      <c r="A25" s="41">
         <v>2</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="32"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" s="49"/>
+      <c r="K25" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="46"/>
       <c r="M25" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -9975,32 +9971,32 @@
         <v>3</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="46"/>
+      <c r="M26" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="54"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="44"/>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
@@ -10013,11 +10009,11 @@
       <c r="P27" s="37"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="54"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -10025,145 +10021,145 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="47" t="s">
+      <c r="K28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="49"/>
+      <c r="L28" s="46"/>
       <c r="M28" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="38" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="47" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="51"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="58"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="C31" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="H31" s="43"/>
+      <c r="G31" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="52"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="45"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="54"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="43"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="45"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="54"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="58">
+      <c r="A33" s="41">
         <v>3</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="54"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="31"/>
       <c r="I33" s="32"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L33" s="49"/>
+      <c r="K33" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="46"/>
       <c r="M33" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
@@ -10171,32 +10167,32 @@
         <v>3</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="33"/>
-      <c r="K34" s="47" t="s">
+      <c r="K34" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" s="46"/>
+      <c r="M34" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="L34" s="49"/>
-      <c r="M34" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="54"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="44"/>
       <c r="D35" s="31"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -10209,11 +10205,11 @@
       <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="31"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
@@ -10221,124 +10217,189 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="33"/>
-      <c r="K36" s="47" t="s">
+      <c r="K36" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="49"/>
+      <c r="L36" s="46"/>
       <c r="M36" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="37"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="49"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="47" t="s">
+      <c r="H38" s="46"/>
+      <c r="I38" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="51"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="58"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="9">
         <v>1</v>
       </c>
-      <c r="C39" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="C39" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="H39" s="43"/>
+      <c r="G39" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" s="52"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="45"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="54"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="52"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="43"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="45"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:F25"/>
@@ -10363,86 +10424,21 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10481,7 +10477,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -10505,7 +10501,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -10514,7 +10510,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -10616,7 +10612,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -10628,7 +10624,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -10640,10 +10636,10 @@
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -10660,13 +10656,13 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>26</v>
@@ -10697,14 +10693,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -10729,14 +10725,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -10761,17 +10757,17 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
@@ -10794,24 +10790,24 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -10827,14 +10823,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -10857,14 +10853,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -10887,14 +10883,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -10917,25 +10913,25 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -10951,17 +10947,17 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>27</v>
@@ -10985,23 +10981,23 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -11017,17 +11013,17 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>27</v>
@@ -11051,23 +11047,23 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="H20" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -11095,63 +11091,63 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="40"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="58">
+      <c r="A23" s="41">
         <v>1</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
-      <c r="K23" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="49"/>
+      <c r="K23" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="46"/>
       <c r="M23" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -11159,32 +11155,32 @@
         <v>3</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="47" t="s">
+      <c r="K24" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="46"/>
+      <c r="M24" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
       <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="54"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="44"/>
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
@@ -11197,11 +11193,11 @@
       <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="31"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -11209,145 +11205,145 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="49"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="47" t="s">
+      <c r="H28" s="46"/>
+      <c r="I28" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="51"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="58"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="9">
         <v>1</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
+      <c r="C29" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="H29" s="43"/>
+      <c r="G29" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="H29" s="52"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="45"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="54"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="43"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="45"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="54"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="58">
+      <c r="A31" s="41">
         <v>2</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="54"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E31" s="61"/>
       <c r="F31" s="61"/>
       <c r="G31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31" s="31"/>
       <c r="I31" s="32"/>
       <c r="J31" s="33"/>
-      <c r="K31" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L31" s="49"/>
+      <c r="K31" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="46"/>
       <c r="M31" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="37"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E32" s="61"/>
       <c r="F32" s="61"/>
@@ -11355,27 +11351,27 @@
         <v>3</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="33"/>
-      <c r="K32" s="47" t="s">
+      <c r="K32" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="46"/>
+      <c r="M32" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="L32" s="49"/>
-      <c r="M32" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
       <c r="P32" s="37"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="53" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="54"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="31"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
@@ -11383,102 +11379,102 @@
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="49"/>
+      <c r="L33" s="46"/>
       <c r="M33" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="49"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="47" t="s">
+      <c r="H35" s="46"/>
+      <c r="I35" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="51"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="58"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="9">
         <v>1</v>
       </c>
-      <c r="C36" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="C36" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="H36" s="43"/>
+      <c r="G36" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="H36" s="52"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="45"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="54"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="43"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="45"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -11486,24 +11482,51 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A31:A37"/>
@@ -11520,51 +11543,24 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="M24:P24"/>
     <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11602,7 +11598,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -11626,7 +11622,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -11635,7 +11631,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -11652,7 +11648,7 @@
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -11739,7 +11735,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -11751,7 +11747,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -11763,10 +11759,10 @@
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -11784,14 +11780,14 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -11818,14 +11814,14 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -11850,21 +11846,21 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -11880,14 +11876,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -11910,19 +11906,19 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
       <c r="J12" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K12" s="8">
         <v>30</v>
@@ -11942,19 +11938,19 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -11970,19 +11966,19 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
       <c r="J14" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -11998,19 +11994,19 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
       <c r="J15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -12026,25 +12022,25 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -12060,17 +12056,17 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>27</v>
@@ -12094,23 +12090,23 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -12126,17 +12122,17 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>27</v>
@@ -12160,23 +12156,23 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="H20" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -12223,6 +12219,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A3:C3"/>
@@ -12231,12 +12233,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45725292-DE14-47AC-9BFF-683E52F14C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF00E5-C4E7-4227-A343-54639B49D43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="472">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -894,10 +894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wf/wf-step-type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CANCELLER_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1736,58 +1732,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>wf/wf-step-type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Workflow Step Type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>step</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通步骤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>STEP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>join</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇聚步骤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOIN</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>subflow</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>子流程</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUBFLOW</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>wf/work-status</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2012,6 +1956,10 @@
   </si>
   <si>
     <t>useCoreModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.nop.wf.core.model.WfStepType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2932,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2942,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2952,7 +2900,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2962,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2972,7 +2920,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3132,7 +3080,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -3156,7 +3104,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -3165,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -3182,7 +3130,7 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -3348,14 +3296,14 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -3380,14 +3328,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -3410,14 +3358,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -3440,19 +3388,19 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>279</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
       <c r="J12" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K12" s="8">
         <v>30</v>
@@ -3472,19 +3420,19 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -3500,14 +3448,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -3528,14 +3476,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -3574,7 +3522,7 @@
         <v>27</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -3805,7 +3753,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -3829,7 +3777,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -3838,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -3855,7 +3803,7 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -4021,14 +3969,14 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -4053,14 +4001,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -4083,14 +4031,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -4113,19 +4061,19 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>279</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
       <c r="J12" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K12" s="8">
         <v>30</v>
@@ -4145,19 +4093,19 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -4173,14 +4121,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -4201,14 +4149,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -4247,7 +4195,7 @@
         <v>27</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -4478,7 +4426,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -4502,7 +4450,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -4511,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -4667,7 +4615,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -4724,14 +4672,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>297</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -4743,7 +4691,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -4756,14 +4704,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>300</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -4916,7 +4864,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -4940,7 +4888,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -4949,7 +4897,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -5098,14 +5046,14 @@
         <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -5130,14 +5078,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -5171,7 +5119,7 @@
         <v>144</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -5196,14 +5144,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>308</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -5247,7 +5195,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="8"/>
@@ -5260,14 +5208,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -5290,14 +5238,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -5320,14 +5268,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -5350,14 +5298,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -5380,14 +5328,14 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -5408,14 +5356,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>315</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -5673,7 +5621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -5686,7 +5634,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -5744,7 +5692,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
@@ -5796,7 +5744,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B11" s="33" t="b">
         <v>1</v>
@@ -6159,7 +6107,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -6233,10 +6181,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC07AC33-2EAE-4B58-8A81-8419FBBDDE80}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6250,45 +6198,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="50">
+      <c r="A1" s="34">
         <v>1</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>416</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="39" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="37" t="s">
         <v>409</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="37" t="s">
-        <v>410</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
@@ -6297,9 +6245,9 @@
       <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -6308,79 +6256,73 @@
       <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>414</v>
-      </c>
       <c r="F5" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>419</v>
+      <c r="C6" s="26">
+        <v>0</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>421</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="26">
         <v>2</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>422</v>
+      <c r="C7" s="26">
+        <v>10</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>424</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="26">
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>425</v>
+      <c r="C8" s="26">
+        <v>20</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>427</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="26"/>
       <c r="C9" s="30"/>
       <c r="D9" s="29"/>
@@ -6389,7 +6331,7 @@
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="45"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -6398,45 +6340,45 @@
       <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="34">
+      <c r="A11" s="50">
         <v>2</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="39" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="G11" s="18" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="37" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="37" t="s">
-        <v>408</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="37" t="s">
         <v>409</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="37" t="s">
-        <v>410</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="39"/>
@@ -6445,9 +6387,9 @@
       <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
@@ -6456,28 +6398,28 @@
       <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="D15" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>414</v>
-      </c>
       <c r="F15" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="26">
         <v>1</v>
       </c>
@@ -6485,14 +6427,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="E16" s="29"/>
+        <v>423</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>424</v>
+      </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="26">
         <v>2</v>
       </c>
@@ -6500,14 +6444,16 @@
         <v>10</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="E17" s="29"/>
+        <v>425</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>426</v>
+      </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="26">
         <v>3</v>
       </c>
@@ -6515,523 +6461,537 @@
         <v>20</v>
       </c>
       <c r="D18" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="26">
+        <v>4</v>
+      </c>
+      <c r="C19" s="31">
+        <v>30</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>429</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="G19" s="32" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="26">
+        <v>5</v>
+      </c>
+      <c r="C20" s="31">
+        <v>40</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="32" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="50">
-        <v>3</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39" t="s">
-        <v>434</v>
-      </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>407</v>
+      <c r="A21" s="51"/>
+      <c r="B21" s="26">
+        <v>6</v>
+      </c>
+      <c r="C21" s="31">
+        <v>50</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="32" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
-      <c r="B22" s="37" t="s">
-        <v>408</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>435</v>
+      <c r="B22" s="26">
+        <v>7</v>
+      </c>
+      <c r="C22" s="31">
+        <v>60</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="32" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
-      <c r="B23" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="40"/>
+      <c r="B23" s="26">
+        <v>8</v>
+      </c>
+      <c r="C23" s="31">
+        <v>70</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="32" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
-      <c r="B24" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
+      <c r="B24" s="26">
+        <v>9</v>
+      </c>
+      <c r="C24" s="31">
+        <v>80</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="32" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26">
+        <v>10</v>
+      </c>
+      <c r="C25" s="31">
+        <v>90</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="32" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="48">
+        <v>4</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="49"/>
+      <c r="B28" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="D31" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="F25" s="28" t="s">
+      <c r="F31" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="G31" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="G25" s="28" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="26">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="26">
         <v>1</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C32" s="26">
         <v>0</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="26">
+      <c r="D32" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="26">
         <v>2</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C33" s="26">
         <v>10</v>
       </c>
-      <c r="D27" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="26">
+      <c r="D33" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="26">
         <v>3</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C34" s="26">
         <v>20</v>
       </c>
-      <c r="D28" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="32" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="26">
-        <v>4</v>
-      </c>
-      <c r="C29" s="31">
-        <v>30</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>443</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="32" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="26">
-        <v>5</v>
-      </c>
-      <c r="C30" s="31">
-        <v>40</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="32" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="26">
-        <v>6</v>
-      </c>
-      <c r="C31" s="31">
-        <v>50</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="32" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="26">
-        <v>7</v>
-      </c>
-      <c r="C32" s="31">
-        <v>60</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="32" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="26">
-        <v>8</v>
-      </c>
-      <c r="C33" s="31">
-        <v>70</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="32" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="26">
-        <v>9</v>
-      </c>
-      <c r="C34" s="31">
-        <v>80</v>
-      </c>
       <c r="D34" s="29" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C35" s="31">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="F35" s="29"/>
-      <c r="G35" s="32" t="s">
-        <v>458</v>
-      </c>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="52"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="26">
+        <v>5</v>
+      </c>
+      <c r="C36" s="31">
+        <v>40</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="48">
-        <v>4</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>407</v>
-      </c>
+      <c r="A37" s="49"/>
+      <c r="B37" s="26">
+        <v>6</v>
+      </c>
+      <c r="C37" s="31">
+        <v>50</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="49"/>
-      <c r="B38" s="37" t="s">
-        <v>408</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>461</v>
-      </c>
+      <c r="B38" s="26">
+        <v>7</v>
+      </c>
+      <c r="C38" s="31">
+        <v>60</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="49"/>
-      <c r="B39" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="40"/>
+      <c r="B39" s="26">
+        <v>8</v>
+      </c>
+      <c r="C39" s="31">
+        <v>70</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="49"/>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="50">
+        <v>5</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="51"/>
+      <c r="B42" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="40"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="51"/>
+      <c r="B44" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="51"/>
+      <c r="B45" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="27" t="s">
+      <c r="C45" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="D45" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="E45" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="F41" s="28" t="s">
+      <c r="F45" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="G45" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="G41" s="28" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
-      <c r="B42" s="26">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="51"/>
+      <c r="B46" s="26">
         <v>1</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C46" s="26">
         <v>0</v>
       </c>
-      <c r="D42" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="26">
+      <c r="D46" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="51"/>
+      <c r="B47" s="26">
         <v>2</v>
       </c>
-      <c r="C43" s="26">
-        <v>10</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="49"/>
-      <c r="B44" s="26">
+      <c r="C47" s="26">
+        <v>1</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="51"/>
+      <c r="B48" s="26">
         <v>3</v>
       </c>
-      <c r="C44" s="26">
-        <v>20</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="32" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="26">
+      <c r="C48" s="26">
+        <v>2</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="51"/>
+      <c r="B49" s="26">
         <v>4</v>
       </c>
-      <c r="C45" s="31">
-        <v>30</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>443</v>
-      </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="32"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="26">
-        <v>5</v>
-      </c>
-      <c r="C46" s="31">
-        <v>40</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="32"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="49"/>
-      <c r="B47" s="26">
-        <v>6</v>
-      </c>
-      <c r="C47" s="31">
-        <v>50</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="32"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="49"/>
-      <c r="B48" s="26">
-        <v>7</v>
-      </c>
-      <c r="C48" s="31">
-        <v>60</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="32"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="B49" s="26">
-        <v>8</v>
-      </c>
-      <c r="C49" s="31">
-        <v>70</v>
+      <c r="C49" s="26">
+        <v>3</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>466</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F49" s="29"/>
-      <c r="G49" s="32"/>
+      <c r="G49" s="29" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="45"/>
       <c r="C50" s="46"/>
       <c r="D50" s="46"/>
@@ -7039,205 +6999,23 @@
       <c r="F50" s="46"/>
       <c r="G50" s="47"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="50">
-        <v>1</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
-      <c r="B52" s="37" t="s">
-        <v>408</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
-      <c r="B53" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="40"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
-      <c r="B54" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="44"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
-      <c r="B56" s="26">
-        <v>1</v>
-      </c>
-      <c r="C56" s="26">
-        <v>0</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="26">
-        <v>2</v>
-      </c>
-      <c r="C57" s="26">
-        <v>1</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="26">
-        <v>3</v>
-      </c>
-      <c r="C58" s="26">
-        <v>2</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="26">
-        <v>4</v>
-      </c>
-      <c r="C59" s="26">
-        <v>3</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="52"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="47"/>
-    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
+  <mergeCells count="36">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A27:A40"/>
     <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A37:A50"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="A1:A10"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A11:A26"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
@@ -7245,7 +7023,20 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A1:A10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7466,13 +7257,13 @@
         <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>21</v>
@@ -7647,7 +7438,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="11"/>
@@ -7681,7 +7472,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="11" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="8"/>
@@ -7972,8 +7763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8363,7 +8154,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="8"/>
@@ -8376,14 +8167,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>382</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -8466,14 +8257,14 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -8522,14 +8313,14 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>220</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
@@ -8612,7 +8403,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
@@ -8642,14 +8433,14 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>384</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>385</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -8672,7 +8463,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
@@ -8702,14 +8493,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -8732,14 +8523,14 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -8762,14 +8553,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -8792,14 +8583,14 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -8822,14 +8613,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>209</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -8852,11 +8643,11 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>156</v>
@@ -8882,14 +8673,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>375</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -8912,14 +8703,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>377</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>378</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -8942,14 +8733,14 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -8972,14 +8763,14 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>366</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -9002,14 +8793,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -9032,14 +8823,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -9471,7 +9262,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D53" s="74"/>
       <c r="E53" s="75"/>
@@ -9569,8 +9360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9864,7 +9655,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>204</v>
+        <v>471</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -9928,7 +9719,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -9939,14 +9730,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>382</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -9969,16 +9760,16 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -10001,14 +9792,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -10031,14 +9822,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>387</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>388</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -10061,19 +9852,19 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>348</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
       <c r="J17" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -10089,14 +9880,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -10119,16 +9910,16 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
@@ -10151,14 +9942,14 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>334</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="8"/>
@@ -10181,14 +9972,14 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
@@ -10211,16 +10002,16 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
@@ -10234,7 +10025,7 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -10245,14 +10036,14 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -10275,14 +10066,14 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
@@ -10296,7 +10087,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -10307,14 +10098,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -10337,16 +10128,16 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F26" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -10360,7 +10151,7 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P26" s="1"/>
     </row>
@@ -10371,14 +10162,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -10401,16 +10192,16 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>209</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -10433,14 +10224,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -10463,14 +10254,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -10493,14 +10284,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -10530,7 +10321,7 @@
         <v>58</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -10551,11 +10342,11 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>61</v>
@@ -10586,7 +10377,7 @@
         <v>169</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -10607,14 +10398,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -10635,14 +10426,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>244</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8" t="s">
@@ -10665,16 +10456,16 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>396</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="8"/>
@@ -10697,13 +10488,13 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>9</v>
@@ -11173,7 +10964,7 @@
       </c>
       <c r="C56" s="67"/>
       <c r="D56" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
@@ -11201,7 +10992,7 @@
       </c>
       <c r="C57" s="67"/>
       <c r="D57" s="39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
@@ -11209,7 +11000,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I57" s="41"/>
       <c r="J57" s="40"/>
@@ -11324,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="73" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D62" s="74"/>
       <c r="E62" s="75"/>
@@ -11535,7 +11326,7 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -11777,7 +11568,7 @@
         <v>155</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
@@ -12645,7 +12436,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -12669,7 +12460,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -12678,7 +12469,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -12900,7 +12691,7 @@
         <v>180</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -12929,13 +12720,13 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>330</v>
-      </c>
       <c r="H11" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
@@ -12961,14 +12752,14 @@
         <v>147</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -12991,14 +12782,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -13021,14 +12812,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -13051,14 +12842,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -13483,7 +13274,7 @@
       </c>
       <c r="C31" s="67"/>
       <c r="D31" s="83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E31" s="84"/>
       <c r="F31" s="84"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF00E5-C4E7-4227-A343-54639B49D43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67974AD9-4637-4775-A613-77C13BDACD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -2350,13 +2350,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2371,33 +2386,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2405,6 +2393,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2437,27 +2437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2485,7 +2464,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2495,6 +2480,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3088,11 +3088,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3136,11 +3136,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3166,22 +3166,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -3682,31 +3682,25 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="40"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A3:C3"/>
@@ -3715,6 +3709,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3761,11 +3761,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3809,11 +3809,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3839,22 +3839,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -4355,22 +4355,22 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="40"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4434,11 +4434,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4480,11 +4480,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -4510,22 +4510,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -4813,12 +4813,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -4826,6 +4820,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4872,11 +4872,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4918,11 +4918,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -4948,22 +4948,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -5597,12 +5597,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5610,6 +5604,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6198,17 +6198,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34">
+      <c r="A1" s="50">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="25" t="s">
         <v>405</v>
       </c>
@@ -6217,15 +6217,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44" t="s">
         <v>415</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="25" t="s">
         <v>408</v>
       </c>
@@ -6234,29 +6234,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="27" t="s">
         <v>411</v>
       </c>
@@ -6277,7 +6277,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="26">
         <v>1</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="26">
         <v>2</v>
       </c>
@@ -6307,7 +6307,7 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="26">
         <v>3</v>
       </c>
@@ -6322,7 +6322,7 @@
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="26"/>
       <c r="C9" s="30"/>
       <c r="D9" s="29"/>
@@ -6331,26 +6331,26 @@
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="50">
+      <c r="A11" s="46">
         <v>2</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="25" t="s">
         <v>405</v>
       </c>
@@ -6359,15 +6359,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="25" t="s">
         <v>408</v>
       </c>
@@ -6376,29 +6376,29 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="27" t="s">
         <v>411</v>
       </c>
@@ -6419,7 +6419,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="26">
         <v>1</v>
       </c>
@@ -6436,7 +6436,7 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="26">
         <v>2</v>
       </c>
@@ -6453,7 +6453,7 @@
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="26">
         <v>3</v>
       </c>
@@ -6472,7 +6472,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="26">
         <v>4</v>
       </c>
@@ -6491,7 +6491,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="26">
         <v>5</v>
       </c>
@@ -6510,7 +6510,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="26">
         <v>6</v>
       </c>
@@ -6529,7 +6529,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="26">
         <v>7</v>
       </c>
@@ -6548,7 +6548,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="26">
         <v>8</v>
       </c>
@@ -6567,7 +6567,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="26">
         <v>9</v>
       </c>
@@ -6586,7 +6586,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="26">
         <v>10</v>
       </c>
@@ -6605,26 +6605,26 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="48">
+      <c r="A27" s="37">
         <v>4</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="43"/>
+      <c r="D27" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="25" t="s">
         <v>405</v>
       </c>
@@ -6633,15 +6633,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="37" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39" t="s">
+      <c r="C28" s="43"/>
+      <c r="D28" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="25" t="s">
         <v>408</v>
       </c>
@@ -6650,29 +6650,29 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="37" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="40"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="27" t="s">
         <v>411</v>
       </c>
@@ -6693,7 +6693,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="26">
         <v>1</v>
       </c>
@@ -6710,7 +6710,7 @@
       <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="26">
         <v>2</v>
       </c>
@@ -6727,7 +6727,7 @@
       <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="26">
         <v>3</v>
       </c>
@@ -6746,7 +6746,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="26">
         <v>4</v>
       </c>
@@ -6763,7 +6763,7 @@
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="26">
         <v>5</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="26">
         <v>6</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="26">
         <v>7</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="26">
         <v>8</v>
       </c>
@@ -6831,26 +6831,26 @@
       <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="50">
+      <c r="A41" s="46">
         <v>5</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39" t="s">
+      <c r="C41" s="43"/>
+      <c r="D41" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="E41" s="40"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="25" t="s">
         <v>405</v>
       </c>
@@ -6859,15 +6859,15 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="51"/>
-      <c r="B42" s="37" t="s">
+      <c r="A42" s="47"/>
+      <c r="B42" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39" t="s">
+      <c r="C42" s="43"/>
+      <c r="D42" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="E42" s="40"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="25" t="s">
         <v>408</v>
       </c>
@@ -6876,29 +6876,29 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
-      <c r="B43" s="37" t="s">
+      <c r="A43" s="47"/>
+      <c r="B43" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="40"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
-      <c r="B44" s="42" t="s">
+      <c r="A44" s="47"/>
+      <c r="B44" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="27" t="s">
         <v>411</v>
       </c>
@@ -6919,7 +6919,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="26">
         <v>1</v>
       </c>
@@ -6936,7 +6936,7 @@
       <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="26">
         <v>2</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="G47" s="29"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="26">
         <v>3</v>
       </c>
@@ -6972,7 +6972,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="26">
         <v>4</v>
       </c>
@@ -6991,18 +6991,38 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="52"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:A10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B26:G26"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="A41:A50"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
@@ -7015,28 +7035,8 @@
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="A27:A40"/>
     <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A1:A10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7048,7 +7048,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7159,22 +7159,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -7337,11 +7337,9 @@
         <v>27</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="8">
-        <v>50</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -7697,22 +7695,22 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="40"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="45"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
@@ -7763,8 +7761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7875,22 +7873,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -8051,11 +8049,9 @@
         <v>27</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="8">
-        <v>50</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -8445,11 +8441,9 @@
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
       <c r="J23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="8">
-        <v>32</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -9065,66 +9059,66 @@
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="40"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="45"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="65"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="82"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="50">
+      <c r="A47" s="46">
         <v>1</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="39" t="s">
+      <c r="C47" s="79"/>
+      <c r="D47" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="39"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="68" t="s">
+      <c r="H47" s="44"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L47" s="69"/>
+      <c r="L47" s="74"/>
       <c r="M47" s="60" t="s">
         <v>142</v>
       </c>
@@ -9133,28 +9127,28 @@
       <c r="P47" s="62"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
-      <c r="B48" s="66" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="39" t="s">
+      <c r="C48" s="79"/>
+      <c r="D48" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
       <c r="G48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="39" t="s">
+      <c r="H48" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="68" t="s">
+      <c r="I48" s="49"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L48" s="69"/>
+      <c r="L48" s="74"/>
       <c r="M48" s="60" t="s">
         <v>73</v>
       </c>
@@ -9163,20 +9157,20 @@
       <c r="P48" s="62"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="66" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="40"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="45"/>
       <c r="K49" s="19"/>
       <c r="L49" s="20"/>
       <c r="M49" s="60"/>
@@ -9185,22 +9179,22 @@
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
-      <c r="B50" s="66" t="s">
+      <c r="A50" s="47"/>
+      <c r="B50" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="68" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L50" s="69"/>
+      <c r="L50" s="74"/>
       <c r="M50" s="60" t="s">
         <v>108</v>
       </c>
@@ -9209,97 +9203,131 @@
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="70" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="72"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="65"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="68" t="s">
+      <c r="C52" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="79"/>
-      <c r="E52" s="69"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="68" t="s">
+      <c r="G52" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="69"/>
-      <c r="I52" s="68" t="s">
+      <c r="H52" s="74"/>
+      <c r="I52" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="69"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="81"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="76"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="9">
         <v>1</v>
       </c>
-      <c r="C53" s="73" t="s">
+      <c r="C53" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="73" t="s">
+      <c r="G53" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="H53" s="75"/>
+      <c r="H53" s="68"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="77"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="70"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="75"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="68"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="77"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A44:P44"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="M49:P49"/>
     <mergeCell ref="B51:J51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:P51"/>
@@ -9316,40 +9344,6 @@
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:P53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A44:P44"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9360,8 +9354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9472,22 +9466,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -9834,11 +9828,9 @@
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
       <c r="J16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="8">
-        <v>32</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -10740,48 +10732,48 @@
       <c r="P45" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="65"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="82"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="50">
+      <c r="A48" s="46">
         <v>1</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="39" t="s">
+      <c r="C48" s="79"/>
+      <c r="D48" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
       <c r="G48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="68" t="s">
+      <c r="H48" s="44"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L48" s="69"/>
+      <c r="L48" s="74"/>
       <c r="M48" s="60" t="s">
         <v>142</v>
       </c>
@@ -10790,28 +10782,28 @@
       <c r="P48" s="62"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="66" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="39" t="s">
+      <c r="C49" s="79"/>
+      <c r="D49" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="H49" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="68" t="s">
+      <c r="I49" s="49"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L49" s="69"/>
+      <c r="L49" s="74"/>
       <c r="M49" s="60" t="s">
         <v>73</v>
       </c>
@@ -10820,20 +10812,20 @@
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
-      <c r="B50" s="66" t="s">
+      <c r="A50" s="47"/>
+      <c r="B50" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
       <c r="G50" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="40"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="45"/>
       <c r="K50" s="19"/>
       <c r="L50" s="20"/>
       <c r="M50" s="60"/>
@@ -10842,22 +10834,22 @@
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="66" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="68" t="s">
+      <c r="C51" s="79"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="69"/>
+      <c r="L51" s="74"/>
       <c r="M51" s="60" t="s">
         <v>108</v>
       </c>
@@ -10866,118 +10858,118 @@
       <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
-      <c r="B52" s="70" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="72"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="65"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="68" t="s">
+      <c r="C53" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="69"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="68" t="s">
+      <c r="G53" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="69"/>
-      <c r="I53" s="68" t="s">
+      <c r="H53" s="74"/>
+      <c r="I53" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="69"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="81"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="76"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="9">
         <v>1</v>
       </c>
-      <c r="C54" s="73" t="s">
+      <c r="C54" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="73" t="s">
+      <c r="G54" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="H54" s="75"/>
+      <c r="H54" s="68"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="77"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="70"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="75"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="68"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="77"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="70"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="50">
+      <c r="A56" s="46">
         <v>2</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="39" t="s">
+      <c r="C56" s="79"/>
+      <c r="D56" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
       <c r="G56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="39"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="68" t="s">
+      <c r="H56" s="44"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L56" s="69"/>
+      <c r="L56" s="74"/>
       <c r="M56" s="60" t="s">
         <v>142</v>
       </c>
@@ -10986,28 +10978,28 @@
       <c r="P56" s="62"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="66" t="s">
+      <c r="A57" s="47"/>
+      <c r="B57" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="39" t="s">
+      <c r="C57" s="79"/>
+      <c r="D57" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
       <c r="G57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="39" t="s">
+      <c r="H57" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="I57" s="41"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="68" t="s">
+      <c r="I57" s="49"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L57" s="69"/>
+      <c r="L57" s="74"/>
       <c r="M57" s="60" t="s">
         <v>73</v>
       </c>
@@ -11016,20 +11008,20 @@
       <c r="P57" s="62"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="66" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
       <c r="G58" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="40"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="45"/>
       <c r="K58" s="19"/>
       <c r="L58" s="20"/>
       <c r="M58" s="60"/>
@@ -11038,22 +11030,22 @@
       <c r="P58" s="62"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="66" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="68" t="s">
+      <c r="C59" s="79"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="69"/>
+      <c r="L59" s="74"/>
       <c r="M59" s="60" t="s">
         <v>108</v>
       </c>
@@ -11062,111 +11054,153 @@
       <c r="P59" s="62"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="70" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="72"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="65"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="69"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="68" t="s">
+      <c r="G61" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="69"/>
-      <c r="I61" s="68" t="s">
+      <c r="H61" s="74"/>
+      <c r="I61" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="69"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="81"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="77"/>
+      <c r="P61" s="76"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="9">
         <v>1</v>
       </c>
-      <c r="C62" s="73" t="s">
+      <c r="C62" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="74"/>
-      <c r="E62" s="75"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="73" t="s">
+      <c r="G62" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="H62" s="75"/>
+      <c r="H62" s="68"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="76"/>
-      <c r="N62" s="78"/>
-      <c r="O62" s="78"/>
-      <c r="P62" s="77"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="70"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="75"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="75"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="68"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="77"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="70"/>
     </row>
     <row r="64" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
     <mergeCell ref="A47:P47"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="B48:C48"/>
@@ -11183,61 +11217,19 @@
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11362,22 +11354,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -11670,48 +11662,48 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="65"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="82"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="50">
+      <c r="A17" s="46">
         <v>1</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="79"/>
+      <c r="D17" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="68" t="s">
+      <c r="H17" s="44"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="69"/>
+      <c r="L17" s="74"/>
       <c r="M17" s="60" t="s">
         <v>142</v>
       </c>
@@ -11720,28 +11712,28 @@
       <c r="P17" s="62"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="66" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="79"/>
+      <c r="D18" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="68" t="s">
+      <c r="I18" s="49"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="69"/>
+      <c r="L18" s="74"/>
       <c r="M18" s="60" t="s">
         <v>73</v>
       </c>
@@ -11750,20 +11742,20 @@
       <c r="P18" s="62"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="40"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="60"/>
@@ -11772,22 +11764,22 @@
       <c r="P19" s="62"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="66" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="68" t="s">
+      <c r="C20" s="79"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="69"/>
+      <c r="L20" s="74"/>
       <c r="M20" s="60" t="s">
         <v>108</v>
       </c>
@@ -11796,118 +11788,118 @@
       <c r="P20" s="62"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="72"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="65"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="69"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="69"/>
-      <c r="I22" s="68" t="s">
+      <c r="H22" s="74"/>
+      <c r="I22" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="81"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="76"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="H23" s="75"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="77"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="75"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="77"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="70"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="50">
+      <c r="A25" s="46">
         <v>2</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="68" t="s">
+      <c r="H25" s="44"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="69"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="60" t="s">
         <v>195</v>
       </c>
@@ -11916,28 +11908,28 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="39" t="s">
+      <c r="C26" s="79"/>
+      <c r="D26" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="68" t="s">
+      <c r="I26" s="49"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="69"/>
+      <c r="L26" s="74"/>
       <c r="M26" s="60" t="s">
         <v>73</v>
       </c>
@@ -11946,20 +11938,20 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="40"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="45"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="60"/>
@@ -11968,22 +11960,22 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="68" t="s">
+      <c r="C28" s="79"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="69"/>
+      <c r="L28" s="74"/>
       <c r="M28" s="60" t="s">
         <v>108</v>
       </c>
@@ -11992,118 +11984,118 @@
       <c r="P28" s="62"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="72"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="69"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="69"/>
-      <c r="I30" s="68" t="s">
+      <c r="H30" s="74"/>
+      <c r="I30" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="69"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="81"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="76"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="75"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="77"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="70"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="75"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="68"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="77"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="50">
+      <c r="A33" s="46">
         <v>3</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="39" t="s">
+      <c r="C33" s="79"/>
+      <c r="D33" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="68" t="s">
+      <c r="H33" s="44"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="69"/>
+      <c r="L33" s="74"/>
       <c r="M33" s="60" t="s">
         <v>195</v>
       </c>
@@ -12112,28 +12104,28 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="66" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="39" t="s">
+      <c r="C34" s="79"/>
+      <c r="D34" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="68" t="s">
+      <c r="I34" s="49"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L34" s="69"/>
+      <c r="L34" s="74"/>
       <c r="M34" s="60" t="s">
         <v>73</v>
       </c>
@@ -12142,20 +12134,20 @@
       <c r="P34" s="62"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
-      <c r="B35" s="66" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="40"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="45"/>
       <c r="K35" s="19"/>
       <c r="L35" s="20"/>
       <c r="M35" s="60"/>
@@ -12164,22 +12156,22 @@
       <c r="P35" s="62"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
-      <c r="B36" s="66" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="68" t="s">
+      <c r="C36" s="79"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="69"/>
+      <c r="L36" s="74"/>
       <c r="M36" s="60" t="s">
         <v>108</v>
       </c>
@@ -12188,144 +12180,145 @@
       <c r="P36" s="62"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
-      <c r="B37" s="70" t="s">
+      <c r="A37" s="47"/>
+      <c r="B37" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="72"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="65"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="69"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="68" t="s">
+      <c r="G38" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="69"/>
-      <c r="I38" s="68" t="s">
+      <c r="H38" s="74"/>
+      <c r="I38" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="69"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="81"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="76"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="9">
         <v>1</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="68"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="73" t="s">
+      <c r="G39" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="H39" s="75"/>
+      <c r="H39" s="68"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="77"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="70"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="51"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="75"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="75"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="68"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="77"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:A24"/>
@@ -12350,54 +12343,53 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12444,11 +12436,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -12520,22 +12512,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -13050,48 +13042,48 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="65"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="82"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="50">
+      <c r="A23" s="46">
         <v>1</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="79"/>
+      <c r="D23" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="68" t="s">
+      <c r="H23" s="44"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="69"/>
+      <c r="L23" s="74"/>
       <c r="M23" s="60" t="s">
         <v>142</v>
       </c>
@@ -13100,28 +13092,28 @@
       <c r="P23" s="62"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="39" t="s">
+      <c r="C24" s="79"/>
+      <c r="D24" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="68" t="s">
+      <c r="I24" s="49"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L24" s="69"/>
+      <c r="L24" s="74"/>
       <c r="M24" s="60" t="s">
         <v>73</v>
       </c>
@@ -13130,20 +13122,20 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="40"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="45"/>
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="60"/>
@@ -13152,22 +13144,22 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="68" t="s">
+      <c r="C26" s="79"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="69"/>
+      <c r="L26" s="74"/>
       <c r="M26" s="60" t="s">
         <v>108</v>
       </c>
@@ -13176,103 +13168,103 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="72"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="65"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="69"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="68" t="s">
+      <c r="H28" s="74"/>
+      <c r="I28" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="69"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="81"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="76"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="9">
         <v>1</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="H29" s="75"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="77"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="70"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="75"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="77"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="70"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="50">
+      <c r="A31" s="46">
         <v>2</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="67"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="83" t="s">
         <v>257</v>
       </c>
@@ -13281,13 +13273,13 @@
       <c r="G31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="68" t="s">
+      <c r="H31" s="44"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="69"/>
+      <c r="L31" s="74"/>
       <c r="M31" s="60" t="s">
         <v>195</v>
       </c>
@@ -13296,11 +13288,11 @@
       <c r="P31" s="62"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="66" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="67"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="83" t="s">
         <v>179</v>
       </c>
@@ -13309,15 +13301,15 @@
       <c r="G32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="68" t="s">
+      <c r="I32" s="49"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L32" s="69"/>
+      <c r="L32" s="74"/>
       <c r="M32" s="60" t="s">
         <v>73</v>
       </c>
@@ -13326,22 +13318,22 @@
       <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="68" t="s">
+      <c r="C33" s="79"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="69"/>
+      <c r="L33" s="74"/>
       <c r="M33" s="60" t="s">
         <v>108</v>
       </c>
@@ -13350,90 +13342,90 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="70" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="72"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="65"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="69"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="69"/>
-      <c r="I35" s="68" t="s">
+      <c r="H35" s="74"/>
+      <c r="I35" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="69"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="81"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="76"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="9">
         <v>1</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="73" t="s">
+      <c r="G36" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="H36" s="75"/>
+      <c r="H36" s="68"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="77"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="70"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="75"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="77"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -13441,6 +13433,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K24:L24"/>
@@ -13457,69 +13512,6 @@
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67974AD9-4637-4775-A613-77C13BDACD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD270B58-6837-497A-8528-A5517E17F1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -822,18 +822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PREV_STEP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prev Step ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迁移步骤 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Workflow ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -867,18 +855,6 @@
   </si>
   <si>
     <t>stepId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prevWfStep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prev Workflow Step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prevStepId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1960,6 +1936,30 @@
   </si>
   <si>
     <t>io.nop.wf.core.model.WfStepType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT_STEP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Step ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步骤 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextWfStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Workflow Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextStepId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2350,30 +2350,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2386,6 +2362,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2395,7 +2374,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2880,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2890,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2900,7 +2900,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2910,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2920,7 +2920,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3080,7 +3080,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -3088,11 +3088,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="45"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3104,7 +3104,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -3113,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -3130,17 +3130,17 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="45"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3166,22 +3166,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>150</v>
@@ -3296,14 +3296,14 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -3328,14 +3328,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -3358,14 +3358,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -3388,19 +3388,19 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
       <c r="J12" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K12" s="8">
         <v>30</v>
@@ -3420,19 +3420,19 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -3448,14 +3448,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -3476,14 +3476,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -3522,7 +3522,7 @@
         <v>27</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -3682,22 +3682,22 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="45"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3753,7 +3753,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -3761,11 +3761,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="45"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3777,7 +3777,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -3786,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -3803,17 +3803,17 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="45"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3839,22 +3839,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>150</v>
@@ -3969,14 +3969,14 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -4001,14 +4001,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -4031,14 +4031,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -4061,19 +4061,19 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
       <c r="J12" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K12" s="8">
         <v>30</v>
@@ -4093,19 +4093,19 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -4121,14 +4121,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -4149,14 +4149,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -4195,7 +4195,7 @@
         <v>27</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -4355,22 +4355,22 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="45"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4426,7 +4426,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -4434,11 +4434,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="45"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4450,7 +4450,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -4459,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -4480,11 +4480,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="45"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -4510,22 +4510,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -4615,7 +4615,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>150</v>
@@ -4672,14 +4672,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -4691,7 +4691,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -4704,14 +4704,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -4864,7 +4864,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -4872,11 +4872,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="45"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4888,7 +4888,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -4897,7 +4897,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -4918,11 +4918,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="45"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -4948,22 +4948,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -5046,14 +5046,14 @@
         <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
@@ -5078,14 +5078,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -5119,7 +5119,7 @@
         <v>144</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -5144,14 +5144,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -5195,7 +5195,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="8"/>
@@ -5208,14 +5208,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -5238,14 +5238,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -5268,14 +5268,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -5298,14 +5298,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -5328,14 +5328,14 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -5356,14 +5356,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -5634,7 +5634,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -5692,7 +5692,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B11" s="33" t="b">
         <v>1</v>
@@ -6107,7 +6107,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -6201,79 +6201,79 @@
       <c r="A1" s="50">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="E1" s="45"/>
+      <c r="B1" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1" s="37"/>
       <c r="F1" s="25" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
-      <c r="B2" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44" t="s">
-        <v>415</v>
-      </c>
-      <c r="E2" s="45"/>
+      <c r="B2" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="37"/>
       <c r="F2" s="25" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="51"/>
-      <c r="B3" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="45"/>
+      <c r="B3" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="51"/>
-      <c r="B4" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="51"/>
       <c r="B5" s="27" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
@@ -6300,7 +6300,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -6315,7 +6315,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -6332,94 +6332,94 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+      <c r="A11" s="39">
         <v>2</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="25" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="C15" s="28" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="42" t="s">
+      <c r="D15" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
-      <c r="B15" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>413</v>
-      </c>
       <c r="F15" s="28" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="26">
         <v>1</v>
       </c>
@@ -6427,16 +6427,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="26">
         <v>2</v>
       </c>
@@ -6444,16 +6444,16 @@
         <v>10</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="26">
         <v>3</v>
       </c>
@@ -6461,18 +6461,18 @@
         <v>20</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="32" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="26">
         <v>4</v>
       </c>
@@ -6480,18 +6480,18 @@
         <v>30</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="32" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="26">
         <v>5</v>
       </c>
@@ -6499,18 +6499,18 @@
         <v>40</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="32" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="26">
         <v>6</v>
       </c>
@@ -6518,18 +6518,18 @@
         <v>50</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="32" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="26">
         <v>7</v>
       </c>
@@ -6537,18 +6537,18 @@
         <v>60</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="32" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="26">
         <v>8</v>
       </c>
@@ -6556,18 +6556,18 @@
         <v>70</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="32" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="26">
         <v>9</v>
       </c>
@@ -6575,18 +6575,18 @@
         <v>80</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="32" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="26">
         <v>10</v>
       </c>
@@ -6594,106 +6594,106 @@
         <v>90</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="32" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="37">
+      <c r="A27" s="48">
         <v>4</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="49"/>
+      <c r="B28" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="25" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="C31" s="28" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42" t="s">
+      <c r="D31" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>413</v>
-      </c>
       <c r="F31" s="28" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="26">
         <v>1</v>
       </c>
@@ -6701,16 +6701,16 @@
         <v>0</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="26">
         <v>2</v>
       </c>
@@ -6718,16 +6718,16 @@
         <v>10</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="26">
         <v>3</v>
       </c>
@@ -6735,18 +6735,18 @@
         <v>20</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="32" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="26">
         <v>4</v>
       </c>
@@ -6754,16 +6754,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="26">
         <v>5</v>
       </c>
@@ -6771,16 +6771,16 @@
         <v>40</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="26">
         <v>6</v>
       </c>
@@ -6788,16 +6788,16 @@
         <v>50</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="26">
         <v>7</v>
       </c>
@@ -6805,16 +6805,16 @@
         <v>60</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="26">
         <v>8</v>
       </c>
@@ -6822,104 +6822,104 @@
         <v>70</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="46">
+      <c r="A41" s="39">
         <v>5</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="40"/>
+      <c r="B42" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="40"/>
+      <c r="B43" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="37"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
+      <c r="B44" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44" t="s">
-        <v>457</v>
-      </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="25" t="s">
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+      <c r="B45" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="C45" s="28" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
-      <c r="B42" s="42" t="s">
+      <c r="D45" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E45" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
-      <c r="B43" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="45"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="47"/>
-      <c r="B44" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
-      <c r="B45" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>413</v>
-      </c>
       <c r="F45" s="28" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="47"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="26">
         <v>1</v>
       </c>
@@ -6927,16 +6927,16 @@
         <v>0</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="26">
         <v>2</v>
       </c>
@@ -6944,16 +6944,16 @@
         <v>1</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="26">
         <v>3</v>
       </c>
@@ -6961,18 +6961,18 @@
         <v>2</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="29" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="26">
         <v>4</v>
       </c>
@@ -6980,32 +6980,35 @@
         <v>3</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="29" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="41"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A27:A40"/>
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="A1:A10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -7015,14 +7018,10 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A41:A50"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
@@ -7032,11 +7031,12 @@
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A27:A40"/>
-    <mergeCell ref="B40:G40"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7159,22 +7159,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -7257,13 +7257,13 @@
         <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>21</v>
@@ -7337,7 +7337,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -7436,7 +7436,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="11"/>
@@ -7470,7 +7470,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="11" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="8"/>
@@ -7695,22 +7695,22 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="45"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
@@ -7761,7 +7761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -7873,22 +7873,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>21</v>
@@ -8049,7 +8049,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -8150,7 +8150,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="11" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="8"/>
@@ -8163,14 +8163,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -8253,14 +8253,14 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -8309,14 +8309,14 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
@@ -8399,7 +8399,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
@@ -8429,19 +8429,19 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
       <c r="J23" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -8457,7 +8457,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
@@ -8487,14 +8487,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -8517,14 +8517,14 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -8547,14 +8547,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -8577,14 +8577,14 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -8607,14 +8607,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -8637,11 +8637,11 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>156</v>
@@ -8667,14 +8667,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -8697,14 +8697,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -8727,14 +8727,14 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -8757,14 +8757,14 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -8787,14 +8787,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -8817,14 +8817,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -9059,22 +9059,22 @@
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="45"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="37"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="80" t="s">
@@ -9097,24 +9097,24 @@
       <c r="P46" s="82"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="46">
+      <c r="A47" s="39">
         <v>1</v>
       </c>
       <c r="B47" s="78" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="79"/>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
       <c r="G47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="45"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="37"/>
       <c r="K47" s="72" t="s">
         <v>63</v>
       </c>
@@ -9127,24 +9127,24 @@
       <c r="P47" s="62"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="78" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="79"/>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
       <c r="G48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="H48" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="I48" s="49"/>
-      <c r="J48" s="45"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="37"/>
       <c r="K48" s="72" t="s">
         <v>72</v>
       </c>
@@ -9157,20 +9157,20 @@
       <c r="P48" s="62"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="78" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="79"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
       <c r="G49" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="45"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="37"/>
       <c r="K49" s="19"/>
       <c r="L49" s="20"/>
       <c r="M49" s="60"/>
@@ -9179,18 +9179,18 @@
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="47"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="79"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="45"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="37"/>
       <c r="K50" s="72" t="s">
         <v>9</v>
       </c>
@@ -9203,7 +9203,7 @@
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="63" t="s">
         <v>19</v>
       </c>
@@ -9223,7 +9223,7 @@
       <c r="P51" s="65"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="15" t="s">
         <v>22</v>
       </c>
@@ -9251,18 +9251,18 @@
       <c r="P52" s="76"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="9">
         <v>1</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D53" s="67"/>
       <c r="E53" s="68"/>
       <c r="F53" s="3"/>
       <c r="G53" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H53" s="68"/>
       <c r="I53" s="3"/>
@@ -9275,7 +9275,7 @@
       <c r="P53" s="70"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="47"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="66"/>
       <c r="C54" s="67"/>
       <c r="D54" s="67"/>
@@ -9354,7 +9354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -9466,22 +9466,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>150</v>
@@ -9628,14 +9628,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -9713,7 +9713,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -9724,14 +9724,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -9754,16 +9754,16 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -9786,14 +9786,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -9816,19 +9816,19 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
       <c r="J16" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -9844,19 +9844,19 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
       <c r="J17" s="11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -9872,14 +9872,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -9902,16 +9902,16 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
@@ -9934,14 +9934,14 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="8"/>
@@ -9964,14 +9964,14 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
@@ -9994,16 +9994,16 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
@@ -10017,7 +10017,7 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="8" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -10028,14 +10028,14 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -10058,14 +10058,14 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
@@ -10079,7 +10079,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -10090,14 +10090,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -10120,16 +10120,16 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -10143,7 +10143,7 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P26" s="1"/>
     </row>
@@ -10154,14 +10154,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -10184,16 +10184,16 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -10216,14 +10216,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -10246,14 +10246,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -10276,14 +10276,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -10313,7 +10313,7 @@
         <v>58</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -10334,11 +10334,11 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>61</v>
@@ -10369,7 +10369,7 @@
         <v>169</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -10390,14 +10390,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -10418,14 +10418,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8" t="s">
@@ -10448,16 +10448,16 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="8"/>
@@ -10480,13 +10480,13 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>9</v>
@@ -10752,24 +10752,24 @@
       <c r="P47" s="82"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="46">
+      <c r="A48" s="39">
         <v>1</v>
       </c>
       <c r="B48" s="78" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="79"/>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
       <c r="G48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="45"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="37"/>
       <c r="K48" s="72" t="s">
         <v>63</v>
       </c>
@@ -10782,24 +10782,24 @@
       <c r="P48" s="62"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="78" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="79"/>
-      <c r="D49" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
+      <c r="D49" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
       <c r="G49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="H49" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I49" s="49"/>
-      <c r="J49" s="45"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="37"/>
       <c r="K49" s="72" t="s">
         <v>72</v>
       </c>
@@ -10812,20 +10812,20 @@
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="47"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="78" t="s">
         <v>104</v>
       </c>
       <c r="C50" s="79"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
       <c r="G50" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="45"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="37"/>
       <c r="K50" s="19"/>
       <c r="L50" s="20"/>
       <c r="M50" s="60"/>
@@ -10834,18 +10834,18 @@
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="79"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="45"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="37"/>
       <c r="K51" s="72" t="s">
         <v>9</v>
       </c>
@@ -10858,7 +10858,7 @@
       <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="63" t="s">
         <v>19</v>
       </c>
@@ -10878,7 +10878,7 @@
       <c r="P52" s="65"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="15" t="s">
         <v>22</v>
       </c>
@@ -10906,18 +10906,18 @@
       <c r="P53" s="76"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="47"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="9">
         <v>1</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D54" s="67"/>
       <c r="E54" s="68"/>
       <c r="F54" s="3"/>
       <c r="G54" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="3"/>
@@ -10930,7 +10930,7 @@
       <c r="P54" s="70"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="47"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="66"/>
       <c r="C55" s="67"/>
       <c r="D55" s="67"/>
@@ -10948,24 +10948,24 @@
       <c r="P55" s="70"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="46">
+      <c r="A56" s="39">
         <v>2</v>
       </c>
       <c r="B56" s="78" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="79"/>
-      <c r="D56" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
+      <c r="D56" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
       <c r="G56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="44"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="45"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="37"/>
       <c r="K56" s="72" t="s">
         <v>63</v>
       </c>
@@ -10978,24 +10978,24 @@
       <c r="P56" s="62"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="78" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="79"/>
-      <c r="D57" s="44" t="s">
-        <v>403</v>
-      </c>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
+      <c r="D57" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
       <c r="G57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="I57" s="49"/>
-      <c r="J57" s="45"/>
+      <c r="H57" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="I57" s="38"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="72" t="s">
         <v>72</v>
       </c>
@@ -11008,20 +11008,20 @@
       <c r="P57" s="62"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="47"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="78" t="s">
         <v>104</v>
       </c>
       <c r="C58" s="79"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
       <c r="G58" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="45"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="37"/>
       <c r="K58" s="19"/>
       <c r="L58" s="20"/>
       <c r="M58" s="60"/>
@@ -11030,18 +11030,18 @@
       <c r="P58" s="62"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="47"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="79"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="45"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="37"/>
       <c r="K59" s="72" t="s">
         <v>9</v>
       </c>
@@ -11054,7 +11054,7 @@
       <c r="P59" s="62"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="47"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="63" t="s">
         <v>19</v>
       </c>
@@ -11074,7 +11074,7 @@
       <c r="P60" s="65"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="47"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="15" t="s">
         <v>22</v>
       </c>
@@ -11102,18 +11102,18 @@
       <c r="P61" s="76"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="47"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="9">
         <v>1</v>
       </c>
       <c r="C62" s="66" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D62" s="67"/>
       <c r="E62" s="68"/>
       <c r="F62" s="3"/>
       <c r="G62" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H62" s="68"/>
       <c r="I62" s="3"/>
@@ -11126,7 +11126,7 @@
       <c r="P62" s="70"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="47"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="66"/>
       <c r="C63" s="67"/>
       <c r="D63" s="67"/>
@@ -11240,8 +11240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C32C7CF-B3F4-4DAF-B908-118F3127E9A6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11318,7 +11318,7 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -11354,22 +11354,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -11454,7 +11454,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>150</v>
@@ -11518,14 +11518,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>186</v>
+        <v>466</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>187</v>
+        <v>467</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -11550,17 +11550,17 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>155</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
@@ -11682,24 +11682,24 @@
       <c r="P16" s="82"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
+      <c r="A17" s="39">
         <v>1</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="79"/>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="45"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="72" t="s">
         <v>63</v>
       </c>
@@ -11712,24 +11712,24 @@
       <c r="P17" s="62"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="78" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="79"/>
-      <c r="D18" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="D18" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="45"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="72" t="s">
         <v>72</v>
       </c>
@@ -11742,20 +11742,20 @@
       <c r="P18" s="62"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="78" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="79"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="45"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="60"/>
@@ -11764,18 +11764,18 @@
       <c r="P19" s="62"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="79"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="45"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="72" t="s">
         <v>9</v>
       </c>
@@ -11788,7 +11788,7 @@
       <c r="P20" s="62"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="63" t="s">
         <v>19</v>
       </c>
@@ -11808,7 +11808,7 @@
       <c r="P21" s="65"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
@@ -11836,18 +11836,18 @@
       <c r="P22" s="76"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="9">
         <v>1</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D23" s="67"/>
       <c r="E23" s="68"/>
       <c r="F23" s="3"/>
       <c r="G23" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="3"/>
@@ -11860,7 +11860,7 @@
       <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
       <c r="D24" s="67"/>
@@ -11878,54 +11878,54 @@
       <c r="P24" s="70"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="46">
+      <c r="A25" s="39">
         <v>2</v>
       </c>
       <c r="B25" s="78" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="79"/>
-      <c r="D25" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="D25" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="45"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="72" t="s">
         <v>63</v>
       </c>
       <c r="L25" s="74"/>
       <c r="M25" s="60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N25" s="61"/>
       <c r="O25" s="61"/>
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="78" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="79"/>
-      <c r="D26" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="D26" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="45"/>
+      <c r="H26" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" s="38"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="72" t="s">
         <v>72</v>
       </c>
@@ -11938,20 +11938,20 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="78" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="79"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
       <c r="G27" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="45"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="60"/>
@@ -11960,18 +11960,18 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="79"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="45"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="72" t="s">
         <v>9</v>
       </c>
@@ -11984,7 +11984,7 @@
       <c r="P28" s="62"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="63" t="s">
         <v>19</v>
       </c>
@@ -12004,7 +12004,7 @@
       <c r="P29" s="65"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
@@ -12032,18 +12032,18 @@
       <c r="P30" s="76"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D31" s="67"/>
       <c r="E31" s="68"/>
       <c r="F31" s="3"/>
       <c r="G31" s="66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H31" s="68"/>
       <c r="I31" s="3"/>
@@ -12056,7 +12056,7 @@
       <c r="P31" s="70"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="66"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
@@ -12074,54 +12074,54 @@
       <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="46">
+      <c r="A33" s="39">
         <v>3</v>
       </c>
       <c r="B33" s="78" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="79"/>
-      <c r="D33" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
+      <c r="D33" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="45"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="72" t="s">
         <v>63</v>
       </c>
       <c r="L33" s="74"/>
       <c r="M33" s="60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N33" s="61"/>
       <c r="O33" s="61"/>
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="78" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="79"/>
-      <c r="D34" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
+      <c r="D34" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="I34" s="49"/>
-      <c r="J34" s="45"/>
+      <c r="H34" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="I34" s="38"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="72" t="s">
         <v>72</v>
       </c>
@@ -12134,20 +12134,20 @@
       <c r="P34" s="62"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="78" t="s">
         <v>104</v>
       </c>
       <c r="C35" s="79"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="45"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="19"/>
       <c r="L35" s="20"/>
       <c r="M35" s="60"/>
@@ -12156,18 +12156,18 @@
       <c r="P35" s="62"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="47"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="79"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="45"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="37"/>
       <c r="K36" s="72" t="s">
         <v>9</v>
       </c>
@@ -12180,7 +12180,7 @@
       <c r="P36" s="62"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="63" t="s">
         <v>19</v>
       </c>
@@ -12200,7 +12200,7 @@
       <c r="P37" s="65"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="47"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="15" t="s">
         <v>22</v>
       </c>
@@ -12228,18 +12228,18 @@
       <c r="P38" s="76"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="9">
         <v>1</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>200</v>
+        <v>471</v>
       </c>
       <c r="D39" s="67"/>
       <c r="E39" s="68"/>
       <c r="F39" s="3"/>
       <c r="G39" s="66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H39" s="68"/>
       <c r="I39" s="3"/>
@@ -12252,7 +12252,7 @@
       <c r="P39" s="70"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="47"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="66"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
@@ -12401,7 +12401,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12428,7 +12428,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -12436,11 +12436,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="45"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -12452,7 +12452,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -12461,7 +12461,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -12512,22 +12512,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>150</v>
@@ -12683,7 +12683,7 @@
         <v>180</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -12712,13 +12712,13 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
@@ -12744,14 +12744,14 @@
         <v>147</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -12774,14 +12774,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -12804,14 +12804,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -12834,14 +12834,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -13062,24 +13062,24 @@
       <c r="P22" s="82"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="46">
+      <c r="A23" s="39">
         <v>1</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="79"/>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="45"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="72" t="s">
         <v>63</v>
       </c>
@@ -13092,24 +13092,24 @@
       <c r="P23" s="62"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="78" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="79"/>
-      <c r="D24" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="D24" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="45"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="72" t="s">
         <v>72</v>
       </c>
@@ -13122,20 +13122,20 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="78" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="79"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="45"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="60"/>
@@ -13144,18 +13144,18 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="79"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="45"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="72" t="s">
         <v>9</v>
       </c>
@@ -13168,7 +13168,7 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="63" t="s">
         <v>19</v>
       </c>
@@ -13188,7 +13188,7 @@
       <c r="P27" s="65"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="15" t="s">
         <v>22</v>
       </c>
@@ -13216,18 +13216,18 @@
       <c r="P28" s="76"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="9">
         <v>1</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D29" s="67"/>
       <c r="E29" s="68"/>
       <c r="F29" s="3"/>
       <c r="G29" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H29" s="68"/>
       <c r="I29" s="3"/>
@@ -13240,7 +13240,7 @@
       <c r="P29" s="70"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="66"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
@@ -13258,7 +13258,7 @@
       <c r="P30" s="70"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="46">
+      <c r="A31" s="39">
         <v>2</v>
       </c>
       <c r="B31" s="78" t="s">
@@ -13266,29 +13266,29 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="83" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E31" s="84"/>
       <c r="F31" s="84"/>
       <c r="G31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="45"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="72" t="s">
         <v>63</v>
       </c>
       <c r="L31" s="74"/>
       <c r="M31" s="60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N31" s="61"/>
       <c r="O31" s="61"/>
       <c r="P31" s="62"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="78" t="s">
         <v>4</v>
       </c>
@@ -13301,11 +13301,11 @@
       <c r="G32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="45"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="72" t="s">
         <v>72</v>
       </c>
@@ -13318,18 +13318,18 @@
       <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="79"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="45"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="72" t="s">
         <v>9</v>
       </c>
@@ -13342,7 +13342,7 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="63" t="s">
         <v>19</v>
       </c>
@@ -13362,7 +13362,7 @@
       <c r="P34" s="65"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="15" t="s">
         <v>22</v>
       </c>
@@ -13390,18 +13390,18 @@
       <c r="P35" s="76"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="47"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="9">
         <v>1</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D36" s="67"/>
       <c r="E36" s="68"/>
       <c r="F36" s="3"/>
       <c r="G36" s="66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H36" s="68"/>
       <c r="I36" s="3"/>
@@ -13414,7 +13414,7 @@
       <c r="P36" s="70"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
       <c r="D37" s="67"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD270B58-6837-497A-8528-A5517E17F1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A6F0BA-D56E-4B83-8852-85862BFA6643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -1629,18 +1629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Join Trace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇聚路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOIN_TRACE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TAG_SET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1960,6 +1948,18 @@
   </si>
   <si>
     <t>nextStepId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOIN_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇聚分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2350,28 +2350,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2407,6 +2398,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2437,6 +2437,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2464,13 +2485,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2480,21 +2495,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3088,11 +3088,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3130,17 +3130,17 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3166,7 +3166,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -3181,7 +3181,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -3682,7 +3682,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -3697,10 +3697,16 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="37"/>
+      <c r="P22" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A3:C3"/>
@@ -3709,12 +3715,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3761,11 +3761,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3809,11 +3809,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3839,7 +3839,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -3854,7 +3854,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -4355,7 +4355,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -4370,7 +4370,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="37"/>
+      <c r="P22" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4434,11 +4434,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4480,11 +4480,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -4510,7 +4510,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -4525,7 +4525,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -4691,7 +4691,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -4813,6 +4813,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -4820,12 +4826,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4872,11 +4872,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4918,11 +4918,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -4948,7 +4948,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -4963,7 +4963,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -5597,6 +5597,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5604,12 +5610,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5692,7 +5692,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B11" s="33" t="b">
         <v>1</v>
@@ -6198,86 +6198,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="50">
+      <c r="A1" s="47">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="25" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G2" s="26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+      <c r="B3" s="36" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
-      <c r="G3" s="37"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>407</v>
-      </c>
       <c r="F5" s="28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="26">
         <v>1</v>
       </c>
@@ -6285,14 +6285,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="26">
         <v>2</v>
       </c>
@@ -6300,14 +6300,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26">
         <v>3</v>
       </c>
@@ -6315,14 +6315,14 @@
         <v>20</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="26"/>
       <c r="C9" s="30"/>
       <c r="D9" s="29"/>
@@ -6331,95 +6331,95 @@
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="50">
         <v>2</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="25" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G12" s="26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="36" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>407</v>
-      </c>
       <c r="F15" s="28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="26">
         <v>1</v>
       </c>
@@ -6427,16 +6427,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="26">
         <v>2</v>
       </c>
@@ -6444,16 +6444,16 @@
         <v>10</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="26">
         <v>3</v>
       </c>
@@ -6461,18 +6461,18 @@
         <v>20</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="32" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="26">
         <v>4</v>
       </c>
@@ -6480,18 +6480,18 @@
         <v>30</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="32" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="26">
         <v>5</v>
       </c>
@@ -6499,18 +6499,18 @@
         <v>40</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="26">
         <v>6</v>
       </c>
@@ -6518,18 +6518,18 @@
         <v>50</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="32" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="26">
         <v>7</v>
       </c>
@@ -6537,18 +6537,18 @@
         <v>60</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="26">
         <v>8</v>
       </c>
@@ -6556,18 +6556,18 @@
         <v>70</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="26">
         <v>9</v>
       </c>
@@ -6575,18 +6575,18 @@
         <v>80</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="32" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="26">
         <v>10</v>
       </c>
@@ -6594,106 +6594,106 @@
         <v>90</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="45">
+        <v>4</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="48">
-        <v>4</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="G27" s="18" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="36" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="37"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>407</v>
-      </c>
       <c r="F31" s="28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="26">
         <v>1</v>
       </c>
@@ -6701,16 +6701,16 @@
         <v>0</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="26">
         <v>2</v>
       </c>
@@ -6718,16 +6718,16 @@
         <v>10</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="26">
         <v>3</v>
       </c>
@@ -6735,18 +6735,18 @@
         <v>20</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="26">
         <v>4</v>
       </c>
@@ -6754,16 +6754,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="26">
         <v>5</v>
       </c>
@@ -6771,16 +6771,16 @@
         <v>40</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="26">
         <v>6</v>
       </c>
@@ -6788,16 +6788,16 @@
         <v>50</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="26">
         <v>7</v>
       </c>
@@ -6805,16 +6805,16 @@
         <v>60</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="26">
         <v>8</v>
       </c>
@@ -6822,104 +6822,104 @@
         <v>70</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="39">
+      <c r="A41" s="50">
         <v>5</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="51"/>
+      <c r="B42" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="25" t="s">
+      <c r="C42" s="37"/>
+      <c r="D42" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="E42" s="35"/>
+      <c r="F42" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G42" s="26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="36" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
-      <c r="G43" s="37"/>
+      <c r="G43" s="35"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="42" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="51"/>
+      <c r="B45" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="E45" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>407</v>
-      </c>
       <c r="F45" s="28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="26">
         <v>1</v>
       </c>
@@ -6927,16 +6927,16 @@
         <v>0</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="26">
         <v>2</v>
       </c>
@@ -6944,16 +6944,16 @@
         <v>1</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="26">
         <v>3</v>
       </c>
@@ -6961,18 +6961,18 @@
         <v>2</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="26">
         <v>4</v>
       </c>
@@ -6980,32 +6980,42 @@
         <v>3</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="29" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B50:G50"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="A27:A40"/>
     <mergeCell ref="B40:G40"/>
@@ -7022,21 +7032,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B26:G26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7159,7 +7159,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -7174,7 +7174,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -7436,7 +7436,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="11"/>
@@ -7470,7 +7470,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="8"/>
@@ -7695,7 +7695,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -7710,7 +7710,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="37"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
@@ -7873,7 +7873,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -7888,7 +7888,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -9059,7 +9059,7 @@
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
@@ -9074,37 +9074,37 @@
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
       <c r="O44" s="38"/>
-      <c r="P44" s="37"/>
+      <c r="P44" s="35"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="82"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="65"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="39">
+      <c r="A47" s="50">
         <v>1</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="36" t="s">
+      <c r="C47" s="67"/>
+      <c r="D47" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E47" s="38"/>
@@ -9112,13 +9112,13 @@
       <c r="G47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="36"/>
+      <c r="H47" s="34"/>
       <c r="I47" s="38"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="72" t="s">
+      <c r="J47" s="35"/>
+      <c r="K47" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L47" s="74"/>
+      <c r="L47" s="69"/>
       <c r="M47" s="60" t="s">
         <v>142</v>
       </c>
@@ -9127,12 +9127,12 @@
       <c r="P47" s="62"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="78" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="36" t="s">
+      <c r="C48" s="67"/>
+      <c r="D48" s="34" t="s">
         <v>164</v>
       </c>
       <c r="E48" s="38"/>
@@ -9140,15 +9140,15 @@
       <c r="G48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H48" s="34" t="s">
         <v>163</v>
       </c>
       <c r="I48" s="38"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="72" t="s">
+      <c r="J48" s="35"/>
+      <c r="K48" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L48" s="74"/>
+      <c r="L48" s="69"/>
       <c r="M48" s="60" t="s">
         <v>73</v>
       </c>
@@ -9157,12 +9157,12 @@
       <c r="P48" s="62"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="78" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="36"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
       <c r="G49" s="21" t="s">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
-      <c r="J49" s="37"/>
+      <c r="J49" s="35"/>
       <c r="K49" s="19"/>
       <c r="L49" s="20"/>
       <c r="M49" s="60"/>
@@ -9179,22 +9179,22 @@
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-      <c r="B50" s="78" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="36"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="72" t="s">
+      <c r="J50" s="35"/>
+      <c r="K50" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L50" s="74"/>
+      <c r="L50" s="69"/>
       <c r="M50" s="60" t="s">
         <v>108</v>
       </c>
@@ -9203,109 +9203,119 @@
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="63" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="65"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="72"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="72" t="s">
+      <c r="C52" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="74"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="69"/>
       <c r="F52" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="72" t="s">
+      <c r="G52" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="74"/>
-      <c r="I52" s="72" t="s">
+      <c r="H52" s="69"/>
+      <c r="I52" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="74"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="76"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="81"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="9">
         <v>1</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="68"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="66" t="s">
+      <c r="G53" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H53" s="68"/>
+      <c r="H53" s="75"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="70"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="77"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="68"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="68"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="75"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="70"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="M49:P49"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A44:P44"/>
     <mergeCell ref="A46:P46"/>
@@ -9322,28 +9332,18 @@
     <mergeCell ref="M48:P48"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9354,8 +9354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9466,7 +9466,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -9481,7 +9481,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -10448,16 +10448,16 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>388</v>
+        <v>470</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="8"/>
@@ -10465,7 +10465,7 @@
         <v>28</v>
       </c>
       <c r="K37" s="8">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="11"/>
@@ -10480,13 +10480,13 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>9</v>
@@ -10732,34 +10732,34 @@
       <c r="P45" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="82"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="65"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="39">
+      <c r="A48" s="50">
         <v>1</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="36" t="s">
+      <c r="C48" s="67"/>
+      <c r="D48" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E48" s="38"/>
@@ -10767,13 +10767,13 @@
       <c r="G48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="34"/>
       <c r="I48" s="38"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="72" t="s">
+      <c r="J48" s="35"/>
+      <c r="K48" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L48" s="74"/>
+      <c r="L48" s="69"/>
       <c r="M48" s="60" t="s">
         <v>142</v>
       </c>
@@ -10782,12 +10782,12 @@
       <c r="P48" s="62"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="78" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="36" t="s">
+      <c r="C49" s="67"/>
+      <c r="D49" s="34" t="s">
         <v>188</v>
       </c>
       <c r="E49" s="38"/>
@@ -10795,15 +10795,15 @@
       <c r="G49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H49" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I49" s="38"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="72" t="s">
+      <c r="J49" s="35"/>
+      <c r="K49" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L49" s="74"/>
+      <c r="L49" s="69"/>
       <c r="M49" s="60" t="s">
         <v>73</v>
       </c>
@@ -10812,12 +10812,12 @@
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-      <c r="B50" s="78" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="36"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
       <c r="G50" s="21" t="s">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
-      <c r="J50" s="37"/>
+      <c r="J50" s="35"/>
       <c r="K50" s="19"/>
       <c r="L50" s="20"/>
       <c r="M50" s="60"/>
@@ -10834,22 +10834,22 @@
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="78" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="36"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="72" t="s">
+      <c r="J51" s="35"/>
+      <c r="K51" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="74"/>
+      <c r="L51" s="69"/>
       <c r="M51" s="60" t="s">
         <v>108</v>
       </c>
@@ -10858,104 +10858,104 @@
       <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="63" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="65"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="72"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="72" t="s">
+      <c r="C53" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="74"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="69"/>
       <c r="F53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="72" t="s">
+      <c r="G53" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="74"/>
-      <c r="I53" s="72" t="s">
+      <c r="H53" s="69"/>
+      <c r="I53" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="74"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="76"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="82"/>
+      <c r="P53" s="81"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="9">
         <v>1</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="68"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="66" t="s">
+      <c r="G54" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H54" s="68"/>
+      <c r="H54" s="75"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="70"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="77"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="68"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="75"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="70"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="77"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="39">
+      <c r="A56" s="50">
         <v>2</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="36" t="s">
+      <c r="C56" s="67"/>
+      <c r="D56" s="34" t="s">
         <v>244</v>
       </c>
       <c r="E56" s="38"/>
@@ -10963,13 +10963,13 @@
       <c r="G56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="34"/>
       <c r="I56" s="38"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="72" t="s">
+      <c r="J56" s="35"/>
+      <c r="K56" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L56" s="74"/>
+      <c r="L56" s="69"/>
       <c r="M56" s="60" t="s">
         <v>142</v>
       </c>
@@ -10978,28 +10978,28 @@
       <c r="P56" s="62"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" s="78" t="s">
+      <c r="A57" s="51"/>
+      <c r="B57" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="36" t="s">
-        <v>397</v>
+      <c r="C57" s="67"/>
+      <c r="D57" s="34" t="s">
+        <v>394</v>
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="36" t="s">
+      <c r="H57" s="34" t="s">
         <v>245</v>
       </c>
       <c r="I57" s="38"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="72" t="s">
+      <c r="J57" s="35"/>
+      <c r="K57" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L57" s="74"/>
+      <c r="L57" s="69"/>
       <c r="M57" s="60" t="s">
         <v>73</v>
       </c>
@@ -11008,12 +11008,12 @@
       <c r="P57" s="62"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="78" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="36"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
       <c r="G58" s="21" t="s">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
-      <c r="J58" s="37"/>
+      <c r="J58" s="35"/>
       <c r="K58" s="19"/>
       <c r="L58" s="20"/>
       <c r="M58" s="60"/>
@@ -11030,22 +11030,22 @@
       <c r="P58" s="62"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="78" t="s">
+      <c r="A59" s="51"/>
+      <c r="B59" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="36"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="72" t="s">
+      <c r="J59" s="35"/>
+      <c r="K59" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="74"/>
+      <c r="L59" s="69"/>
       <c r="M59" s="60" t="s">
         <v>108</v>
       </c>
@@ -11054,153 +11054,111 @@
       <c r="P59" s="62"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" s="63" t="s">
+      <c r="A60" s="51"/>
+      <c r="B60" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="65"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="72"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="72" t="s">
+      <c r="C61" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="73"/>
-      <c r="E61" s="74"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="69"/>
       <c r="F61" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="72" t="s">
+      <c r="G61" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="74"/>
-      <c r="I61" s="72" t="s">
+      <c r="H61" s="69"/>
+      <c r="I61" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="74"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="77"/>
-      <c r="O61" s="77"/>
-      <c r="P61" s="76"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="82"/>
+      <c r="P61" s="81"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="9">
         <v>1</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="D62" s="67"/>
-      <c r="E62" s="68"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="75"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="66" t="s">
+      <c r="G62" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H62" s="68"/>
+      <c r="H62" s="75"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="70"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="78"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="77"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="68"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="75"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="68"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="75"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="70"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="78"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="77"/>
     </row>
     <row r="64" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A47:P47"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="B48:C48"/>
@@ -11217,19 +11175,61 @@
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="M50:P50"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11240,7 +11240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C32C7CF-B3F4-4DAF-B908-118F3127E9A6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A13"/>
     </sheetView>
   </sheetViews>
@@ -11318,7 +11318,7 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -11354,7 +11354,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -11369,7 +11369,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -11518,14 +11518,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -11662,34 +11662,34 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="82"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="65"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="39">
+      <c r="A17" s="50">
         <v>1</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E17" s="38"/>
@@ -11697,13 +11697,13 @@
       <c r="G17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="72" t="s">
+      <c r="J17" s="35"/>
+      <c r="K17" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="74"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="60" t="s">
         <v>142</v>
       </c>
@@ -11712,12 +11712,12 @@
       <c r="P17" s="62"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="78" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="34" t="s">
         <v>188</v>
       </c>
       <c r="E18" s="38"/>
@@ -11725,15 +11725,15 @@
       <c r="G18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I18" s="38"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="72" t="s">
+      <c r="J18" s="35"/>
+      <c r="K18" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="74"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="60" t="s">
         <v>73</v>
       </c>
@@ -11742,12 +11742,12 @@
       <c r="P18" s="62"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="78" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="21" t="s">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
-      <c r="J19" s="37"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="60"/>
@@ -11764,22 +11764,22 @@
       <c r="P19" s="62"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="72" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="74"/>
+      <c r="L20" s="69"/>
       <c r="M20" s="60" t="s">
         <v>108</v>
       </c>
@@ -11788,104 +11788,104 @@
       <c r="P20" s="62"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="63" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="65"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="72"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="74"/>
-      <c r="I22" s="72" t="s">
+      <c r="H22" s="69"/>
+      <c r="I22" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="76"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="81"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="68"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="70"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="77"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="68"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="70"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="77"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="39">
+      <c r="A25" s="50">
         <v>2</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="34" t="s">
         <v>190</v>
       </c>
       <c r="E25" s="38"/>
@@ -11893,13 +11893,13 @@
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="36"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="72" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="60" t="s">
         <v>192</v>
       </c>
@@ -11908,12 +11908,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="34" t="s">
         <v>193</v>
       </c>
       <c r="E26" s="38"/>
@@ -11921,15 +11921,15 @@
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="34" t="s">
         <v>191</v>
       </c>
       <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="72" t="s">
+      <c r="J26" s="35"/>
+      <c r="K26" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="74"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="60" t="s">
         <v>73</v>
       </c>
@@ -11938,12 +11938,12 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="21" t="s">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="60"/>
@@ -11960,22 +11960,22 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="78" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="36"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="72" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="74"/>
+      <c r="L28" s="69"/>
       <c r="M28" s="60" t="s">
         <v>108</v>
       </c>
@@ -11984,118 +11984,118 @@
       <c r="P28" s="62"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="65"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="72"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72" t="s">
+      <c r="H30" s="69"/>
+      <c r="I30" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="76"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="81"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="H31" s="68"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="68"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="70"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="77"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="39">
+      <c r="A33" s="50">
         <v>3</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="36" t="s">
-        <v>469</v>
+      <c r="C33" s="67"/>
+      <c r="D33" s="34" t="s">
+        <v>466</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="36"/>
+      <c r="H33" s="34"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="72" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="74"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="60" t="s">
         <v>192</v>
       </c>
@@ -12104,12 +12104,12 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="78" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="36" t="s">
+      <c r="C34" s="67"/>
+      <c r="D34" s="34" t="s">
         <v>193</v>
       </c>
       <c r="E34" s="38"/>
@@ -12117,15 +12117,15 @@
       <c r="G34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="36" t="s">
-        <v>470</v>
+      <c r="H34" s="34" t="s">
+        <v>467</v>
       </c>
       <c r="I34" s="38"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="72" t="s">
+      <c r="J34" s="35"/>
+      <c r="K34" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L34" s="74"/>
+      <c r="L34" s="69"/>
       <c r="M34" s="60" t="s">
         <v>73</v>
       </c>
@@ -12134,12 +12134,12 @@
       <c r="P34" s="62"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="78" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="36"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
       <c r="G35" s="21" t="s">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
-      <c r="J35" s="37"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="19"/>
       <c r="L35" s="20"/>
       <c r="M35" s="60"/>
@@ -12156,22 +12156,22 @@
       <c r="P35" s="62"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="78" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="36"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="72" t="s">
+      <c r="J36" s="35"/>
+      <c r="K36" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="74"/>
+      <c r="L36" s="69"/>
       <c r="M36" s="60" t="s">
         <v>108</v>
       </c>
@@ -12180,112 +12180,177 @@
       <c r="P36" s="62"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="63" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="65"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="72"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="72" t="s">
+      <c r="H38" s="69"/>
+      <c r="I38" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="74"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="76"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="81"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="9">
         <v>1</v>
       </c>
-      <c r="C39" s="66" t="s">
-        <v>471</v>
-      </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68"/>
+      <c r="C39" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="66" t="s">
+      <c r="G39" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="H39" s="68"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="70"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="77"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="68"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="75"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="70"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:F25"/>
@@ -12310,86 +12375,21 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12436,11 +12436,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -12512,7 +12512,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -12527,7 +12527,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -13042,34 +13042,34 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="82"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="65"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="39">
+      <c r="A23" s="50">
         <v>1</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="36" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E23" s="38"/>
@@ -13077,13 +13077,13 @@
       <c r="G23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="36"/>
+      <c r="H23" s="34"/>
       <c r="I23" s="38"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="72" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="74"/>
+      <c r="L23" s="69"/>
       <c r="M23" s="60" t="s">
         <v>142</v>
       </c>
@@ -13092,12 +13092,12 @@
       <c r="P23" s="62"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="78" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="36" t="s">
+      <c r="C24" s="67"/>
+      <c r="D24" s="34" t="s">
         <v>188</v>
       </c>
       <c r="E24" s="38"/>
@@ -13105,15 +13105,15 @@
       <c r="G24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I24" s="38"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="72" t="s">
+      <c r="J24" s="35"/>
+      <c r="K24" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L24" s="74"/>
+      <c r="L24" s="69"/>
       <c r="M24" s="60" t="s">
         <v>73</v>
       </c>
@@ -13122,12 +13122,12 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="36"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="21" t="s">
@@ -13135,7 +13135,7 @@
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="60"/>
@@ -13144,22 +13144,22 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="36"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="72" t="s">
+      <c r="J26" s="35"/>
+      <c r="K26" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="74"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="60" t="s">
         <v>108</v>
       </c>
@@ -13168,103 +13168,103 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="65"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="72"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="72" t="s">
+      <c r="H28" s="69"/>
+      <c r="I28" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="76"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="81"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="9">
         <v>1</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H29" s="68"/>
+      <c r="H29" s="75"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="70"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="77"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="68"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="70"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="77"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="39">
+      <c r="A31" s="50">
         <v>2</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="83" t="s">
         <v>251</v>
       </c>
@@ -13273,13 +13273,13 @@
       <c r="G31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="34"/>
       <c r="I31" s="38"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="72" t="s">
+      <c r="J31" s="35"/>
+      <c r="K31" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="74"/>
+      <c r="L31" s="69"/>
       <c r="M31" s="60" t="s">
         <v>192</v>
       </c>
@@ -13288,11 +13288,11 @@
       <c r="P31" s="62"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="83" t="s">
         <v>179</v>
       </c>
@@ -13301,15 +13301,15 @@
       <c r="G32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="34" t="s">
         <v>178</v>
       </c>
       <c r="I32" s="38"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="72" t="s">
+      <c r="J32" s="35"/>
+      <c r="K32" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L32" s="74"/>
+      <c r="L32" s="69"/>
       <c r="M32" s="60" t="s">
         <v>73</v>
       </c>
@@ -13318,22 +13318,22 @@
       <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="78" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="36"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="72" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="74"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="60" t="s">
         <v>108</v>
       </c>
@@ -13342,90 +13342,90 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="63" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="65"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="72"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="69"/>
       <c r="F35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="74"/>
-      <c r="I35" s="72" t="s">
+      <c r="H35" s="69"/>
+      <c r="I35" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="76"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="81"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="9">
         <v>1</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="68"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="70"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="77"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="68"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="70"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -13433,24 +13433,51 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A31:A37"/>
@@ -13467,51 +13494,24 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="M24:P24"/>
     <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A6F0BA-D56E-4B83-8852-85862BFA6643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7589D1A5-0FD8-4277-9DE8-123E290976F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="3" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="475">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1960,6 +1960,18 @@
   </si>
   <si>
     <t>汇聚分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNAL_SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2350,19 +2362,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2398,15 +2419,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2437,27 +2449,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2485,7 +2476,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2495,6 +2492,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3088,11 +3100,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3136,11 +3148,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="34"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="35"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3166,7 +3178,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -3181,7 +3193,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -3682,7 +3694,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -3697,16 +3709,10 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="35"/>
+      <c r="P22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A3:C3"/>
@@ -3715,6 +3721,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3761,11 +3773,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3809,11 +3821,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="34"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="35"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3839,7 +3851,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -3854,7 +3866,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -4355,7 +4367,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -4370,7 +4382,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="35"/>
+      <c r="P22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4434,11 +4446,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4480,11 +4492,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="34"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="35"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -4510,7 +4522,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -4525,7 +4537,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -4813,12 +4825,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -4826,6 +4832,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4872,11 +4884,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4918,11 +4930,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="34"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="35"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -4948,7 +4960,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -4963,7 +4975,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -5597,12 +5609,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5610,6 +5616,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6198,17 +6210,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="47">
+      <c r="A1" s="50">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="25" t="s">
         <v>396</v>
       </c>
@@ -6217,15 +6229,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="25" t="s">
         <v>399</v>
       </c>
@@ -6234,29 +6246,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
-      <c r="G3" s="35"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="27" t="s">
         <v>402</v>
       </c>
@@ -6277,7 +6289,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="26">
         <v>1</v>
       </c>
@@ -6292,7 +6304,7 @@
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="26">
         <v>2</v>
       </c>
@@ -6307,7 +6319,7 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="26">
         <v>3</v>
       </c>
@@ -6322,7 +6334,7 @@
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="26"/>
       <c r="C9" s="30"/>
       <c r="D9" s="29"/>
@@ -6331,26 +6343,26 @@
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="50">
+      <c r="A11" s="39">
         <v>2</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="25" t="s">
         <v>396</v>
       </c>
@@ -6359,15 +6371,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="25" t="s">
         <v>399</v>
       </c>
@@ -6376,29 +6388,29 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="35"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="27" t="s">
         <v>402</v>
       </c>
@@ -6419,7 +6431,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="26">
         <v>1</v>
       </c>
@@ -6436,7 +6448,7 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="26">
         <v>2</v>
       </c>
@@ -6453,7 +6465,7 @@
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="26">
         <v>3</v>
       </c>
@@ -6472,7 +6484,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="26">
         <v>4</v>
       </c>
@@ -6491,7 +6503,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="26">
         <v>5</v>
       </c>
@@ -6510,7 +6522,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="26">
         <v>6</v>
       </c>
@@ -6529,7 +6541,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="26">
         <v>7</v>
       </c>
@@ -6548,7 +6560,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="26">
         <v>8</v>
       </c>
@@ -6567,7 +6579,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="26">
         <v>9</v>
       </c>
@@ -6586,7 +6598,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="26">
         <v>10</v>
       </c>
@@ -6605,26 +6617,26 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="45">
+      <c r="A27" s="48">
         <v>4</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="34" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="25" t="s">
         <v>396</v>
       </c>
@@ -6633,15 +6645,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="36" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="34" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="E28" s="35"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="25" t="s">
         <v>399</v>
       </c>
@@ -6650,29 +6662,29 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="35"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="39" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="27" t="s">
         <v>402</v>
       </c>
@@ -6693,7 +6705,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="26">
         <v>1</v>
       </c>
@@ -6710,7 +6722,7 @@
       <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="26">
         <v>2</v>
       </c>
@@ -6727,7 +6739,7 @@
       <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="26">
         <v>3</v>
       </c>
@@ -6746,7 +6758,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="26">
         <v>4</v>
       </c>
@@ -6763,7 +6775,7 @@
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="26">
         <v>5</v>
       </c>
@@ -6780,7 +6792,7 @@
       <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="26">
         <v>6</v>
       </c>
@@ -6797,7 +6809,7 @@
       <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="26">
         <v>7</v>
       </c>
@@ -6814,7 +6826,7 @@
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="26">
         <v>8</v>
       </c>
@@ -6831,26 +6843,26 @@
       <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="46"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="50">
+      <c r="A41" s="39">
         <v>5</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="34" t="s">
+      <c r="C41" s="35"/>
+      <c r="D41" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="E41" s="35"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="25" t="s">
         <v>396</v>
       </c>
@@ -6859,15 +6871,15 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="51"/>
-      <c r="B42" s="36" t="s">
+      <c r="A42" s="40"/>
+      <c r="B42" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="34" t="s">
+      <c r="C42" s="35"/>
+      <c r="D42" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="E42" s="35"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="25" t="s">
         <v>399</v>
       </c>
@@ -6876,29 +6888,29 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
-      <c r="B43" s="36" t="s">
+      <c r="A43" s="40"/>
+      <c r="B43" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
-      <c r="G43" s="35"/>
+      <c r="G43" s="37"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
-      <c r="B44" s="39" t="s">
+      <c r="A44" s="40"/>
+      <c r="B44" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="27" t="s">
         <v>402</v>
       </c>
@@ -6919,7 +6931,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="26">
         <v>1</v>
       </c>
@@ -6936,7 +6948,7 @@
       <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="26">
         <v>2</v>
       </c>
@@ -6953,7 +6965,7 @@
       <c r="G47" s="29"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="26">
         <v>3</v>
       </c>
@@ -6972,7 +6984,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="26">
         <v>4</v>
       </c>
@@ -6991,31 +7003,21 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="52"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="44"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B26:G26"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="A27:A40"/>
     <mergeCell ref="B40:G40"/>
@@ -7032,11 +7034,21 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7159,7 +7171,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -7174,7 +7186,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -7695,7 +7707,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -7710,7 +7722,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="35"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
@@ -7759,10 +7771,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7873,7 +7885,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -7888,7 +7900,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -8517,14 +8529,14 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>205</v>
+        <v>472</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
-        <v>206</v>
+        <v>473</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>207</v>
+        <v>474</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -8532,7 +8544,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="8">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="11"/>
@@ -8547,14 +8559,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -8577,14 +8589,14 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>360</v>
+        <v>208</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
-        <v>361</v>
+        <v>209</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -8607,14 +8619,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
-        <v>201</v>
+        <v>361</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>202</v>
+        <v>362</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -8637,14 +8649,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -8667,14 +8679,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>366</v>
+        <v>198</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>367</v>
+        <v>199</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>368</v>
+        <v>156</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -8697,14 +8709,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -8727,14 +8739,14 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -8757,14 +8769,14 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -8787,14 +8799,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -8817,14 +8829,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -8847,27 +8859,23 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="E37" s="8"/>
       <c r="F37" s="11" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K37" s="8">
+        <v>50</v>
+      </c>
       <c r="L37" s="8"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -8881,27 +8889,27 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F38" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="8">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -8915,25 +8923,27 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K39" s="8">
+        <v>50</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -8947,27 +8957,25 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="8">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -8981,25 +8989,27 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K41" s="8">
+        <v>50</v>
+      </c>
       <c r="L41" s="8"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
@@ -9013,27 +9023,25 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>111</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E42" s="8"/>
       <c r="F42" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J42" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="8">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -9041,17 +9049,33 @@
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
+      <c r="A43" s="8">
+        <v>36</v>
+      </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="D43" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="I43" s="8"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="8"/>
+      <c r="J43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="8">
+        <v>200</v>
+      </c>
       <c r="L43" s="8"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -9059,279 +9083,259 @@
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="34"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="35"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="63" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="36"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="37"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="65"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="50">
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="82"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="39">
         <v>1</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B48" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="34" t="s">
+      <c r="C48" s="79"/>
+      <c r="D48" s="36" t="s">
         <v>140</v>
-      </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="L47" s="69"/>
-      <c r="M47" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="62"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
-      <c r="B48" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="34" t="s">
-        <v>164</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
       <c r="G48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>163</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H48" s="36"/>
       <c r="I48" s="38"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="L48" s="69"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="L48" s="74"/>
       <c r="M48" s="60" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N48" s="61"/>
       <c r="O48" s="61"/>
       <c r="P48" s="62"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="34"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="79"/>
+      <c r="D49" s="36" t="s">
+        <v>164</v>
+      </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
-      <c r="G49" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" s="38"/>
+      <c r="G49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>163</v>
+      </c>
       <c r="I49" s="38"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="60"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="74"/>
+      <c r="M49" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="N49" s="61"/>
       <c r="O49" s="61"/>
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
-      <c r="B50" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="34"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="79"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
+      <c r="G50" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50" s="69"/>
-      <c r="M50" s="60" t="s">
-        <v>108</v>
-      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="60"/>
       <c r="N50" s="61"/>
       <c r="O50" s="61"/>
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="70" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="79"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="74"/>
+      <c r="M51" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="62"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="40"/>
+      <c r="B52" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="72"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
-      <c r="B52" s="15" t="s">
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="65"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="40"/>
+      <c r="B53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="68" t="s">
+      <c r="C53" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="79"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="19" t="s">
+      <c r="D53" s="73"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="68" t="s">
+      <c r="G53" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="69"/>
-      <c r="I52" s="68" t="s">
+      <c r="H53" s="74"/>
+      <c r="I53" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="69"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="81"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
-      <c r="B53" s="9">
+      <c r="J53" s="74"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="76"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="40"/>
+      <c r="B54" s="9">
         <v>1</v>
       </c>
-      <c r="C53" s="73" t="s">
+      <c r="C54" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="73" t="s">
+      <c r="D54" s="67"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="H53" s="75"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="77"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="75"/>
+      <c r="H54" s="68"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="77"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="70"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="40"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A44:P44"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -9344,6 +9348,44 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A47:P47"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9354,7 +9396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -9466,7 +9508,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -9481,7 +9523,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -10732,34 +10774,34 @@
       <c r="P45" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="65"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="82"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="50">
+      <c r="A48" s="39">
         <v>1</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="34" t="s">
+      <c r="C48" s="79"/>
+      <c r="D48" s="36" t="s">
         <v>140</v>
       </c>
       <c r="E48" s="38"/>
@@ -10767,13 +10809,13 @@
       <c r="G48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="34"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="38"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="68" t="s">
+      <c r="J48" s="37"/>
+      <c r="K48" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L48" s="69"/>
+      <c r="L48" s="74"/>
       <c r="M48" s="60" t="s">
         <v>142</v>
       </c>
@@ -10782,12 +10824,12 @@
       <c r="P48" s="62"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="66" t="s">
+      <c r="A49" s="40"/>
+      <c r="B49" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="34" t="s">
+      <c r="C49" s="79"/>
+      <c r="D49" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E49" s="38"/>
@@ -10795,15 +10837,15 @@
       <c r="G49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="34" t="s">
+      <c r="H49" s="36" t="s">
         <v>141</v>
       </c>
       <c r="I49" s="38"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="68" t="s">
+      <c r="J49" s="37"/>
+      <c r="K49" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L49" s="69"/>
+      <c r="L49" s="74"/>
       <c r="M49" s="60" t="s">
         <v>73</v>
       </c>
@@ -10812,12 +10854,12 @@
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
-      <c r="B50" s="66" t="s">
+      <c r="A50" s="40"/>
+      <c r="B50" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="34"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
       <c r="G50" s="21" t="s">
@@ -10825,7 +10867,7 @@
       </c>
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
-      <c r="J50" s="35"/>
+      <c r="J50" s="37"/>
       <c r="K50" s="19"/>
       <c r="L50" s="20"/>
       <c r="M50" s="60"/>
@@ -10834,22 +10876,22 @@
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="66" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="34"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="68" t="s">
+      <c r="J51" s="37"/>
+      <c r="K51" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="69"/>
+      <c r="L51" s="74"/>
       <c r="M51" s="60" t="s">
         <v>108</v>
       </c>
@@ -10858,104 +10900,104 @@
       <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
-      <c r="B52" s="70" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="72"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="65"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="68" t="s">
+      <c r="C53" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="69"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="68" t="s">
+      <c r="G53" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="69"/>
-      <c r="I53" s="68" t="s">
+      <c r="H53" s="74"/>
+      <c r="I53" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="69"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="81"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="76"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="9">
         <v>1</v>
       </c>
-      <c r="C54" s="73" t="s">
+      <c r="C54" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="73" t="s">
+      <c r="G54" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="H54" s="75"/>
+      <c r="H54" s="68"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="77"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="70"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="75"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="68"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="77"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="70"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="50">
+      <c r="A56" s="39">
         <v>2</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="34" t="s">
+      <c r="C56" s="79"/>
+      <c r="D56" s="36" t="s">
         <v>244</v>
       </c>
       <c r="E56" s="38"/>
@@ -10963,13 +11005,13 @@
       <c r="G56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="34"/>
+      <c r="H56" s="36"/>
       <c r="I56" s="38"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="68" t="s">
+      <c r="J56" s="37"/>
+      <c r="K56" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L56" s="69"/>
+      <c r="L56" s="74"/>
       <c r="M56" s="60" t="s">
         <v>142</v>
       </c>
@@ -10978,12 +11020,12 @@
       <c r="P56" s="62"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="66" t="s">
+      <c r="A57" s="40"/>
+      <c r="B57" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="34" t="s">
+      <c r="C57" s="79"/>
+      <c r="D57" s="36" t="s">
         <v>394</v>
       </c>
       <c r="E57" s="38"/>
@@ -10991,15 +11033,15 @@
       <c r="G57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="34" t="s">
+      <c r="H57" s="36" t="s">
         <v>245</v>
       </c>
       <c r="I57" s="38"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="68" t="s">
+      <c r="J57" s="37"/>
+      <c r="K57" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L57" s="69"/>
+      <c r="L57" s="74"/>
       <c r="M57" s="60" t="s">
         <v>73</v>
       </c>
@@ -11008,12 +11050,12 @@
       <c r="P57" s="62"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="66" t="s">
+      <c r="A58" s="40"/>
+      <c r="B58" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="34"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="36"/>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
       <c r="G58" s="21" t="s">
@@ -11021,7 +11063,7 @@
       </c>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
-      <c r="J58" s="35"/>
+      <c r="J58" s="37"/>
       <c r="K58" s="19"/>
       <c r="L58" s="20"/>
       <c r="M58" s="60"/>
@@ -11030,22 +11072,22 @@
       <c r="P58" s="62"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="66" t="s">
+      <c r="A59" s="40"/>
+      <c r="B59" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="34"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="36"/>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="68" t="s">
+      <c r="J59" s="37"/>
+      <c r="K59" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="69"/>
+      <c r="L59" s="74"/>
       <c r="M59" s="60" t="s">
         <v>108</v>
       </c>
@@ -11054,111 +11096,153 @@
       <c r="P59" s="62"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="70" t="s">
+      <c r="A60" s="40"/>
+      <c r="B60" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="72"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="65"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="69"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="68" t="s">
+      <c r="G61" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="69"/>
-      <c r="I61" s="68" t="s">
+      <c r="H61" s="74"/>
+      <c r="I61" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="69"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="81"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="77"/>
+      <c r="P61" s="76"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="9">
         <v>1</v>
       </c>
-      <c r="C62" s="73" t="s">
+      <c r="C62" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="D62" s="74"/>
-      <c r="E62" s="75"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="73" t="s">
+      <c r="G62" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="H62" s="75"/>
+      <c r="H62" s="68"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="76"/>
-      <c r="N62" s="78"/>
-      <c r="O62" s="78"/>
-      <c r="P62" s="77"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="70"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="75"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="75"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="68"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="77"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="70"/>
     </row>
     <row r="64" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
     <mergeCell ref="A47:P47"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="B48:C48"/>
@@ -11175,61 +11259,19 @@
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11354,7 +11396,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -11369,7 +11411,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -11662,34 +11704,34 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="65"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="82"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="50">
+      <c r="A17" s="39">
         <v>1</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="34" t="s">
+      <c r="C17" s="79"/>
+      <c r="D17" s="36" t="s">
         <v>140</v>
       </c>
       <c r="E17" s="38"/>
@@ -11697,13 +11739,13 @@
       <c r="G17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="68" t="s">
+      <c r="J17" s="37"/>
+      <c r="K17" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="69"/>
+      <c r="L17" s="74"/>
       <c r="M17" s="60" t="s">
         <v>142</v>
       </c>
@@ -11712,12 +11754,12 @@
       <c r="P17" s="62"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="66" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="79"/>
+      <c r="D18" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E18" s="38"/>
@@ -11725,15 +11767,15 @@
       <c r="G18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="36" t="s">
         <v>141</v>
       </c>
       <c r="I18" s="38"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="68" t="s">
+      <c r="J18" s="37"/>
+      <c r="K18" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="69"/>
+      <c r="L18" s="74"/>
       <c r="M18" s="60" t="s">
         <v>73</v>
       </c>
@@ -11742,12 +11784,12 @@
       <c r="P18" s="62"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="34"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="21" t="s">
@@ -11755,7 +11797,7 @@
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
-      <c r="J19" s="35"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="60"/>
@@ -11764,22 +11806,22 @@
       <c r="P19" s="62"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="66" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="68" t="s">
+      <c r="J20" s="37"/>
+      <c r="K20" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="69"/>
+      <c r="L20" s="74"/>
       <c r="M20" s="60" t="s">
         <v>108</v>
       </c>
@@ -11788,104 +11830,104 @@
       <c r="P20" s="62"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="72"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="65"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="69"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="69"/>
-      <c r="I22" s="68" t="s">
+      <c r="H22" s="74"/>
+      <c r="I22" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="81"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="76"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="75"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="77"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="75"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="77"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="70"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="50">
+      <c r="A25" s="39">
         <v>2</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="36" t="s">
         <v>190</v>
       </c>
       <c r="E25" s="38"/>
@@ -11893,13 +11935,13 @@
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="68" t="s">
+      <c r="J25" s="37"/>
+      <c r="K25" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="69"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="60" t="s">
         <v>192</v>
       </c>
@@ -11908,12 +11950,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="79"/>
+      <c r="D26" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E26" s="38"/>
@@ -11921,15 +11963,15 @@
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="36" t="s">
         <v>191</v>
       </c>
       <c r="I26" s="38"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="68" t="s">
+      <c r="J26" s="37"/>
+      <c r="K26" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="69"/>
+      <c r="L26" s="74"/>
       <c r="M26" s="60" t="s">
         <v>73</v>
       </c>
@@ -11938,12 +11980,12 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="21" t="s">
@@ -11951,7 +11993,7 @@
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="60"/>
@@ -11960,22 +12002,22 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="68" t="s">
+      <c r="J28" s="37"/>
+      <c r="K28" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="69"/>
+      <c r="L28" s="74"/>
       <c r="M28" s="60" t="s">
         <v>108</v>
       </c>
@@ -11984,104 +12026,104 @@
       <c r="P28" s="62"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="72"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="69"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="69"/>
-      <c r="I30" s="68" t="s">
+      <c r="H30" s="74"/>
+      <c r="I30" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="69"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="81"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="76"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="H31" s="75"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="77"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="70"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="75"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="68"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="77"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="50">
+      <c r="A33" s="39">
         <v>3</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="34" t="s">
+      <c r="C33" s="79"/>
+      <c r="D33" s="36" t="s">
         <v>466</v>
       </c>
       <c r="E33" s="38"/>
@@ -12089,13 +12131,13 @@
       <c r="G33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="34"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="68" t="s">
+      <c r="J33" s="37"/>
+      <c r="K33" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="69"/>
+      <c r="L33" s="74"/>
       <c r="M33" s="60" t="s">
         <v>192</v>
       </c>
@@ -12104,12 +12146,12 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="66" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="34" t="s">
+      <c r="C34" s="79"/>
+      <c r="D34" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E34" s="38"/>
@@ -12117,15 +12159,15 @@
       <c r="G34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="36" t="s">
         <v>467</v>
       </c>
       <c r="I34" s="38"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="68" t="s">
+      <c r="J34" s="37"/>
+      <c r="K34" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L34" s="69"/>
+      <c r="L34" s="74"/>
       <c r="M34" s="60" t="s">
         <v>73</v>
       </c>
@@ -12134,12 +12176,12 @@
       <c r="P34" s="62"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
-      <c r="B35" s="66" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
       <c r="G35" s="21" t="s">
@@ -12147,7 +12189,7 @@
       </c>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
-      <c r="J35" s="35"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="19"/>
       <c r="L35" s="20"/>
       <c r="M35" s="60"/>
@@ -12156,22 +12198,22 @@
       <c r="P35" s="62"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
-      <c r="B36" s="66" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="34"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="68" t="s">
+      <c r="J36" s="37"/>
+      <c r="K36" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="69"/>
+      <c r="L36" s="74"/>
       <c r="M36" s="60" t="s">
         <v>108</v>
       </c>
@@ -12180,144 +12222,145 @@
       <c r="P36" s="62"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
-      <c r="B37" s="70" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="72"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="65"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="69"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="68" t="s">
+      <c r="G38" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="69"/>
-      <c r="I38" s="68" t="s">
+      <c r="H38" s="74"/>
+      <c r="I38" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="69"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="81"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="76"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="9">
         <v>1</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="68"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="73" t="s">
+      <c r="G39" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="H39" s="75"/>
+      <c r="H39" s="68"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="77"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="70"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="51"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="75"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="75"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="68"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="77"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:A24"/>
@@ -12342,54 +12385,53 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12436,11 +12478,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -12512,7 +12554,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -12527,7 +12569,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -13042,34 +13084,34 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="65"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="82"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="50">
+      <c r="A23" s="39">
         <v>1</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="34" t="s">
+      <c r="C23" s="79"/>
+      <c r="D23" s="36" t="s">
         <v>140</v>
       </c>
       <c r="E23" s="38"/>
@@ -13077,13 +13119,13 @@
       <c r="G23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="34"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="38"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="68" t="s">
+      <c r="J23" s="37"/>
+      <c r="K23" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="69"/>
+      <c r="L23" s="74"/>
       <c r="M23" s="60" t="s">
         <v>142</v>
       </c>
@@ -13092,12 +13134,12 @@
       <c r="P23" s="62"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="79"/>
+      <c r="D24" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E24" s="38"/>
@@ -13105,15 +13147,15 @@
       <c r="G24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="36" t="s">
         <v>141</v>
       </c>
       <c r="I24" s="38"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="68" t="s">
+      <c r="J24" s="37"/>
+      <c r="K24" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L24" s="69"/>
+      <c r="L24" s="74"/>
       <c r="M24" s="60" t="s">
         <v>73</v>
       </c>
@@ -13122,12 +13164,12 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="21" t="s">
@@ -13135,7 +13177,7 @@
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="35"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="60"/>
@@ -13144,22 +13186,22 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="68" t="s">
+      <c r="J26" s="37"/>
+      <c r="K26" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="69"/>
+      <c r="L26" s="74"/>
       <c r="M26" s="60" t="s">
         <v>108</v>
       </c>
@@ -13168,103 +13210,103 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="72"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="65"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="69"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="68" t="s">
+      <c r="H28" s="74"/>
+      <c r="I28" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="69"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="81"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="76"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="9">
         <v>1</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="H29" s="75"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="77"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="70"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="75"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="77"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="70"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="50">
+      <c r="A31" s="39">
         <v>2</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="67"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="83" t="s">
         <v>251</v>
       </c>
@@ -13273,13 +13315,13 @@
       <c r="G31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="34"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="38"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="68" t="s">
+      <c r="J31" s="37"/>
+      <c r="K31" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="69"/>
+      <c r="L31" s="74"/>
       <c r="M31" s="60" t="s">
         <v>192</v>
       </c>
@@ -13288,11 +13330,11 @@
       <c r="P31" s="62"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="66" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="67"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="83" t="s">
         <v>179</v>
       </c>
@@ -13301,15 +13343,15 @@
       <c r="G32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="36" t="s">
         <v>178</v>
       </c>
       <c r="I32" s="38"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="68" t="s">
+      <c r="J32" s="37"/>
+      <c r="K32" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L32" s="69"/>
+      <c r="L32" s="74"/>
       <c r="M32" s="60" t="s">
         <v>73</v>
       </c>
@@ -13318,22 +13360,22 @@
       <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="34"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="68" t="s">
+      <c r="J33" s="37"/>
+      <c r="K33" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="69"/>
+      <c r="L33" s="74"/>
       <c r="M33" s="60" t="s">
         <v>108</v>
       </c>
@@ -13342,90 +13384,90 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="70" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="72"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="65"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="69"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="69"/>
-      <c r="I35" s="68" t="s">
+      <c r="H35" s="74"/>
+      <c r="I35" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="69"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="81"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="76"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="9">
         <v>1</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="73" t="s">
+      <c r="G36" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="75"/>
+      <c r="H36" s="68"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="77"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="70"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="75"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="77"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -13433,6 +13475,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K24:L24"/>
@@ -13449,69 +13554,6 @@
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7589D1A5-0FD8-4277-9DE8-123E290976F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD58C93E-A1D4-4148-B184-7AC7FF0E7088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="3" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="472">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1960,18 +1960,6 @@
   </si>
   <si>
     <t>汇聚分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIGNAL_SET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signal Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2362,28 +2350,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2419,6 +2398,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2449,6 +2437,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2476,13 +2485,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2492,21 +2495,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3100,11 +3088,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3148,11 +3136,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3178,7 +3166,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -3193,7 +3181,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -3694,7 +3682,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -3709,10 +3697,16 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="37"/>
+      <c r="P22" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A3:C3"/>
@@ -3721,12 +3715,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3773,11 +3761,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3821,11 +3809,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3851,7 +3839,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -3866,7 +3854,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -4367,7 +4355,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -4382,7 +4370,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="37"/>
+      <c r="P22" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4446,11 +4434,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4492,11 +4480,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -4522,7 +4510,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -4537,7 +4525,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -4825,6 +4813,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -4832,12 +4826,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4884,11 +4872,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4930,11 +4918,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -4960,7 +4948,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -4975,7 +4963,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -5609,6 +5597,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5616,12 +5610,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6210,17 +6198,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="50">
+      <c r="A1" s="47">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="25" t="s">
         <v>396</v>
       </c>
@@ -6229,15 +6217,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="25" t="s">
         <v>399</v>
       </c>
@@ -6246,29 +6234,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
-      <c r="G3" s="37"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="27" t="s">
         <v>402</v>
       </c>
@@ -6289,7 +6277,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="26">
         <v>1</v>
       </c>
@@ -6304,7 +6292,7 @@
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="26">
         <v>2</v>
       </c>
@@ -6319,7 +6307,7 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26">
         <v>3</v>
       </c>
@@ -6334,7 +6322,7 @@
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="26"/>
       <c r="C9" s="30"/>
       <c r="D9" s="29"/>
@@ -6343,26 +6331,26 @@
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="50">
         <v>2</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="25" t="s">
         <v>396</v>
       </c>
@@ -6371,15 +6359,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="25" t="s">
         <v>399</v>
       </c>
@@ -6388,29 +6376,29 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="27" t="s">
         <v>402</v>
       </c>
@@ -6431,7 +6419,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="26">
         <v>1</v>
       </c>
@@ -6448,7 +6436,7 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="26">
         <v>2</v>
       </c>
@@ -6465,7 +6453,7 @@
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="26">
         <v>3</v>
       </c>
@@ -6484,7 +6472,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="26">
         <v>4</v>
       </c>
@@ -6503,7 +6491,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="26">
         <v>5</v>
       </c>
@@ -6522,7 +6510,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="26">
         <v>6</v>
       </c>
@@ -6541,7 +6529,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="26">
         <v>7</v>
       </c>
@@ -6560,7 +6548,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="26">
         <v>8</v>
       </c>
@@ -6579,7 +6567,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="26">
         <v>9</v>
       </c>
@@ -6598,7 +6586,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="26">
         <v>10</v>
       </c>
@@ -6617,26 +6605,26 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="48">
+      <c r="A27" s="45">
         <v>4</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="25" t="s">
         <v>396</v>
       </c>
@@ -6645,15 +6633,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="34" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="E28" s="37"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="25" t="s">
         <v>399</v>
       </c>
@@ -6662,29 +6650,29 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="37"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="27" t="s">
         <v>402</v>
       </c>
@@ -6705,7 +6693,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="26">
         <v>1</v>
       </c>
@@ -6722,7 +6710,7 @@
       <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="26">
         <v>2</v>
       </c>
@@ -6739,7 +6727,7 @@
       <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="26">
         <v>3</v>
       </c>
@@ -6758,7 +6746,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="26">
         <v>4</v>
       </c>
@@ -6775,7 +6763,7 @@
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="26">
         <v>5</v>
       </c>
@@ -6792,7 +6780,7 @@
       <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="26">
         <v>6</v>
       </c>
@@ -6809,7 +6797,7 @@
       <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="26">
         <v>7</v>
       </c>
@@ -6826,7 +6814,7 @@
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="26">
         <v>8</v>
       </c>
@@ -6843,26 +6831,26 @@
       <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="39">
+      <c r="A41" s="50">
         <v>5</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36" t="s">
+      <c r="C41" s="37"/>
+      <c r="D41" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="E41" s="37"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="25" t="s">
         <v>396</v>
       </c>
@@ -6871,15 +6859,15 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" s="34" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36" t="s">
+      <c r="C42" s="37"/>
+      <c r="D42" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="E42" s="37"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="25" t="s">
         <v>399</v>
       </c>
@@ -6888,29 +6876,29 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="34" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
-      <c r="G43" s="37"/>
+      <c r="G43" s="35"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="42" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="27" t="s">
         <v>402</v>
       </c>
@@ -6931,7 +6919,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="26">
         <v>1</v>
       </c>
@@ -6948,7 +6936,7 @@
       <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="26">
         <v>2</v>
       </c>
@@ -6965,7 +6953,7 @@
       <c r="G47" s="29"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="26">
         <v>3</v>
       </c>
@@ -6984,7 +6972,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="26">
         <v>4</v>
       </c>
@@ -7003,21 +6991,31 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B50:G50"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="A27:A40"/>
     <mergeCell ref="B40:G40"/>
@@ -7034,21 +7032,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B26:G26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7171,7 +7159,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -7186,7 +7174,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -7707,7 +7695,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -7722,7 +7710,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="37"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
@@ -7771,10 +7759,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A43"/>
+      <selection activeCell="A25" sqref="A25:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7885,7 +7873,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -7900,7 +7888,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -8529,14 +8517,14 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>472</v>
+        <v>205</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
-        <v>473</v>
+        <v>206</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>474</v>
+        <v>207</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -8544,7 +8532,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="8">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="11"/>
@@ -8559,14 +8547,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -8589,14 +8577,14 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>208</v>
+        <v>360</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
-        <v>209</v>
+        <v>361</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -8619,14 +8607,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
-        <v>361</v>
+        <v>201</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>362</v>
+        <v>202</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -8649,14 +8637,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -8679,14 +8667,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>198</v>
+        <v>366</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>199</v>
+        <v>367</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>156</v>
+        <v>368</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -8709,14 +8697,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -8739,14 +8727,14 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -8769,14 +8757,14 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -8799,14 +8787,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -8829,14 +8817,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -8859,23 +8847,27 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="E37" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F37" s="11" t="s">
-        <v>350</v>
+        <v>37</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J37" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="8">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -8889,27 +8881,27 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E38" s="8"/>
       <c r="F38" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K38" s="8">
+        <v>50</v>
+      </c>
       <c r="L38" s="8"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -8923,27 +8915,25 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="8">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -8957,25 +8947,27 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K40" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K40" s="8">
+        <v>50</v>
+      </c>
       <c r="L40" s="8"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -8989,27 +8981,25 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="8">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
@@ -9023,25 +9013,27 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="F42" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I42" s="8"/>
       <c r="J42" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K42" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K42" s="8">
+        <v>200</v>
+      </c>
       <c r="L42" s="8"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -9049,33 +9041,17 @@
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>36</v>
-      </c>
+      <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="8">
-        <v>200</v>
-      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -9083,259 +9059,279 @@
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="36"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="37"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="65"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="82"/>
+      <c r="A47" s="50">
+        <v>1</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="67"/>
+      <c r="D47" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="34"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L47" s="69"/>
+      <c r="M47" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="62"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="39">
-        <v>1</v>
-      </c>
-      <c r="B48" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="36" t="s">
-        <v>140</v>
+      <c r="A48" s="51"/>
+      <c r="B48" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="67"/>
+      <c r="D48" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
       <c r="G48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="I48" s="38"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="L48" s="74"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="69"/>
       <c r="M48" s="60" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="N48" s="61"/>
       <c r="O48" s="61"/>
       <c r="P48" s="62"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="36" t="s">
-        <v>164</v>
-      </c>
+      <c r="A49" s="51"/>
+      <c r="B49" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="67"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
-      <c r="G49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>163</v>
-      </c>
+      <c r="G49" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="38"/>
       <c r="I49" s="38"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="L49" s="74"/>
-      <c r="M49" s="60" t="s">
-        <v>73</v>
-      </c>
+      <c r="J49" s="35"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="60"/>
       <c r="N49" s="61"/>
       <c r="O49" s="61"/>
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-      <c r="B50" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="36"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="67"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
-      <c r="G50" s="21" t="s">
-        <v>105</v>
-      </c>
+      <c r="G50" s="38"/>
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="60"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50" s="69"/>
+      <c r="M50" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="N50" s="61"/>
       <c r="O50" s="61"/>
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="L51" s="74"/>
-      <c r="M51" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="62"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="72"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="65"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="79"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="69"/>
+      <c r="I52" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="69"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="81"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="74"/>
-      <c r="I53" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="74"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="76"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" s="74"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" s="75"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="77"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-      <c r="C54" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="68"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="H54" s="68"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="75"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="70"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="70"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A44:P44"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -9348,44 +9344,6 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A45:P45"/>
-    <mergeCell ref="A47:P47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9508,7 +9466,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -9523,7 +9481,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -10774,34 +10732,34 @@
       <c r="P45" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="82"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="65"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="39">
+      <c r="A48" s="50">
         <v>1</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="36" t="s">
+      <c r="C48" s="67"/>
+      <c r="D48" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E48" s="38"/>
@@ -10809,13 +10767,13 @@
       <c r="G48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="34"/>
       <c r="I48" s="38"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="72" t="s">
+      <c r="J48" s="35"/>
+      <c r="K48" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L48" s="74"/>
+      <c r="L48" s="69"/>
       <c r="M48" s="60" t="s">
         <v>142</v>
       </c>
@@ -10824,12 +10782,12 @@
       <c r="P48" s="62"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="78" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="36" t="s">
+      <c r="C49" s="67"/>
+      <c r="D49" s="34" t="s">
         <v>188</v>
       </c>
       <c r="E49" s="38"/>
@@ -10837,15 +10795,15 @@
       <c r="G49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H49" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I49" s="38"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="72" t="s">
+      <c r="J49" s="35"/>
+      <c r="K49" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L49" s="74"/>
+      <c r="L49" s="69"/>
       <c r="M49" s="60" t="s">
         <v>73</v>
       </c>
@@ -10854,12 +10812,12 @@
       <c r="P49" s="62"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-      <c r="B50" s="78" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="36"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
       <c r="G50" s="21" t="s">
@@ -10867,7 +10825,7 @@
       </c>
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
-      <c r="J50" s="37"/>
+      <c r="J50" s="35"/>
       <c r="K50" s="19"/>
       <c r="L50" s="20"/>
       <c r="M50" s="60"/>
@@ -10876,22 +10834,22 @@
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="78" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="36"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="72" t="s">
+      <c r="J51" s="35"/>
+      <c r="K51" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="74"/>
+      <c r="L51" s="69"/>
       <c r="M51" s="60" t="s">
         <v>108</v>
       </c>
@@ -10900,104 +10858,104 @@
       <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="63" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="65"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="72"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="72" t="s">
+      <c r="C53" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="74"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="69"/>
       <c r="F53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="72" t="s">
+      <c r="G53" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="74"/>
-      <c r="I53" s="72" t="s">
+      <c r="H53" s="69"/>
+      <c r="I53" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="74"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="76"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="82"/>
+      <c r="P53" s="81"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="9">
         <v>1</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="68"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="66" t="s">
+      <c r="G54" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H54" s="68"/>
+      <c r="H54" s="75"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="70"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="77"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="68"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="75"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="70"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="77"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="39">
+      <c r="A56" s="50">
         <v>2</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="36" t="s">
+      <c r="C56" s="67"/>
+      <c r="D56" s="34" t="s">
         <v>244</v>
       </c>
       <c r="E56" s="38"/>
@@ -11005,13 +10963,13 @@
       <c r="G56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="34"/>
       <c r="I56" s="38"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="72" t="s">
+      <c r="J56" s="35"/>
+      <c r="K56" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L56" s="74"/>
+      <c r="L56" s="69"/>
       <c r="M56" s="60" t="s">
         <v>142</v>
       </c>
@@ -11020,12 +10978,12 @@
       <c r="P56" s="62"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" s="78" t="s">
+      <c r="A57" s="51"/>
+      <c r="B57" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="36" t="s">
+      <c r="C57" s="67"/>
+      <c r="D57" s="34" t="s">
         <v>394</v>
       </c>
       <c r="E57" s="38"/>
@@ -11033,15 +10991,15 @@
       <c r="G57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="36" t="s">
+      <c r="H57" s="34" t="s">
         <v>245</v>
       </c>
       <c r="I57" s="38"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="72" t="s">
+      <c r="J57" s="35"/>
+      <c r="K57" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L57" s="74"/>
+      <c r="L57" s="69"/>
       <c r="M57" s="60" t="s">
         <v>73</v>
       </c>
@@ -11050,12 +11008,12 @@
       <c r="P57" s="62"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="78" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="36"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
       <c r="G58" s="21" t="s">
@@ -11063,7 +11021,7 @@
       </c>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
-      <c r="J58" s="37"/>
+      <c r="J58" s="35"/>
       <c r="K58" s="19"/>
       <c r="L58" s="20"/>
       <c r="M58" s="60"/>
@@ -11072,22 +11030,22 @@
       <c r="P58" s="62"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="78" t="s">
+      <c r="A59" s="51"/>
+      <c r="B59" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="36"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="72" t="s">
+      <c r="J59" s="35"/>
+      <c r="K59" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="74"/>
+      <c r="L59" s="69"/>
       <c r="M59" s="60" t="s">
         <v>108</v>
       </c>
@@ -11096,153 +11054,111 @@
       <c r="P59" s="62"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" s="63" t="s">
+      <c r="A60" s="51"/>
+      <c r="B60" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="65"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="72"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="72" t="s">
+      <c r="C61" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="73"/>
-      <c r="E61" s="74"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="69"/>
       <c r="F61" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="72" t="s">
+      <c r="G61" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="74"/>
-      <c r="I61" s="72" t="s">
+      <c r="H61" s="69"/>
+      <c r="I61" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="74"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="77"/>
-      <c r="O61" s="77"/>
-      <c r="P61" s="76"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="82"/>
+      <c r="P61" s="81"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="9">
         <v>1</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="D62" s="67"/>
-      <c r="E62" s="68"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="75"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="66" t="s">
+      <c r="G62" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H62" s="68"/>
+      <c r="H62" s="75"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="70"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="78"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="77"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="68"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="75"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="68"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="75"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="70"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="78"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="77"/>
     </row>
     <row r="64" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A47:P47"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="B48:C48"/>
@@ -11259,19 +11175,61 @@
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="M50:P50"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11396,7 +11354,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -11411,7 +11369,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -11704,34 +11662,34 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="82"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="65"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="39">
+      <c r="A17" s="50">
         <v>1</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E17" s="38"/>
@@ -11739,13 +11697,13 @@
       <c r="G17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="72" t="s">
+      <c r="J17" s="35"/>
+      <c r="K17" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="74"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="60" t="s">
         <v>142</v>
       </c>
@@ -11754,12 +11712,12 @@
       <c r="P17" s="62"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="78" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="34" t="s">
         <v>188</v>
       </c>
       <c r="E18" s="38"/>
@@ -11767,15 +11725,15 @@
       <c r="G18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I18" s="38"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="72" t="s">
+      <c r="J18" s="35"/>
+      <c r="K18" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="74"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="60" t="s">
         <v>73</v>
       </c>
@@ -11784,12 +11742,12 @@
       <c r="P18" s="62"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="78" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="21" t="s">
@@ -11797,7 +11755,7 @@
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
-      <c r="J19" s="37"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="60"/>
@@ -11806,22 +11764,22 @@
       <c r="P19" s="62"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="72" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="74"/>
+      <c r="L20" s="69"/>
       <c r="M20" s="60" t="s">
         <v>108</v>
       </c>
@@ -11830,104 +11788,104 @@
       <c r="P20" s="62"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="63" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="65"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="72"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="74"/>
-      <c r="I22" s="72" t="s">
+      <c r="H22" s="69"/>
+      <c r="I22" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="76"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="81"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="68"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="70"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="77"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="68"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="70"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="77"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="39">
+      <c r="A25" s="50">
         <v>2</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="34" t="s">
         <v>190</v>
       </c>
       <c r="E25" s="38"/>
@@ -11935,13 +11893,13 @@
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="36"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="72" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="60" t="s">
         <v>192</v>
       </c>
@@ -11950,12 +11908,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="34" t="s">
         <v>193</v>
       </c>
       <c r="E26" s="38"/>
@@ -11963,15 +11921,15 @@
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="34" t="s">
         <v>191</v>
       </c>
       <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="72" t="s">
+      <c r="J26" s="35"/>
+      <c r="K26" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="74"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="60" t="s">
         <v>73</v>
       </c>
@@ -11980,12 +11938,12 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="21" t="s">
@@ -11993,7 +11951,7 @@
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="60"/>
@@ -12002,22 +11960,22 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="78" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="36"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="72" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="74"/>
+      <c r="L28" s="69"/>
       <c r="M28" s="60" t="s">
         <v>108</v>
       </c>
@@ -12026,104 +11984,104 @@
       <c r="P28" s="62"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="65"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="72"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72" t="s">
+      <c r="H30" s="69"/>
+      <c r="I30" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="76"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="81"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="H31" s="68"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="68"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="70"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="77"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="39">
+      <c r="A33" s="50">
         <v>3</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="36" t="s">
+      <c r="C33" s="67"/>
+      <c r="D33" s="34" t="s">
         <v>466</v>
       </c>
       <c r="E33" s="38"/>
@@ -12131,13 +12089,13 @@
       <c r="G33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="36"/>
+      <c r="H33" s="34"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="72" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="74"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="60" t="s">
         <v>192</v>
       </c>
@@ -12146,12 +12104,12 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="78" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="36" t="s">
+      <c r="C34" s="67"/>
+      <c r="D34" s="34" t="s">
         <v>193</v>
       </c>
       <c r="E34" s="38"/>
@@ -12159,15 +12117,15 @@
       <c r="G34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="34" t="s">
         <v>467</v>
       </c>
       <c r="I34" s="38"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="72" t="s">
+      <c r="J34" s="35"/>
+      <c r="K34" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L34" s="74"/>
+      <c r="L34" s="69"/>
       <c r="M34" s="60" t="s">
         <v>73</v>
       </c>
@@ -12176,12 +12134,12 @@
       <c r="P34" s="62"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="78" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="36"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
       <c r="G35" s="21" t="s">
@@ -12189,7 +12147,7 @@
       </c>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
-      <c r="J35" s="37"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="19"/>
       <c r="L35" s="20"/>
       <c r="M35" s="60"/>
@@ -12198,22 +12156,22 @@
       <c r="P35" s="62"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="78" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="36"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="72" t="s">
+      <c r="J36" s="35"/>
+      <c r="K36" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="74"/>
+      <c r="L36" s="69"/>
       <c r="M36" s="60" t="s">
         <v>108</v>
       </c>
@@ -12222,112 +12180,177 @@
       <c r="P36" s="62"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="63" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="65"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="72"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="72" t="s">
+      <c r="H38" s="69"/>
+      <c r="I38" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="74"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="76"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="81"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="9">
         <v>1</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="73" t="s">
         <v>468</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="66" t="s">
+      <c r="G39" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="H39" s="68"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="70"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="77"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="68"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="75"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="70"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:F25"/>
@@ -12352,86 +12375,21 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12478,11 +12436,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -12554,7 +12512,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -12569,7 +12527,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -13084,34 +13042,34 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="82"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="65"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="39">
+      <c r="A23" s="50">
         <v>1</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="36" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E23" s="38"/>
@@ -13119,13 +13077,13 @@
       <c r="G23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="36"/>
+      <c r="H23" s="34"/>
       <c r="I23" s="38"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="72" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="74"/>
+      <c r="L23" s="69"/>
       <c r="M23" s="60" t="s">
         <v>142</v>
       </c>
@@ -13134,12 +13092,12 @@
       <c r="P23" s="62"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="78" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="36" t="s">
+      <c r="C24" s="67"/>
+      <c r="D24" s="34" t="s">
         <v>188</v>
       </c>
       <c r="E24" s="38"/>
@@ -13147,15 +13105,15 @@
       <c r="G24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I24" s="38"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="72" t="s">
+      <c r="J24" s="35"/>
+      <c r="K24" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L24" s="74"/>
+      <c r="L24" s="69"/>
       <c r="M24" s="60" t="s">
         <v>73</v>
       </c>
@@ -13164,12 +13122,12 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="36"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="21" t="s">
@@ -13177,7 +13135,7 @@
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="60"/>
@@ -13186,22 +13144,22 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="36"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="72" t="s">
+      <c r="J26" s="35"/>
+      <c r="K26" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="74"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="60" t="s">
         <v>108</v>
       </c>
@@ -13210,103 +13168,103 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="65"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="72"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="72" t="s">
+      <c r="H28" s="69"/>
+      <c r="I28" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="76"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="81"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="9">
         <v>1</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H29" s="68"/>
+      <c r="H29" s="75"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="70"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="77"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="68"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="70"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="77"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="39">
+      <c r="A31" s="50">
         <v>2</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="83" t="s">
         <v>251</v>
       </c>
@@ -13315,13 +13273,13 @@
       <c r="G31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="34"/>
       <c r="I31" s="38"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="72" t="s">
+      <c r="J31" s="35"/>
+      <c r="K31" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="74"/>
+      <c r="L31" s="69"/>
       <c r="M31" s="60" t="s">
         <v>192</v>
       </c>
@@ -13330,11 +13288,11 @@
       <c r="P31" s="62"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="83" t="s">
         <v>179</v>
       </c>
@@ -13343,15 +13301,15 @@
       <c r="G32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="34" t="s">
         <v>178</v>
       </c>
       <c r="I32" s="38"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="72" t="s">
+      <c r="J32" s="35"/>
+      <c r="K32" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L32" s="74"/>
+      <c r="L32" s="69"/>
       <c r="M32" s="60" t="s">
         <v>73</v>
       </c>
@@ -13360,22 +13318,22 @@
       <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="78" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="36"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="72" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="74"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="60" t="s">
         <v>108</v>
       </c>
@@ -13384,90 +13342,90 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="63" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="65"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="72"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="69"/>
       <c r="F35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="74"/>
-      <c r="I35" s="72" t="s">
+      <c r="H35" s="69"/>
+      <c r="I35" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="76"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="81"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="9">
         <v>1</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="68"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="70"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="77"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="68"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="70"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -13475,24 +13433,51 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A31:A37"/>
@@ -13509,51 +13494,24 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="M24:P24"/>
     <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD58C93E-A1D4-4148-B184-7AC7FF0E7088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80057043-2562-4A0E-8F5C-6272E6AFA6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="3" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="3" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="475">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1960,6 +1960,18 @@
   </si>
   <si>
     <t>汇聚分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB_WF_RESULT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub Flow Result Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子流程结果状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7761,7 +7773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:A42"/>
     </sheetView>
   </sheetViews>
@@ -9352,10 +9364,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9837,81 +9849,79 @@
       <c r="O16" s="8"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>10</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>339</v>
+        <v>472</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>340</v>
+        <v>473</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>341</v>
+        <v>474</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
       <c r="J17" s="11" t="s">
-        <v>342</v>
+        <v>29</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="11"/>
+      <c r="M17" s="11" t="s">
+        <v>344</v>
+      </c>
       <c r="N17" s="11"/>
       <c r="O17" s="8"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>11</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
       <c r="J18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="8">
-        <v>10</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="8"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>12</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
@@ -9919,7 +9929,7 @@
         <v>28</v>
       </c>
       <c r="K19" s="8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="11"/>
@@ -9934,14 +9944,16 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>214</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F20" s="11" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>327</v>
+        <v>215</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="8"/>
@@ -9949,7 +9961,7 @@
         <v>28</v>
       </c>
       <c r="K20" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="11"/>
@@ -9957,21 +9969,21 @@
       <c r="O20" s="8"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>14</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
@@ -9979,7 +9991,7 @@
         <v>28</v>
       </c>
       <c r="K21" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="11"/>
@@ -9994,16 +10006,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>229</v>
+        <v>334</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
@@ -10011,14 +10021,12 @@
         <v>28</v>
       </c>
       <c r="K22" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
-      <c r="O22" s="8" t="s">
-        <v>335</v>
-      </c>
+      <c r="O22" s="8"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -10028,14 +10036,16 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E23" s="8"/>
+        <v>227</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F23" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -10048,7 +10058,9 @@
       <c r="L23" s="8"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
-      <c r="O23" s="8"/>
+      <c r="O23" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -10058,14 +10070,14 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
@@ -10078,9 +10090,7 @@
       <c r="L24" s="8"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="8" t="s">
-        <v>336</v>
-      </c>
+      <c r="O24" s="8"/>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -10090,14 +10100,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -10110,7 +10120,9 @@
       <c r="L25" s="8"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="8"/>
+      <c r="O25" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -10120,16 +10132,14 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -10142,9 +10152,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="8" t="s">
-        <v>337</v>
-      </c>
+      <c r="O26" s="8"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -10154,14 +10162,16 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" s="8"/>
+        <v>222</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F27" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -10174,7 +10184,9 @@
       <c r="L27" s="8"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="8"/>
+      <c r="O27" s="8" t="s">
+        <v>337</v>
+      </c>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -10184,16 +10196,14 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -10216,14 +10226,16 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F29" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -10246,14 +10258,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>383</v>
+        <v>199</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -10261,7 +10273,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="11"/>
@@ -10276,14 +10288,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -10306,21 +10318,23 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>57</v>
+        <v>385</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>58</v>
+        <v>386</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
       <c r="J32" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K32" s="8">
+        <v>200</v>
+      </c>
       <c r="L32" s="8"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -10334,14 +10348,14 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>307</v>
+        <v>58</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>61</v>
+        <v>338</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -10362,14 +10376,14 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
-        <v>169</v>
+        <v>307</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>348</v>
+        <v>61</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -10390,14 +10404,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -10418,21 +10432,19 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I36" s="8"/>
       <c r="J36" s="11" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -10448,25 +10460,23 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="E37" s="8"/>
       <c r="F37" s="11" t="s">
-        <v>470</v>
+        <v>236</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>471</v>
+        <v>237</v>
       </c>
       <c r="H37" s="11"/>
-      <c r="I37" s="8"/>
+      <c r="I37" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J37" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="8">
-        <v>100</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -10480,16 +10490,16 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>388</v>
+        <v>469</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>389</v>
+        <v>470</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>9</v>
+        <v>471</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="8"/>
@@ -10497,7 +10507,7 @@
         <v>28</v>
       </c>
       <c r="K38" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="11"/>
@@ -10512,27 +10522,25 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11" t="s">
-        <v>36</v>
+        <v>388</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K39" s="8">
+        <v>200</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -10546,29 +10554,27 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="8">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -10582,27 +10588,29 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K41" s="8">
+        <v>50</v>
+      </c>
       <c r="L41" s="8"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
@@ -10616,29 +10624,27 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="8">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -10652,27 +10658,29 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K43" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K43" s="8">
+        <v>50</v>
+      </c>
       <c r="L43" s="8"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -10686,27 +10694,27 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I44" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="8">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -10714,98 +10722,102 @@
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
+      <c r="A45" s="8">
+        <v>38</v>
+      </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="D45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="J45" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="8">
+        <v>200</v>
+      </c>
       <c r="L45" s="8"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="8"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="63" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="65"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="50">
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="65"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="50">
         <v>1</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B49" s="66" t="s">
         <v>14</v>
-      </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="L48" s="69"/>
-      <c r="M48" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="62"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="66" t="s">
-        <v>4</v>
       </c>
       <c r="C49" s="67"/>
       <c r="D49" s="34" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
       <c r="G49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>141</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H49" s="34"/>
       <c r="I49" s="38"/>
       <c r="J49" s="35"/>
       <c r="K49" s="68" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L49" s="69"/>
       <c r="M49" s="60" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N49" s="61"/>
       <c r="O49" s="61"/>
@@ -10814,21 +10826,29 @@
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="51"/>
       <c r="B50" s="66" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C50" s="67"/>
-      <c r="D50" s="34"/>
+      <c r="D50" s="34" t="s">
+        <v>188</v>
+      </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
-      <c r="G50" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" s="38"/>
+      <c r="G50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>141</v>
+      </c>
       <c r="I50" s="38"/>
       <c r="J50" s="35"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="60"/>
+      <c r="K50" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="69"/>
+      <c r="M50" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="N50" s="61"/>
       <c r="O50" s="61"/>
       <c r="P50" s="62"/>
@@ -10836,107 +10856,111 @@
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="51"/>
       <c r="B51" s="66" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C51" s="67"/>
       <c r="D51" s="34"/>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
+      <c r="G51" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="35"/>
-      <c r="K51" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="L51" s="69"/>
-      <c r="M51" s="60" t="s">
-        <v>108</v>
-      </c>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="60"/>
       <c r="N51" s="61"/>
       <c r="O51" s="61"/>
       <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="51"/>
-      <c r="B52" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="72"/>
+      <c r="B52" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="67"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="69"/>
+      <c r="M52" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="62"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="51"/>
-      <c r="B53" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="69"/>
-      <c r="I53" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="69"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="81"/>
+      <c r="B53" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="72"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="51"/>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-      <c r="C54" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="H54" s="75"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="77"/>
+      <c r="B54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="79"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="69"/>
+      <c r="I54" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="69"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="82"/>
+      <c r="P54" s="81"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="51"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="74"/>
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>189</v>
+      </c>
       <c r="D55" s="74"/>
       <c r="E55" s="75"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="73"/>
+      <c r="G55" s="73" t="s">
+        <v>189</v>
+      </c>
       <c r="H55" s="75"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
@@ -10948,60 +10972,48 @@
       <c r="P55" s="77"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="50">
+      <c r="A56" s="51"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="77"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="50">
         <v>2</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B57" s="66" t="s">
         <v>14</v>
-      </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="34"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="L56" s="69"/>
-      <c r="M56" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="62"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="66" t="s">
-        <v>4</v>
       </c>
       <c r="C57" s="67"/>
       <c r="D57" s="34" t="s">
-        <v>394</v>
+        <v>244</v>
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>245</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H57" s="34"/>
       <c r="I57" s="38"/>
       <c r="J57" s="35"/>
       <c r="K57" s="68" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L57" s="69"/>
       <c r="M57" s="60" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N57" s="61"/>
       <c r="O57" s="61"/>
@@ -11010,21 +11022,29 @@
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="51"/>
       <c r="B58" s="66" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C58" s="67"/>
-      <c r="D58" s="34"/>
+      <c r="D58" s="34" t="s">
+        <v>394</v>
+      </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
-      <c r="G58" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="38"/>
+      <c r="G58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>245</v>
+      </c>
       <c r="I58" s="38"/>
       <c r="J58" s="35"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="60"/>
+      <c r="K58" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L58" s="69"/>
+      <c r="M58" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="N58" s="61"/>
       <c r="O58" s="61"/>
       <c r="P58" s="62"/>
@@ -11032,107 +11052,111 @@
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="51"/>
       <c r="B59" s="66" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C59" s="67"/>
       <c r="D59" s="34"/>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
+      <c r="G59" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="35"/>
-      <c r="K59" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="L59" s="69"/>
-      <c r="M59" s="60" t="s">
-        <v>108</v>
-      </c>
+      <c r="K59" s="19"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="60"/>
       <c r="N59" s="61"/>
       <c r="O59" s="61"/>
       <c r="P59" s="62"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="51"/>
-      <c r="B60" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="72"/>
+      <c r="B60" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="67"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60" s="69"/>
+      <c r="M60" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="62"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="51"/>
-      <c r="B61" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="69"/>
-      <c r="I61" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="69"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="81"/>
+      <c r="B61" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="72"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="51"/>
-      <c r="B62" s="9">
-        <v>1</v>
-      </c>
-      <c r="C62" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" s="74"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="H62" s="75"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="76"/>
-      <c r="N62" s="78"/>
-      <c r="O62" s="78"/>
-      <c r="P62" s="77"/>
+      <c r="B62" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="79"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="69"/>
+      <c r="I62" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="69"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="80"/>
+      <c r="N62" s="82"/>
+      <c r="O62" s="82"/>
+      <c r="P62" s="81"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="51"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="74"/>
+      <c r="B63" s="9">
+        <v>1</v>
+      </c>
+      <c r="C63" s="73" t="s">
+        <v>246</v>
+      </c>
       <c r="D63" s="74"/>
       <c r="E63" s="75"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="73"/>
+      <c r="G63" s="73" t="s">
+        <v>189</v>
+      </c>
       <c r="H63" s="75"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
@@ -11143,7 +11167,25 @@
       <c r="O63" s="78"/>
       <c r="P63" s="77"/>
     </row>
-    <row r="64" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="51"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="78"/>
+      <c r="O64" s="78"/>
+      <c r="P64" s="77"/>
+    </row>
+    <row r="65" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
     <mergeCell ref="A6:P6"/>
@@ -11159,13 +11201,8 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A47:P47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A49:A56"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="H49:J49"/>
@@ -11174,62 +11211,67 @@
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
     <mergeCell ref="M50:P50"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:P53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="C55:E55"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:P55"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="K62:L62"/>
     <mergeCell ref="M56:P56"/>
+    <mergeCell ref="A57:A64"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:F57"/>
     <mergeCell ref="H57:J57"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M58:P58"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="B61:J61"/>
     <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="C63:E63"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:P62"/>
     <mergeCell ref="M63:P63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:P64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80057043-2562-4A0E-8F5C-6272E6AFA6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73094BF1-5D01-480B-8A0C-24F231FA0EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="3" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="8" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="nop_wf_instance" sheetId="21" r:id="rId6"/>
     <sheet name="nop_wf_step_instance" sheetId="1" r:id="rId7"/>
     <sheet name="nop_wf_step_link" sheetId="19" r:id="rId8"/>
-    <sheet name="nop_wf_action" sheetId="6" r:id="rId9"/>
-    <sheet name="nop_wf_output" sheetId="22" r:id="rId10"/>
-    <sheet name="nop_wf_var" sheetId="16" r:id="rId11"/>
-    <sheet name="nop_wf_log" sheetId="18" r:id="rId12"/>
-    <sheet name="nop_wf_work" sheetId="20" r:id="rId13"/>
+    <sheet name="nop_wf_step_actor" sheetId="24" r:id="rId9"/>
+    <sheet name="nop_wf_action" sheetId="6" r:id="rId10"/>
+    <sheet name="nop_wf_output" sheetId="22" r:id="rId11"/>
+    <sheet name="nop_wf_var" sheetId="16" r:id="rId12"/>
+    <sheet name="nop_wf_log" sheetId="18" r:id="rId13"/>
+    <sheet name="nop_wf_work" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="500">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1366,14 +1367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Action ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1414,10 +1407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参与者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>具体负责处理此项工作的人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1646,10 +1635,6 @@
   </si>
   <si>
     <t>kv-table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>many-to-many</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1972,6 +1957,110 @@
   </si>
   <si>
     <t>子流程结果状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>pub,ref-pub,ref-cascade-delete</t>
+  </si>
+  <si>
+    <t>nextLinks</t>
+  </si>
+  <si>
+    <t>prevLinks</t>
+  </si>
+  <si>
+    <t>stepActions</t>
+  </si>
+  <si>
+    <t>outputs</t>
+  </si>
+  <si>
+    <t>globalVars</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>pub,ref-pub</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>Action Name</t>
+  </si>
+  <si>
+    <t>动作名称</t>
+  </si>
+  <si>
+    <t>REMIND_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remind Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remind Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepActors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与者名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSIGN_FOR_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign For User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否分配到用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_wf_step_actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow Step Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流步骤参与者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2840,7 +2929,7 @@
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="3" width="19.58203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="16.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3062,27 +3151,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE455-FF29-43D0-9612-7232A83DF9B7}">
-  <dimension ref="A1:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:L4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="15.08203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="9" max="9" width="4.75" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="6.08203125" customWidth="1"/>
     <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -3092,7 +3182,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>345</v>
+        <v>247</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -3116,7 +3206,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>346</v>
+        <v>249</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -3125,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -3141,19 +3231,17 @@
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
-        <v>392</v>
-      </c>
+      <c r="D3" s="56"/>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="1"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
@@ -3171,9 +3259,9 @@
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
       <c r="K4" s="57"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
@@ -3272,6 +3360,1131 @@
       <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="C8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8">
+        <v>32</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="8">
+        <v>32</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="8">
+        <v>32</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="8">
+        <v>200</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="8">
+        <v>50</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="8">
+        <v>50</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="8">
+        <v>4000</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>10</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="8">
+        <v>50</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>11</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="8">
+        <v>50</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="65"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="50">
+        <v>1</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="D23" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="69"/>
+      <c r="M23" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="62"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="51"/>
+      <c r="B24" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="67"/>
+      <c r="D24" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="69"/>
+      <c r="M24" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="62"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="51"/>
+      <c r="B25" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="62"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="69"/>
+      <c r="M26" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="62"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="51"/>
+      <c r="B27" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="72"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="51"/>
+      <c r="B28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="79"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="69"/>
+      <c r="I28" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="69"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="81"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="51"/>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="75"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="77"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="51"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="77"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="50">
+        <v>2</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="69"/>
+      <c r="M31" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="62"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="69"/>
+      <c r="M32" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="62"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="67"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="69"/>
+      <c r="M33" s="60" t="s">
+        <v>472</v>
+      </c>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="62"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="51"/>
+      <c r="B34" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="72"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="51"/>
+      <c r="B35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="79"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="69"/>
+      <c r="I35" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="69"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="81"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="51"/>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="H36" s="75"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="77"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="51"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="79">
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DE455-FF29-43D0-9612-7232A83DF9B7}">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="35"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="11" t="s">
         <v>149</v>
@@ -3711,8 +4924,262 @@
       <c r="O22" s="38"/>
       <c r="P22" s="35"/>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="65"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="50">
+        <v>1</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="I25" s="38"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="69"/>
+      <c r="M25" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="62"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="38"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="69"/>
+      <c r="M26" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="62"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="51"/>
+      <c r="B27" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="62"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="51"/>
+      <c r="B28" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="69"/>
+      <c r="M28" s="60" t="s">
+        <v>472</v>
+      </c>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="62"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="51"/>
+      <c r="B29" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="72"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="51"/>
+      <c r="B30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="69"/>
+      <c r="I30" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="69"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="81"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="51"/>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="75"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="77"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="50">
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:M1"/>
@@ -3734,21 +5201,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1EA77C-48C6-4C79-A89F-63884D9A79E6}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
     <col min="6" max="6" width="15.08203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="9" max="9" width="4.75" customWidth="1"/>
@@ -4384,8 +5851,262 @@
       <c r="O22" s="38"/>
       <c r="P22" s="35"/>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="65"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="50">
+        <v>1</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="I25" s="38"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="69"/>
+      <c r="M25" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="62"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="38"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="69"/>
+      <c r="M26" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="62"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="51"/>
+      <c r="B27" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="62"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="51"/>
+      <c r="B28" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="69"/>
+      <c r="M28" s="60" t="s">
+        <v>472</v>
+      </c>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="62"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="51"/>
+      <c r="B29" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="72"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="51"/>
+      <c r="B30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="69"/>
+      <c r="I30" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="69"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="81"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="51"/>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="75"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="77"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="50">
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A1:C1"/>
@@ -4407,21 +6128,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF0B1E8-EF9C-4B0E-BEEA-DE0FFCF2D11A}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
     <col min="6" max="6" width="15.08203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="9" max="9" width="4.75" customWidth="1"/>
@@ -4487,7 +6208,9 @@
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="D3" s="56" t="s">
+        <v>480</v>
+      </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
@@ -4684,27 +6407,25 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>185</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I10" s="8"/>
       <c r="J10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K10" s="8">
+        <v>32</v>
+      </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="11" t="s">
-        <v>391</v>
-      </c>
+      <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
       <c r="P10" s="1"/>
@@ -4716,25 +6437,27 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="8">
-        <v>4000</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="11"/>
+      <c r="M11" s="11" t="s">
+        <v>388</v>
+      </c>
       <c r="N11" s="11"/>
       <c r="O11" s="8"/>
       <c r="P11" s="1"/>
@@ -4746,26 +6469,22 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="8">
-        <v>50</v>
+        <v>4000</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="11"/>
@@ -4780,25 +6499,27 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K13" s="8">
+        <v>50</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -4806,16 +6527,30 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="8">
+        <v>7</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="F14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="11"/>
@@ -4823,8 +6558,482 @@
       <c r="O14" s="8"/>
       <c r="P14" s="1"/>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="65"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="50">
+        <v>1</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="69"/>
+      <c r="M19" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="62"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="51"/>
+      <c r="B20" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="69"/>
+      <c r="M20" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="62"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="51"/>
+      <c r="B21" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="62"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="69"/>
+      <c r="M22" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="62"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="72"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="51"/>
+      <c r="B24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="79"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="69"/>
+      <c r="I24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="69"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="81"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="51"/>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="75"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="77"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="51"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="77"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="50">
+        <v>2</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="69"/>
+      <c r="M27" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="62"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="51"/>
+      <c r="B28" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="69"/>
+      <c r="M28" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="62"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="51"/>
+      <c r="B29" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="69"/>
+      <c r="M29" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="62"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="51"/>
+      <c r="B30" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="72"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="51"/>
+      <c r="B31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="79"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="69"/>
+      <c r="I31" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="69"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="81"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="H32" s="75"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="77"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="79">
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="M21:P21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:M1"/>
@@ -4845,21 +7054,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7711274-7647-4015-9FD3-BA5E2CD7FAAA}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
     <col min="6" max="6" width="15.08203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="9" max="9" width="4.75" customWidth="1"/>
@@ -5090,24 +7299,22 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>309</v>
+        <v>149</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>311</v>
+        <v>150</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="8">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="11"/>
@@ -5120,28 +7327,24 @@
         <v>3</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>185</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I10" s="8"/>
       <c r="J10" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K10" s="8">
-        <v>2000</v>
+        <v>32</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="11"/>
@@ -5156,14 +7359,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -5173,7 +7376,7 @@
         <v>28</v>
       </c>
       <c r="K11" s="8">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="11"/>
@@ -5186,29 +7389,31 @@
         <v>5</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" s="11" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2000</v>
+      </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="11" t="s">
-        <v>302</v>
-      </c>
+      <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="8"/>
       <c r="P12" s="1"/>
@@ -5220,22 +7425,24 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K13" s="8">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="11"/>
@@ -5250,25 +7457,27 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="8">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="11"/>
+      <c r="M14" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="N14" s="11"/>
       <c r="O14" s="8"/>
       <c r="P14" s="1"/>
@@ -5280,14 +7489,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -5310,14 +7519,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -5340,21 +7549,23 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
       <c r="J17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K17" s="8">
+        <v>50</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -5368,21 +7579,23 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
       <c r="J18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K18" s="8">
+        <v>50</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -5396,25 +7609,19 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="11" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -5430,27 +7637,21 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="8">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -5464,23 +7665,25 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F21" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -5496,17 +7699,17 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>27</v>
@@ -5530,17 +7733,17 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>27</v>
@@ -5562,26 +7765,26 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>111</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J24" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K24" s="8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="11"/>
@@ -5590,16 +7793,30 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="8">
+        <v>18</v>
+      </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="F25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="11"/>
@@ -5607,8 +7824,518 @@
       <c r="O25" s="8"/>
       <c r="P25" s="1"/>
     </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>19</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="8">
+        <v>200</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="50">
+        <v>1</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="I30" s="38"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="69"/>
+      <c r="M30" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="62"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="51"/>
+      <c r="B31" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" s="69"/>
+      <c r="M31" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="62"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="62"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="67"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="69"/>
+      <c r="M33" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="62"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="51"/>
+      <c r="B34" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="72"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="51"/>
+      <c r="B35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="79"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="69"/>
+      <c r="I35" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="69"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="81"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="51"/>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="75"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="77"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="51"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="77"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="50">
+        <v>2</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="67"/>
+      <c r="D38" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" s="69"/>
+      <c r="M38" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="62"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="51"/>
+      <c r="B39" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="I39" s="38"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L39" s="69"/>
+      <c r="M39" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="62"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="51"/>
+      <c r="B40" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="67"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="69"/>
+      <c r="M40" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="62"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="51"/>
+      <c r="B41" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="72"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="51"/>
+      <c r="B42" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="79"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="69"/>
+      <c r="I42" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="69"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="81"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
+      <c r="C43" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="74"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="75"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="77"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="51"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="79">
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="M32:P32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:M1"/>
@@ -5646,7 +8373,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -5704,7 +8431,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
@@ -5756,7 +8483,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B11" s="33" t="b">
         <v>1</v>
@@ -5805,7 +8532,7 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.9140625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6195,18 +8922,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC07AC33-2EAE-4B58-8A81-8419FBBDDE80}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="4.9140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="8.4140625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6214,41 +8941,41 @@
         <v>1</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="48"/>
       <c r="B2" s="36" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="34" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" s="36" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="34"/>
@@ -6259,7 +8986,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="B4" s="39" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -6270,22 +8997,22 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D5" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>399</v>
-      </c>
       <c r="G5" s="28" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6297,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
@@ -6312,7 +9039,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -6327,7 +9054,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -6356,41 +9083,41 @@
         <v>2</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="34" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="51"/>
       <c r="B12" s="36" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="34" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
       <c r="B13" s="36" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="34"/>
@@ -6401,7 +9128,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
       <c r="B14" s="39" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
@@ -6412,22 +9139,22 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
       <c r="B15" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>399</v>
-      </c>
       <c r="G15" s="28" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -6439,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -6456,10 +9183,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -6473,14 +9200,14 @@
         <v>20</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="32" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -6492,14 +9219,14 @@
         <v>30</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="32" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -6511,14 +9238,14 @@
         <v>40</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="32" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -6530,14 +9257,14 @@
         <v>50</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -6549,14 +9276,14 @@
         <v>60</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="32" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -6568,14 +9295,14 @@
         <v>70</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="32" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -6587,14 +9314,14 @@
         <v>80</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -6606,14 +9333,14 @@
         <v>90</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="32" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -6630,41 +9357,41 @@
         <v>4</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="34" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" s="36" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="34" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" s="36" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="34"/>
@@ -6675,7 +9402,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" s="39" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -6686,22 +9413,22 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D31" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F31" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="E31" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>399</v>
-      </c>
       <c r="G31" s="28" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -6713,10 +9440,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -6730,10 +9457,10 @@
         <v>10</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
@@ -6747,14 +9474,14 @@
         <v>20</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="32" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -6766,10 +9493,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="32"/>
@@ -6783,10 +9510,10 @@
         <v>40</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="32"/>
@@ -6800,10 +9527,10 @@
         <v>50</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="32"/>
@@ -6817,10 +9544,10 @@
         <v>60</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="32"/>
@@ -6834,10 +9561,10 @@
         <v>70</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="32"/>
@@ -6856,41 +9583,41 @@
         <v>5</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="51"/>
       <c r="B42" s="36" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="34" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="51"/>
       <c r="B43" s="36" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="34"/>
@@ -6901,7 +9628,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="51"/>
       <c r="B44" s="39" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
@@ -6912,22 +9639,22 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="51"/>
       <c r="B45" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D45" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F45" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="E45" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>399</v>
-      </c>
       <c r="G45" s="28" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -6939,10 +9666,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
@@ -6956,10 +9683,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
@@ -6973,14 +9700,14 @@
         <v>2</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="29" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -6992,14 +9719,14 @@
         <v>3</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="29" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -7448,7 +10175,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="11"/>
@@ -7482,7 +10209,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="8"/>
@@ -7771,10 +10498,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A42"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8105,35 +10832,29 @@
         <v>5</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>143</v>
+        <v>494</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>144</v>
+        <v>495</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>145</v>
+        <v>496</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="24">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="8" t="s">
-        <v>146</v>
-      </c>
+      <c r="O12" s="8"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -8141,31 +10862,35 @@
         <v>6</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="D13" s="11" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K13" s="24">
+        <v>200</v>
+      </c>
       <c r="L13" s="8"/>
-      <c r="M13" s="11" t="s">
-        <v>343</v>
-      </c>
+      <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="8"/>
+      <c r="O13" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -8175,25 +10900,27 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>373</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>374</v>
+        <v>34</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>375</v>
+        <v>101</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="8">
-        <v>100</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="11"/>
+      <c r="M14" s="11" t="s">
+        <v>340</v>
+      </c>
       <c r="N14" s="11"/>
       <c r="O14" s="8"/>
       <c r="P14" s="1"/>
@@ -8203,25 +10930,25 @@
         <v>8</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>147</v>
-      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>58</v>
+        <v>371</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
       <c r="J15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K15" s="8">
+        <v>100</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -8237,14 +10964,14 @@
         <v>147</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -8263,16 +10990,18 @@
         <v>10</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="D17" s="11" t="s">
-        <v>363</v>
+        <v>59</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>364</v>
+        <v>60</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>365</v>
+        <v>61</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -8293,14 +11022,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>169</v>
+        <v>361</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>170</v>
+        <v>362</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -8321,23 +11050,21 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
       <c r="J19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="8">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -8351,14 +11078,14 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="8"/>
@@ -8381,14 +11108,14 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
@@ -8411,14 +11138,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
@@ -8426,7 +11153,7 @@
         <v>28</v>
       </c>
       <c r="K22" s="8">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="11"/>
@@ -8441,21 +11168,23 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>376</v>
+        <v>203</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
-        <v>377</v>
+        <v>159</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>378</v>
+        <v>160</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
       <c r="J23" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="K23" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K23" s="8">
+        <v>500</v>
+      </c>
       <c r="L23" s="8"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -8469,23 +11198,21 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>204</v>
+        <v>373</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
-        <v>161</v>
+        <v>374</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>162</v>
+        <v>375</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
       <c r="J24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="8">
-        <v>32</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -8499,14 +11226,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>318</v>
+        <v>204</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -8514,7 +11241,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="8">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="11"/>
@@ -8529,14 +11256,14 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>205</v>
+        <v>318</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -8544,7 +11271,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="11"/>
@@ -8559,14 +11286,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -8589,14 +11316,14 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>360</v>
+        <v>208</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
-        <v>361</v>
+        <v>209</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -8619,14 +11346,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>200</v>
+        <v>357</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -8649,14 +11376,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -8679,14 +11406,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>366</v>
+        <v>198</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>367</v>
+        <v>199</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>368</v>
+        <v>156</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -8709,14 +11436,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -8739,14 +11466,14 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -8769,14 +11496,14 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -8799,14 +11526,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -8829,14 +11556,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -8859,27 +11586,23 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="E37" s="8"/>
       <c r="F37" s="11" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K37" s="8">
+        <v>50</v>
+      </c>
       <c r="L37" s="8"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -8893,27 +11616,27 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F38" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="8">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -8927,25 +11650,27 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K39" s="8">
+        <v>50</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -8959,27 +11684,25 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="8">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -8993,25 +11716,27 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K41" s="8">
+        <v>50</v>
+      </c>
       <c r="L41" s="8"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
@@ -9025,27 +11750,25 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>111</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E42" s="8"/>
       <c r="F42" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J42" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="8">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -9053,16 +11776,30 @@
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
+      <c r="A43" s="8">
+        <v>36</v>
+      </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="D43" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>237</v>
+      </c>
       <c r="H43" s="11"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="11"/>
+      <c r="I43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="11"/>
@@ -9071,121 +11808,121 @@
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="34"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="35"/>
+      <c r="A44" s="8">
+        <v>37</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="8">
+        <v>200</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="65"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="50">
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="65"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="50">
         <v>1</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B49" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="34" t="s">
+      <c r="C49" s="67"/>
+      <c r="D49" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="L47" s="69"/>
-      <c r="M47" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="62"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
-      <c r="B48" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="L48" s="69"/>
-      <c r="M48" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="62"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="34"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
-      <c r="G49" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" s="38"/>
+      <c r="G49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="34"/>
       <c r="I49" s="38"/>
       <c r="J49" s="35"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="60"/>
+      <c r="K49" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" s="69"/>
+      <c r="M49" s="60" t="s">
+        <v>142</v>
+      </c>
       <c r="N49" s="61"/>
       <c r="O49" s="61"/>
       <c r="P49" s="62"/>
@@ -9193,22 +11930,28 @@
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="51"/>
       <c r="B50" s="66" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C50" s="67"/>
-      <c r="D50" s="34"/>
+      <c r="D50" s="34" t="s">
+        <v>164</v>
+      </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="G50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="I50" s="38"/>
       <c r="J50" s="35"/>
       <c r="K50" s="68" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="L50" s="69"/>
       <c r="M50" s="60" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="N50" s="61"/>
       <c r="O50" s="61"/>
@@ -9216,134 +11959,180 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="51"/>
-      <c r="B51" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="72"/>
+      <c r="B51" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="67"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="51"/>
-      <c r="B52" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="79"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="69"/>
-      <c r="I52" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="69"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="81"/>
+      <c r="B52" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="67"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="69"/>
+      <c r="M52" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="62"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="51"/>
-      <c r="B53" s="9">
-        <v>1</v>
-      </c>
-      <c r="C53" s="73" t="s">
-        <v>313</v>
-      </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="H53" s="75"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="77"/>
+      <c r="B53" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="72"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="51"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="77"/>
+      <c r="B54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="79"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="69"/>
+      <c r="I54" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="69"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="82"/>
+      <c r="P54" s="81"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="51"/>
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="D55" s="74"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H55" s="75"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="77"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="51"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="C54:E54"/>
     <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="M54:P54"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A49:A56"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:P49"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A44:P44"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -9364,17 +12153,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A45"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="3" max="3" width="8.08203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="4.9140625" customWidth="1"/>
     <col min="6" max="6" width="15.08203125" customWidth="1"/>
@@ -9384,7 +12173,7 @@
     <col min="11" max="11" width="6.08203125" customWidth="1"/>
     <col min="12" max="12" width="7.4140625" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="6.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -9661,7 +12450,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -9725,7 +12514,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -9736,14 +12525,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -9828,14 +12617,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -9856,14 +12645,14 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -9873,7 +12662,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="8"/>
@@ -9886,19 +12675,19 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
       <c r="J18" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -9976,14 +12765,14 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
@@ -10013,7 +12802,7 @@
         <v>217</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>334</v>
+        <v>490</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
@@ -10059,7 +12848,7 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P23" s="1"/>
     </row>
@@ -10100,14 +12889,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -10121,7 +12910,7 @@
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P25" s="1"/>
     </row>
@@ -10132,14 +12921,14 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>333</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -10185,7 +12974,7 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P27" s="1"/>
     </row>
@@ -10288,14 +13077,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -10318,14 +13107,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -10355,7 +13144,7 @@
         <v>58</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -10411,7 +13200,7 @@
         <v>169</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -10460,21 +13249,19 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>235</v>
+        <v>483</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="11" t="s">
-        <v>236</v>
+        <v>484</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>237</v>
+        <v>485</v>
       </c>
       <c r="H37" s="11"/>
-      <c r="I37" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I37" s="8"/>
       <c r="J37" s="11" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -10490,25 +13277,21 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="E38" s="8"/>
       <c r="F38" s="11" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="8"/>
       <c r="J38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="8">
-        <v>100</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -10522,25 +13305,23 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="E39" s="8"/>
       <c r="F39" s="11" t="s">
-        <v>389</v>
+        <v>236</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="H39" s="11"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J39" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="8">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -10554,27 +13335,25 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
-        <v>36</v>
+        <v>465</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>37</v>
+        <v>466</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K40" s="8">
+        <v>100</v>
+      </c>
       <c r="L40" s="8"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -10588,28 +13367,24 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
-        <v>39</v>
+        <v>385</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K41" s="8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="11"/>
@@ -10624,25 +13399,25 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -10658,19 +13433,19 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>27</v>
@@ -10694,19 +13469,19 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>27</v>
@@ -10728,26 +13503,28 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I45" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J45" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K45" s="8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="11"/>
@@ -10756,16 +13533,32 @@
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
+      <c r="A46" s="8">
+        <v>39</v>
+      </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="D46" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="11"/>
@@ -10773,104 +13566,106 @@
       <c r="O46" s="8"/>
       <c r="P46" s="1"/>
     </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>40</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="8">
+        <v>200</v>
+      </c>
+      <c r="L47" s="8"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="1"/>
+    </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="65"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="50">
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="65"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="50">
         <v>1</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B51" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="34" t="s">
+      <c r="C51" s="67"/>
+      <c r="D51" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="L49" s="69"/>
-      <c r="M49" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="62"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
-      <c r="B50" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="I50" s="38"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="L50" s="69"/>
-      <c r="M50" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="62"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="34"/>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
-      <c r="G51" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="38"/>
+      <c r="G51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>471</v>
+      </c>
       <c r="I51" s="38"/>
       <c r="J51" s="35"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="60"/>
+      <c r="K51" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L51" s="69"/>
+      <c r="M51" s="60" t="s">
+        <v>142</v>
+      </c>
       <c r="N51" s="61"/>
       <c r="O51" s="61"/>
       <c r="P51" s="62"/>
@@ -10878,22 +13673,28 @@
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="51"/>
       <c r="B52" s="66" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C52" s="67"/>
-      <c r="D52" s="34"/>
+      <c r="D52" s="34" t="s">
+        <v>188</v>
+      </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="G52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>141</v>
+      </c>
       <c r="I52" s="38"/>
       <c r="J52" s="35"/>
       <c r="K52" s="68" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="L52" s="69"/>
       <c r="M52" s="60" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="N52" s="61"/>
       <c r="O52" s="61"/>
@@ -10901,172 +13702,166 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="51"/>
-      <c r="B53" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="72"/>
+      <c r="B53" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="67"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="62"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="51"/>
-      <c r="B54" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="69"/>
-      <c r="I54" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="69"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="81"/>
+      <c r="B54" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="67"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="69"/>
+      <c r="M54" s="60" t="s">
+        <v>472</v>
+      </c>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="62"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="51"/>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-      <c r="C55" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="H55" s="75"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="77"/>
+      <c r="B55" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="72"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="51"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="77"/>
+      <c r="B56" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="79"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="69"/>
+      <c r="I56" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="69"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="81"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="50">
-        <v>2</v>
-      </c>
-      <c r="B57" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="L57" s="69"/>
-      <c r="M57" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="62"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="9">
+        <v>1</v>
+      </c>
+      <c r="C57" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="74"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H57" s="75"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="77"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="51"/>
-      <c r="B58" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="I58" s="38"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="L58" s="69"/>
-      <c r="M58" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
-      <c r="P58" s="62"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="78"/>
+      <c r="O58" s="78"/>
+      <c r="P58" s="77"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
+      <c r="A59" s="50">
+        <v>2</v>
+      </c>
       <c r="B59" s="66" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="C59" s="67"/>
-      <c r="D59" s="34"/>
+      <c r="D59" s="34" t="s">
+        <v>244</v>
+      </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
-      <c r="G59" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H59" s="38"/>
+      <c r="G59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="34"/>
       <c r="I59" s="38"/>
       <c r="J59" s="35"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="60"/>
+      <c r="K59" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L59" s="69"/>
+      <c r="M59" s="60" t="s">
+        <v>142</v>
+      </c>
       <c r="N59" s="61"/>
       <c r="O59" s="61"/>
       <c r="P59" s="62"/>
@@ -11074,22 +13869,28 @@
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="51"/>
       <c r="B60" s="66" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C60" s="67"/>
-      <c r="D60" s="34"/>
+      <c r="D60" s="34" t="s">
+        <v>390</v>
+      </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
+      <c r="G60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>245</v>
+      </c>
       <c r="I60" s="38"/>
       <c r="J60" s="35"/>
       <c r="K60" s="68" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="L60" s="69"/>
       <c r="M60" s="60" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="N60" s="61"/>
       <c r="O60" s="61"/>
@@ -11097,95 +13898,141 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="51"/>
-      <c r="B61" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="72"/>
+      <c r="B61" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="67"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="62"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="51"/>
-      <c r="B62" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="69"/>
-      <c r="I62" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="69"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="81"/>
-      <c r="M62" s="80"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="82"/>
-      <c r="P62" s="81"/>
+      <c r="B62" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="67"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62" s="69"/>
+      <c r="M62" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="62"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="51"/>
-      <c r="B63" s="9">
-        <v>1</v>
-      </c>
-      <c r="C63" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="D63" s="74"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="H63" s="75"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="77"/>
+      <c r="B63" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="72"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="51"/>
-      <c r="B64" s="73"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="77"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="78"/>
-      <c r="O64" s="78"/>
-      <c r="P64" s="77"/>
-    </row>
-    <row r="65" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B64" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="79"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="69"/>
+      <c r="I64" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="69"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="82"/>
+      <c r="P64" s="81"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="51"/>
+      <c r="B65" s="9">
+        <v>1</v>
+      </c>
+      <c r="C65" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="74"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H65" s="75"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="77"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="51"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="76"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="77"/>
+    </row>
+    <row r="67" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
     <mergeCell ref="A6:P6"/>
@@ -11201,77 +14048,77 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="A50:P50"/>
+    <mergeCell ref="A51:A58"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:F51"/>
     <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:P51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="M53:P53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="M54:P54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="B55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:P55"/>
-    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="C56:E56"/>
     <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M56:P56"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="A59:A66"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="H59:J59"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="B63:J63"/>
     <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="K65:L65"/>
     <mergeCell ref="M59:P59"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="H60:J60"/>
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="M60:P60"/>
     <mergeCell ref="M61:P61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:P62"/>
     <mergeCell ref="M63:P63"/>
-    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="C64:E64"/>
     <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="M64:P64"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:P66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11283,14 +14130,14 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A13"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="3" max="3" width="8.08203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="4.9140625" customWidth="1"/>
     <col min="6" max="6" width="15.08203125" customWidth="1"/>
@@ -11300,7 +14147,7 @@
     <col min="11" max="11" width="6.08203125" customWidth="1"/>
     <col min="12" max="12" width="7.4140625" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="6.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -11359,9 +14206,7 @@
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
-        <v>393</v>
-      </c>
+      <c r="D3" s="56"/>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
       <c r="G3" s="57"/>
@@ -11560,14 +14405,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -11935,7 +14780,9 @@
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="34" t="s">
+        <v>473</v>
+      </c>
       <c r="I25" s="38"/>
       <c r="J25" s="35"/>
       <c r="K25" s="68" t="s">
@@ -12019,7 +14866,7 @@
       </c>
       <c r="L28" s="69"/>
       <c r="M28" s="60" t="s">
-        <v>108</v>
+        <v>472</v>
       </c>
       <c r="N28" s="61"/>
       <c r="O28" s="61"/>
@@ -12124,14 +14971,16 @@
       </c>
       <c r="C33" s="67"/>
       <c r="D33" s="34" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="34"/>
+      <c r="H33" s="34" t="s">
+        <v>474</v>
+      </c>
       <c r="I33" s="38"/>
       <c r="J33" s="35"/>
       <c r="K33" s="68" t="s">
@@ -12160,7 +15009,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="35"/>
@@ -12215,7 +15064,7 @@
       </c>
       <c r="L36" s="69"/>
       <c r="M36" s="60" t="s">
-        <v>108</v>
+        <v>472</v>
       </c>
       <c r="N36" s="61"/>
       <c r="O36" s="61"/>
@@ -12275,7 +15124,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="73" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D39" s="74"/>
       <c r="E39" s="75"/>
@@ -12439,17 +15288,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9882ACFC-88D4-45D6-8852-3F631F539ABA}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.9140625" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
@@ -12470,7 +15319,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>247</v>
+        <v>497</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -12494,7 +15343,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>249</v>
+        <v>499</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -12503,7 +15352,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>248</v>
+        <v>498</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -12750,26 +15599,22 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="11"/>
+        <v>219</v>
+      </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K11" s="8">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="11"/>
@@ -12777,53 +15622,53 @@
       <c r="O11" s="8"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>5</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>147</v>
-      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" s="11"/>
+        <v>214</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F12" s="11" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K12" s="8">
+        <v>100</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="8"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>6</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>224</v>
+        <v>325</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -12846,14 +15691,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>233</v>
+        <v>490</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -12861,7 +15706,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="11"/>
@@ -12876,23 +15721,23 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>255</v>
+        <v>491</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>257</v>
+        <v>493</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="8">
-        <v>4000</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -13315,7 +16160,9 @@
       <c r="G31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="34"/>
+      <c r="H31" s="34" t="s">
+        <v>489</v>
+      </c>
       <c r="I31" s="38"/>
       <c r="J31" s="35"/>
       <c r="K31" s="68" t="s">
@@ -13377,7 +16224,7 @@
       </c>
       <c r="L33" s="69"/>
       <c r="M33" s="60" t="s">
-        <v>108</v>
+        <v>472</v>
       </c>
       <c r="N33" s="61"/>
       <c r="O33" s="61"/>
@@ -13475,26 +16322,7 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:M1"/>
@@ -13503,57 +16331,76 @@
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
     <mergeCell ref="B34:J34"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
     <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4651B5F-E007-47C8-BF61-3EABA4C7FD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F88D529-855C-4D47-A767-635D3D5C07D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="3" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="557">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2263,6 +2263,34 @@
   </si>
   <si>
     <t>上次操作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub,ref-pub,ref-cascade-delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusHistories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺签等场景下需要区分统一stepName对应的步骤的执行顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12443,7 +12471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -14129,7 +14157,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H25" sqref="H25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14785,7 +14813,9 @@
       <c r="G24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="36" t="s">
+        <v>551</v>
+      </c>
       <c r="I24" s="38"/>
       <c r="J24" s="37"/>
       <c r="K24" s="72" t="s">
@@ -14869,7 +14899,7 @@
       </c>
       <c r="L27" s="74"/>
       <c r="M27" s="60" t="s">
-        <v>108</v>
+        <v>550</v>
       </c>
       <c r="N27" s="61"/>
       <c r="O27" s="61"/>
@@ -15025,10 +15055,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59:L59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16239,29 +16269,29 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="E41" s="8"/>
       <c r="F41" s="11" t="s">
-        <v>459</v>
+        <v>553</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="8"/>
+      <c r="I41" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J41" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="8">
-        <v>100</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
-      <c r="O41" s="8"/>
+      <c r="O41" s="8" t="s">
+        <v>556</v>
+      </c>
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -16271,16 +16301,16 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>9</v>
+        <v>460</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="8"/>
@@ -16288,7 +16318,7 @@
         <v>28</v>
       </c>
       <c r="K42" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="11"/>
@@ -16303,27 +16333,25 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>37</v>
+        <v>379</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K43" s="8">
+        <v>200</v>
+      </c>
       <c r="L43" s="8"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -16337,29 +16365,27 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="8">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -16373,27 +16399,29 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K45" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K45" s="8">
+        <v>50</v>
+      </c>
       <c r="L45" s="8"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -16407,29 +16435,27 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="8">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -16443,27 +16469,29 @@
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K47" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K47" s="8">
+        <v>50</v>
+      </c>
       <c r="L47" s="8"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
@@ -16477,27 +16505,27 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="8">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -16505,100 +16533,104 @@
       <c r="P48" s="1"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
+      <c r="A49" s="8">
+        <v>42</v>
+      </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="D49" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="J49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="8">
+        <v>200</v>
+      </c>
       <c r="L49" s="8"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="8"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="80" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="82"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="39">
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="82"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="39">
         <v>1</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="B53" s="78" t="s">
         <v>14</v>
-      </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="I52" s="38"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="L52" s="74"/>
-      <c r="M52" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="62"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="78" t="s">
-        <v>4</v>
       </c>
       <c r="C53" s="79"/>
       <c r="D53" s="36" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="2" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>141</v>
+        <v>464</v>
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="37"/>
       <c r="K53" s="72" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L53" s="74"/>
       <c r="M53" s="60" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N53" s="61"/>
       <c r="O53" s="61"/>
@@ -16607,21 +16639,29 @@
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="78" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C54" s="79"/>
-      <c r="D54" s="36"/>
+      <c r="D54" s="36" t="s">
+        <v>187</v>
+      </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
-      <c r="G54" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="38"/>
+      <c r="G54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>141</v>
+      </c>
       <c r="I54" s="38"/>
       <c r="J54" s="37"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="60"/>
+      <c r="K54" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="L54" s="74"/>
+      <c r="M54" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="N54" s="61"/>
       <c r="O54" s="61"/>
       <c r="P54" s="62"/>
@@ -16629,107 +16669,111 @@
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="78" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C55" s="79"/>
       <c r="D55" s="36"/>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
+      <c r="G55" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
       <c r="J55" s="37"/>
-      <c r="K55" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55" s="74"/>
-      <c r="M55" s="60" t="s">
-        <v>465</v>
-      </c>
+      <c r="K55" s="19"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="60"/>
       <c r="N55" s="61"/>
       <c r="O55" s="61"/>
       <c r="P55" s="62"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
-      <c r="B56" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="65"/>
+      <c r="B56" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="79"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="74"/>
+      <c r="M56" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="62"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
-      <c r="B57" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="73"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="74"/>
-      <c r="I57" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="74"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="76"/>
+      <c r="B57" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="65"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
-      <c r="B58" s="9">
-        <v>1</v>
-      </c>
-      <c r="C58" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="H58" s="68"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="70"/>
+      <c r="B58" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="73"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="74"/>
+      <c r="I58" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="74"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="75"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="77"/>
+      <c r="P58" s="76"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="67"/>
+      <c r="B59" s="9">
+        <v>1</v>
+      </c>
+      <c r="C59" s="66" t="s">
+        <v>188</v>
+      </c>
       <c r="D59" s="67"/>
       <c r="E59" s="68"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="66"/>
+      <c r="G59" s="66" t="s">
+        <v>188</v>
+      </c>
       <c r="H59" s="68"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
@@ -16741,60 +16785,48 @@
       <c r="P59" s="70"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="39">
+      <c r="A60" s="40"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="70"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="39">
         <v>2</v>
       </c>
-      <c r="B60" s="78" t="s">
+      <c r="B61" s="78" t="s">
         <v>14</v>
-      </c>
-      <c r="C60" s="79"/>
-      <c r="D60" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="L60" s="74"/>
-      <c r="M60" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="62"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="78" t="s">
-        <v>4</v>
       </c>
       <c r="C61" s="79"/>
       <c r="D61" s="36" t="s">
-        <v>383</v>
+        <v>243</v>
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
       <c r="G61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="36" t="s">
-        <v>244</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H61" s="36"/>
       <c r="I61" s="38"/>
       <c r="J61" s="37"/>
       <c r="K61" s="72" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L61" s="74"/>
       <c r="M61" s="60" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N61" s="61"/>
       <c r="O61" s="61"/>
@@ -16803,21 +16835,29 @@
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="78" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C62" s="79"/>
-      <c r="D62" s="36"/>
+      <c r="D62" s="36" t="s">
+        <v>383</v>
+      </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38"/>
-      <c r="G62" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H62" s="38"/>
+      <c r="G62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="36" t="s">
+        <v>244</v>
+      </c>
       <c r="I62" s="38"/>
       <c r="J62" s="37"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="60"/>
+      <c r="K62" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="L62" s="74"/>
+      <c r="M62" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="N62" s="61"/>
       <c r="O62" s="61"/>
       <c r="P62" s="62"/>
@@ -16825,107 +16865,111 @@
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="78" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C63" s="79"/>
       <c r="D63" s="36"/>
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
+      <c r="G63" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
       <c r="J63" s="37"/>
-      <c r="K63" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="L63" s="74"/>
-      <c r="M63" s="60" t="s">
-        <v>108</v>
-      </c>
+      <c r="K63" s="19"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="60"/>
       <c r="N63" s="61"/>
       <c r="O63" s="61"/>
       <c r="P63" s="62"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
-      <c r="B64" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="64"/>
-      <c r="P64" s="65"/>
+      <c r="B64" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="79"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" s="74"/>
+      <c r="M64" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="62"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
-      <c r="B65" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="74"/>
-      <c r="I65" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="74"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="76"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="77"/>
-      <c r="O65" s="77"/>
-      <c r="P65" s="76"/>
+      <c r="B65" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="65"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
-      <c r="B66" s="9">
-        <v>1</v>
-      </c>
-      <c r="C66" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="D66" s="67"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="H66" s="68"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="71"/>
-      <c r="P66" s="70"/>
+      <c r="B66" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="73"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="74"/>
+      <c r="I66" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="74"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="76"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="77"/>
+      <c r="O66" s="77"/>
+      <c r="P66" s="76"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="67"/>
+      <c r="B67" s="9">
+        <v>1</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>245</v>
+      </c>
       <c r="D67" s="67"/>
       <c r="E67" s="68"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="66"/>
+      <c r="G67" s="66" t="s">
+        <v>188</v>
+      </c>
       <c r="H67" s="68"/>
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
@@ -16936,71 +16980,84 @@
       <c r="O67" s="71"/>
       <c r="P67" s="70"/>
     </row>
-    <row r="68" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="40"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="70"/>
+    </row>
+    <row r="69" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
     <mergeCell ref="M66:P66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="K64:L64"/>
     <mergeCell ref="M64:P64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:P62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="A61:A68"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:F61"/>
     <mergeCell ref="H61:J61"/>
     <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="B64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="C59:E59"/>
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="M59:P59"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="B57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:P57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="A51:P51"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:A60"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:F53"/>
     <mergeCell ref="H53:J53"/>
@@ -17009,7 +17066,12 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:L54"/>
     <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:P55"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F88D529-855C-4D47-A767-635D3D5C07D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB7AC5F-81CC-4C0D-A87C-BD9F6333377A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="557">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -15055,10 +15055,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A49"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16269,29 +16269,25 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="11" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I41" s="8"/>
       <c r="J41" s="11" t="s">
-        <v>555</v>
+        <v>29</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
-      <c r="O41" s="8" t="s">
-        <v>556</v>
-      </c>
+      <c r="O41" s="8"/>
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -16301,29 +16297,29 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="E42" s="8"/>
       <c r="F42" s="11" t="s">
-        <v>459</v>
+        <v>553</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="H42" s="11"/>
-      <c r="I42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J42" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="8">
-        <v>100</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
-      <c r="O42" s="8"/>
+      <c r="O42" s="8" t="s">
+        <v>556</v>
+      </c>
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -16333,16 +16329,16 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>9</v>
+        <v>460</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="8"/>
@@ -16350,7 +16346,7 @@
         <v>28</v>
       </c>
       <c r="K43" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="11"/>
@@ -16365,27 +16361,25 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>37</v>
+        <v>379</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K44" s="8">
+        <v>200</v>
+      </c>
       <c r="L44" s="8"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -16399,29 +16393,27 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="8">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -16435,27 +16427,29 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K46" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K46" s="8">
+        <v>50</v>
+      </c>
       <c r="L46" s="8"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -16469,29 +16463,27 @@
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="8">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
@@ -16505,27 +16497,29 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K48" s="8">
+        <v>50</v>
+      </c>
       <c r="L48" s="8"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -16539,27 +16533,27 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J49" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="8">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
@@ -16567,100 +16561,104 @@
       <c r="P49" s="1"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
+      <c r="A50" s="8">
+        <v>43</v>
+      </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="D50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="J50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="8">
+        <v>200</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
       <c r="O50" s="8"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="80" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="82"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="39">
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="81"/>
+      <c r="P53" s="82"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="39">
         <v>1</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B54" s="78" t="s">
         <v>14</v>
-      </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="I53" s="38"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="L53" s="74"/>
-      <c r="M53" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="62"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="78" t="s">
-        <v>4</v>
       </c>
       <c r="C54" s="79"/>
       <c r="D54" s="36" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
       <c r="G54" s="2" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>141</v>
+        <v>464</v>
       </c>
       <c r="I54" s="38"/>
       <c r="J54" s="37"/>
       <c r="K54" s="72" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L54" s="74"/>
       <c r="M54" s="60" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N54" s="61"/>
       <c r="O54" s="61"/>
@@ -16669,21 +16667,29 @@
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="78" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C55" s="79"/>
-      <c r="D55" s="36"/>
+      <c r="D55" s="36" t="s">
+        <v>187</v>
+      </c>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
-      <c r="G55" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H55" s="38"/>
+      <c r="G55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>141</v>
+      </c>
       <c r="I55" s="38"/>
       <c r="J55" s="37"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="60"/>
+      <c r="K55" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="L55" s="74"/>
+      <c r="M55" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="N55" s="61"/>
       <c r="O55" s="61"/>
       <c r="P55" s="62"/>
@@ -16691,107 +16697,111 @@
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="78" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C56" s="79"/>
       <c r="D56" s="36"/>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
+      <c r="G56" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
       <c r="J56" s="37"/>
-      <c r="K56" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="L56" s="74"/>
-      <c r="M56" s="60" t="s">
-        <v>465</v>
-      </c>
+      <c r="K56" s="19"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="60"/>
       <c r="N56" s="61"/>
       <c r="O56" s="61"/>
       <c r="P56" s="62"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
-      <c r="B57" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="65"/>
+      <c r="B57" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="79"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57" s="74"/>
+      <c r="M57" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="62"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
-      <c r="B58" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="73"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="74"/>
-      <c r="I58" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" s="74"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="76"/>
+      <c r="B58" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="65"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
-      <c r="B59" s="9">
-        <v>1</v>
-      </c>
-      <c r="C59" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D59" s="67"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="H59" s="68"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="70"/>
+      <c r="B59" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="73"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="74"/>
+      <c r="I59" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="74"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="75"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="76"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="67"/>
+      <c r="B60" s="9">
+        <v>1</v>
+      </c>
+      <c r="C60" s="66" t="s">
+        <v>188</v>
+      </c>
       <c r="D60" s="67"/>
       <c r="E60" s="68"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="66"/>
+      <c r="G60" s="66" t="s">
+        <v>188</v>
+      </c>
       <c r="H60" s="68"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
@@ -16803,60 +16813,48 @@
       <c r="P60" s="70"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="39">
+      <c r="A61" s="40"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="70"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="39">
         <v>2</v>
       </c>
-      <c r="B61" s="78" t="s">
+      <c r="B62" s="78" t="s">
         <v>14</v>
-      </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="L61" s="74"/>
-      <c r="M61" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="62"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
-      <c r="B62" s="78" t="s">
-        <v>4</v>
       </c>
       <c r="C62" s="79"/>
       <c r="D62" s="36" t="s">
-        <v>383</v>
+        <v>243</v>
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38"/>
       <c r="G62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="36" t="s">
-        <v>244</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H62" s="36"/>
       <c r="I62" s="38"/>
       <c r="J62" s="37"/>
       <c r="K62" s="72" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L62" s="74"/>
       <c r="M62" s="60" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N62" s="61"/>
       <c r="O62" s="61"/>
@@ -16865,21 +16863,29 @@
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="78" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C63" s="79"/>
-      <c r="D63" s="36"/>
+      <c r="D63" s="36" t="s">
+        <v>383</v>
+      </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
-      <c r="G63" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H63" s="38"/>
+      <c r="G63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="36" t="s">
+        <v>244</v>
+      </c>
       <c r="I63" s="38"/>
       <c r="J63" s="37"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="60"/>
+      <c r="K63" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="L63" s="74"/>
+      <c r="M63" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="N63" s="61"/>
       <c r="O63" s="61"/>
       <c r="P63" s="62"/>
@@ -16887,107 +16893,111 @@
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="78" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C64" s="79"/>
       <c r="D64" s="36"/>
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
+      <c r="G64" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
       <c r="J64" s="37"/>
-      <c r="K64" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="L64" s="74"/>
-      <c r="M64" s="60" t="s">
-        <v>108</v>
-      </c>
+      <c r="K64" s="19"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="60"/>
       <c r="N64" s="61"/>
       <c r="O64" s="61"/>
       <c r="P64" s="62"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
-      <c r="B65" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="64"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="65"/>
+      <c r="B65" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="79"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="74"/>
+      <c r="M65" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="62"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
-      <c r="B66" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="73"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="74"/>
-      <c r="I66" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" s="74"/>
-      <c r="K66" s="75"/>
-      <c r="L66" s="76"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="77"/>
-      <c r="O66" s="77"/>
-      <c r="P66" s="76"/>
+      <c r="B66" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="65"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
+      <c r="P66" s="65"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
-      <c r="B67" s="9">
-        <v>1</v>
-      </c>
-      <c r="C67" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="D67" s="67"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="H67" s="68"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="70"/>
-      <c r="M67" s="69"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
-      <c r="P67" s="70"/>
+      <c r="B67" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="73"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="74"/>
+      <c r="I67" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="74"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="76"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="77"/>
+      <c r="O67" s="77"/>
+      <c r="P67" s="76"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="67"/>
+      <c r="B68" s="9">
+        <v>1</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>245</v>
+      </c>
       <c r="D68" s="67"/>
       <c r="E68" s="68"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="66"/>
+      <c r="G68" s="66" t="s">
+        <v>188</v>
+      </c>
       <c r="H68" s="68"/>
       <c r="I68" s="3"/>
       <c r="J68" s="4"/>
@@ -16998,71 +17008,84 @@
       <c r="O68" s="71"/>
       <c r="P68" s="70"/>
     </row>
-    <row r="69" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="40"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="70"/>
+    </row>
+    <row r="70" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
     <mergeCell ref="M67:P67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="K65:L65"/>
     <mergeCell ref="M65:P65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
     <mergeCell ref="M63:P63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="A62:A69"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:F62"/>
     <mergeCell ref="H62:J62"/>
     <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C60:E60"/>
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="M60:P60"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="B58:J58"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A54:A61"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="H54:J54"/>
@@ -17071,7 +17094,12 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:F55"/>
     <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:P55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="M56:P56"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB7AC5F-81CC-4C0D-A87C-BD9F6333377A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408B98BF-1993-4409-A28B-1CD4C8FACE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="13" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="565">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1361,10 +1361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kvTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2291,6 +2287,42 @@
   </si>
   <si>
     <t>顺签等场景下需要区分统一stepName对应的步骤的执行顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NopWfAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2681,28 +2713,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2738,6 +2761,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2768,6 +2800,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2795,13 +2848,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2811,21 +2858,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3384,7 +3416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9882ACFC-88D4-45D6-8852-3F631F539ABA}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -3412,7 +3444,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -3420,11 +3452,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3436,7 +3468,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -3445,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -3496,7 +3528,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -3511,7 +3543,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -3754,14 +3786,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>324</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -3791,7 +3823,7 @@
         <v>216</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -3814,14 +3846,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>519</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>520</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -3842,21 +3874,21 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>485</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>486</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -4050,34 +4082,34 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="82"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="65"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="39">
+      <c r="A24" s="50">
         <v>1</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="36" t="s">
+      <c r="C24" s="67"/>
+      <c r="D24" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E24" s="38"/>
@@ -4085,13 +4117,13 @@
       <c r="G24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="72" t="s">
+      <c r="J24" s="35"/>
+      <c r="K24" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="74"/>
+      <c r="L24" s="69"/>
       <c r="M24" s="60" t="s">
         <v>142</v>
       </c>
@@ -4100,12 +4132,12 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="34" t="s">
         <v>187</v>
       </c>
       <c r="E25" s="38"/>
@@ -4113,15 +4145,15 @@
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="72" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="60" t="s">
         <v>73</v>
       </c>
@@ -4130,12 +4162,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="36"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="21" t="s">
@@ -4143,7 +4175,7 @@
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
       <c r="M26" s="60"/>
@@ -4152,22 +4184,22 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="72" t="s">
+      <c r="J27" s="35"/>
+      <c r="K27" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="74"/>
+      <c r="L27" s="69"/>
       <c r="M27" s="60" t="s">
         <v>108</v>
       </c>
@@ -4176,103 +4208,103 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="63" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="65"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="72"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72" t="s">
+      <c r="H29" s="69"/>
+      <c r="I29" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="76"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="81"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="9">
         <v>1</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="68"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="70"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="77"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="68"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="39">
+      <c r="A32" s="50">
         <v>2</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="83" t="s">
         <v>250</v>
       </c>
@@ -4281,15 +4313,15 @@
       <c r="G32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="36" t="s">
-        <v>482</v>
+      <c r="H32" s="34" t="s">
+        <v>481</v>
       </c>
       <c r="I32" s="38"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="72" t="s">
+      <c r="J32" s="35"/>
+      <c r="K32" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L32" s="74"/>
+      <c r="L32" s="69"/>
       <c r="M32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4298,11 +4330,11 @@
       <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="78" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="83" t="s">
         <v>178</v>
       </c>
@@ -4311,15 +4343,15 @@
       <c r="G33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="34" t="s">
         <v>177</v>
       </c>
       <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="72" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L33" s="74"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="60" t="s">
         <v>73</v>
       </c>
@@ -4328,114 +4360,114 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="78" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="36"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="72" t="s">
+      <c r="J34" s="35"/>
+      <c r="K34" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="74"/>
+      <c r="L34" s="69"/>
       <c r="M34" s="60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N34" s="61"/>
       <c r="O34" s="61"/>
       <c r="P34" s="62"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="63" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="65"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="72"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="74"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="72" t="s">
+      <c r="G36" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="74"/>
-      <c r="I36" s="72" t="s">
+      <c r="H36" s="69"/>
+      <c r="I36" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="74"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="76"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="81"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="9">
         <v>1</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="66" t="s">
+      <c r="G37" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="H37" s="68"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="70"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="77"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="68"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="70"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="77"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -4443,25 +4475,50 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="B32:C32"/>
@@ -4478,50 +4535,25 @@
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K38:L38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4560,7 +4592,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -4568,11 +4600,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4584,7 +4616,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -4593,7 +4625,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -4644,7 +4676,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -4659,7 +4691,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -4776,14 +4808,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>522</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>523</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -4808,14 +4840,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>525</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>526</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -4840,14 +4872,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>528</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>529</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -5048,33 +5080,27 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="82"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="A3:C3"/>
@@ -5083,6 +5109,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5093,7 +5125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -5129,11 +5161,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -5205,7 +5237,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -5220,7 +5252,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -5405,10 +5437,10 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>474</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>475</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>293</v>
@@ -5439,10 +5471,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -5767,34 +5799,34 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="82"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="65"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="39">
+      <c r="A24" s="50">
         <v>1</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="36" t="s">
+      <c r="C24" s="67"/>
+      <c r="D24" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E24" s="38"/>
@@ -5802,13 +5834,13 @@
       <c r="G24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="72" t="s">
+      <c r="J24" s="35"/>
+      <c r="K24" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="74"/>
+      <c r="L24" s="69"/>
       <c r="M24" s="60" t="s">
         <v>142</v>
       </c>
@@ -5817,12 +5849,12 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="34" t="s">
         <v>187</v>
       </c>
       <c r="E25" s="38"/>
@@ -5830,15 +5862,15 @@
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="72" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="60" t="s">
         <v>73</v>
       </c>
@@ -5847,12 +5879,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="36"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="21" t="s">
@@ -5860,7 +5892,7 @@
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
       <c r="M26" s="60"/>
@@ -5869,22 +5901,22 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="72" t="s">
+      <c r="J27" s="35"/>
+      <c r="K27" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="74"/>
+      <c r="L27" s="69"/>
       <c r="M27" s="60" t="s">
         <v>108</v>
       </c>
@@ -5893,103 +5925,103 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="63" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="65"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="72"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72" t="s">
+      <c r="H29" s="69"/>
+      <c r="I29" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="76"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="81"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="9">
         <v>1</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="68"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="70"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="77"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="68"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="39">
+      <c r="A32" s="50">
         <v>2</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="83" t="s">
         <v>250</v>
       </c>
@@ -5998,15 +6030,15 @@
       <c r="G32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="36" t="s">
-        <v>468</v>
+      <c r="H32" s="34" t="s">
+        <v>467</v>
       </c>
       <c r="I32" s="38"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="72" t="s">
+      <c r="J32" s="35"/>
+      <c r="K32" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L32" s="74"/>
+      <c r="L32" s="69"/>
       <c r="M32" s="60" t="s">
         <v>191</v>
       </c>
@@ -6015,11 +6047,11 @@
       <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="78" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="83" t="s">
         <v>178</v>
       </c>
@@ -6028,15 +6060,15 @@
       <c r="G33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="34" t="s">
         <v>177</v>
       </c>
       <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="72" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L33" s="74"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="60" t="s">
         <v>73</v>
       </c>
@@ -6045,114 +6077,114 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="78" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="36"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="72" t="s">
+      <c r="J34" s="35"/>
+      <c r="K34" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="74"/>
+      <c r="L34" s="69"/>
       <c r="M34" s="60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N34" s="61"/>
       <c r="O34" s="61"/>
       <c r="P34" s="62"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="63" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="65"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="72"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="74"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="72" t="s">
+      <c r="G36" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="74"/>
-      <c r="I36" s="72" t="s">
+      <c r="H36" s="69"/>
+      <c r="I36" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="74"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="76"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="81"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="9">
         <v>1</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="66" t="s">
+      <c r="G37" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="H37" s="68"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="70"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="77"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="68"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="70"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="77"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -6160,24 +6192,51 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
     <mergeCell ref="M36:P36"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A32:A38"/>
@@ -6194,51 +6253,24 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="M25:P25"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6276,7 +6308,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -6284,11 +6316,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -6300,7 +6332,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -6309,7 +6341,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -6326,17 +6358,17 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -6362,7 +6394,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -6377,7 +6409,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -6878,7 +6910,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -6893,37 +6925,37 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="37"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="82"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="65"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="39">
+      <c r="A25" s="50">
         <v>1</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="38"/>
@@ -6931,15 +6963,15 @@
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="36" t="s">
-        <v>469</v>
+      <c r="H25" s="34" t="s">
+        <v>468</v>
       </c>
       <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="72" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="60" t="s">
         <v>142</v>
       </c>
@@ -6948,12 +6980,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="34" t="s">
         <v>187</v>
       </c>
       <c r="E26" s="38"/>
@@ -6961,15 +6993,15 @@
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="72" t="s">
+      <c r="J26" s="35"/>
+      <c r="K26" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="74"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="60" t="s">
         <v>73</v>
       </c>
@@ -6978,12 +7010,12 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="21" t="s">
@@ -6991,7 +7023,7 @@
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="60"/>
@@ -7000,135 +7032,141 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="78" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="36"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="72" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="74"/>
+      <c r="L28" s="69"/>
       <c r="M28" s="60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N28" s="61"/>
       <c r="O28" s="61"/>
       <c r="P28" s="62"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="65"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="72"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72" t="s">
+      <c r="H30" s="69"/>
+      <c r="I30" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="76"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="81"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H31" s="68"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="68"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="70"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
@@ -7145,26 +7183,20 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7176,8 +7208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1EA77C-48C6-4C79-A89F-63884D9A79E6}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7211,11 +7243,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -7253,17 +7285,17 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -7289,7 +7321,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -7304,7 +7336,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -7805,7 +7837,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -7820,37 +7852,37 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="37"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="82"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="65"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="39">
+      <c r="A25" s="50">
         <v>1</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="38"/>
@@ -7858,15 +7890,15 @@
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="36" t="s">
-        <v>470</v>
+      <c r="H25" s="34" t="s">
+        <v>469</v>
       </c>
       <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="72" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="60" t="s">
         <v>142</v>
       </c>
@@ -7875,12 +7907,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="34" t="s">
         <v>187</v>
       </c>
       <c r="E26" s="38"/>
@@ -7888,15 +7920,15 @@
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="72" t="s">
+      <c r="J26" s="35"/>
+      <c r="K26" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="74"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="60" t="s">
         <v>73</v>
       </c>
@@ -7905,12 +7937,12 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="21" t="s">
@@ -7918,7 +7950,7 @@
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="60"/>
@@ -7927,135 +7959,141 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="78" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="36"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="72" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="74"/>
+      <c r="L28" s="69"/>
       <c r="M28" s="60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N28" s="61"/>
       <c r="O28" s="61"/>
       <c r="P28" s="62"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="65"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="72"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72" t="s">
+      <c r="H30" s="69"/>
+      <c r="I30" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="76"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="81"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H31" s="68"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="68"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="70"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
@@ -8072,26 +8110,20 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8101,10 +8133,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF0B1E8-EF9C-4B0E-BEEA-DE0FFCF2D11A}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8138,11 +8170,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -8180,17 +8212,17 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -8216,7 +8248,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -8231,7 +8263,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -8408,27 +8440,25 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" s="8"/>
+        <v>559</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>288</v>
+        <v>560</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>289</v>
+        <v>561</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I11" s="8"/>
       <c r="J11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K11" s="8">
+        <v>32</v>
+      </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="11" t="s">
-        <v>381</v>
-      </c>
+      <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="8"/>
       <c r="P11" s="1"/>
@@ -8440,25 +8470,27 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="8">
-        <v>4000</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="11"/>
+      <c r="M12" s="11" t="s">
+        <v>380</v>
+      </c>
       <c r="N12" s="11"/>
       <c r="O12" s="8"/>
       <c r="P12" s="1"/>
@@ -8470,26 +8502,22 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K13" s="8">
-        <v>50</v>
+        <v>4000</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="11"/>
@@ -8504,25 +8532,23 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>43</v>
+        <v>556</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>44</v>
+        <v>557</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K14" s="8">
+        <v>200</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -8530,415 +8556,757 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="8">
+        <v>8</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="F15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="8">
+        <v>50</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="8"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="82"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="39">
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="65"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="50">
         <v>1</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B21" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="36" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="74"/>
-      <c r="M19" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="62"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="74"/>
-      <c r="M20" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="36"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="38"/>
+      <c r="G21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="34"/>
       <c r="I21" s="38"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="60"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="69"/>
+      <c r="M21" s="60" t="s">
+        <v>142</v>
+      </c>
       <c r="N21" s="61"/>
       <c r="O21" s="61"/>
       <c r="P21" s="62"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="36"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="34" t="s">
+        <v>187</v>
+      </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>141</v>
+      </c>
       <c r="I22" s="38"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="74"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="69"/>
       <c r="M22" s="60" t="s">
-        <v>472</v>
+        <v>73</v>
       </c>
       <c r="N22" s="61"/>
       <c r="O22" s="61"/>
       <c r="P22" s="62"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="63" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="62"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="51"/>
+      <c r="B24" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="67"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="69"/>
+      <c r="M24" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="62"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="51"/>
+      <c r="B25" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="65"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="74"/>
-      <c r="I24" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="76"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="69"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="71"/>
       <c r="O25" s="71"/>
-      <c r="P25" s="70"/>
+      <c r="P25" s="72"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="70"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="79"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="69"/>
+      <c r="I26" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="69"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="81"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="39">
+      <c r="A27" s="51"/>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="75"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="77"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="51"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="77"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="50">
         <v>2</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B29" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="83" t="s">
+      <c r="C29" s="67"/>
+      <c r="D29" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="2" t="s">
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="72" t="s">
+      <c r="H29" s="34"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="74"/>
-      <c r="M27" s="60" t="s">
+      <c r="L29" s="69"/>
+      <c r="M29" s="60" t="s">
         <v>191</v>
-      </c>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="62"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="L28" s="74"/>
-      <c r="M28" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="62"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="60" t="s">
-        <v>472</v>
       </c>
       <c r="N29" s="61"/>
       <c r="O29" s="61"/>
       <c r="P29" s="62"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="63" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="38"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="69"/>
+      <c r="M30" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="62"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="51"/>
+      <c r="B31" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="69"/>
+      <c r="M31" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="62"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="65"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="74"/>
-      <c r="I31" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="76"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="H32" s="68"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="69"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="70"/>
       <c r="N32" s="71"/>
       <c r="O32" s="71"/>
-      <c r="P32" s="70"/>
+      <c r="P32" s="72"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="5"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="79"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="69"/>
+      <c r="I33" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="69"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="81"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="51"/>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="75"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="77"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="51"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="50">
+        <v>3</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="67"/>
+      <c r="D36" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="34"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="69"/>
+      <c r="M36" s="60" t="s">
+        <v>564</v>
+      </c>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="62"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="51"/>
+      <c r="B37" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="67"/>
+      <c r="D37" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37" s="38"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37" s="69"/>
+      <c r="M37" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="62"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="67"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="69"/>
+      <c r="M38" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="62"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="51"/>
+      <c r="B39" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="72"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="51"/>
+      <c r="B40" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="79"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="69"/>
+      <c r="I40" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="69"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="81"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="51"/>
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="D41" s="74"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="73" t="s">
+        <v>563</v>
+      </c>
+      <c r="H41" s="75"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="77"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="51"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="109">
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -8946,78 +9314,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9064,11 +9360,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -9110,11 +9406,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -9140,7 +9436,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -9155,7 +9451,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -9848,34 +10144,34 @@
       <c r="P27" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="82"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="39">
+      <c r="A30" s="50">
         <v>1</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="36" t="s">
+      <c r="C30" s="67"/>
+      <c r="D30" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E30" s="38"/>
@@ -9883,15 +10179,15 @@
       <c r="G30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="36" t="s">
-        <v>471</v>
+      <c r="H30" s="34" t="s">
+        <v>470</v>
       </c>
       <c r="I30" s="38"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="72" t="s">
+      <c r="J30" s="35"/>
+      <c r="K30" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="74"/>
+      <c r="L30" s="69"/>
       <c r="M30" s="60" t="s">
         <v>142</v>
       </c>
@@ -9900,12 +10196,12 @@
       <c r="P30" s="62"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="78" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="36" t="s">
+      <c r="C31" s="67"/>
+      <c r="D31" s="34" t="s">
         <v>187</v>
       </c>
       <c r="E31" s="38"/>
@@ -9913,15 +10209,15 @@
       <c r="G31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I31" s="38"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="72" t="s">
+      <c r="J31" s="35"/>
+      <c r="K31" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L31" s="74"/>
+      <c r="L31" s="69"/>
       <c r="M31" s="60" t="s">
         <v>73</v>
       </c>
@@ -9930,12 +10226,12 @@
       <c r="P31" s="62"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="36"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="21" t="s">
@@ -9943,7 +10239,7 @@
       </c>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
-      <c r="J32" s="37"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="19"/>
       <c r="L32" s="20"/>
       <c r="M32" s="60"/>
@@ -9952,127 +10248,127 @@
       <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="78" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="36"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="72" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="74"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="60" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N33" s="61"/>
       <c r="O33" s="61"/>
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="63" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="65"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="72"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="69"/>
       <c r="F35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="74"/>
-      <c r="I35" s="72" t="s">
+      <c r="H35" s="69"/>
+      <c r="I35" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="76"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="81"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="9">
         <v>1</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="68"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="70"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="77"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="68"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="70"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="77"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="39">
+      <c r="A38" s="50">
         <v>2</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="83" t="s">
         <v>250</v>
       </c>
@@ -10081,13 +10377,13 @@
       <c r="G38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="36"/>
+      <c r="H38" s="34"/>
       <c r="I38" s="38"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="72" t="s">
+      <c r="J38" s="35"/>
+      <c r="K38" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L38" s="74"/>
+      <c r="L38" s="69"/>
       <c r="M38" s="60" t="s">
         <v>191</v>
       </c>
@@ -10096,11 +10392,11 @@
       <c r="P38" s="62"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="78" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="79"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="83" t="s">
         <v>178</v>
       </c>
@@ -10109,15 +10405,15 @@
       <c r="G39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="H39" s="34" t="s">
         <v>177</v>
       </c>
       <c r="I39" s="38"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="72" t="s">
+      <c r="J39" s="35"/>
+      <c r="K39" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L39" s="74"/>
+      <c r="L39" s="69"/>
       <c r="M39" s="60" t="s">
         <v>73</v>
       </c>
@@ -10126,114 +10422,114 @@
       <c r="P39" s="62"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="78" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="72" t="s">
+      <c r="J40" s="35"/>
+      <c r="K40" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L40" s="74"/>
+      <c r="L40" s="69"/>
       <c r="M40" s="60" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N40" s="61"/>
       <c r="O40" s="61"/>
       <c r="P40" s="62"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="63" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="65"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="72"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="74"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="69"/>
       <c r="F42" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="72" t="s">
+      <c r="G42" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="I42" s="72" t="s">
+      <c r="H42" s="69"/>
+      <c r="I42" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="74"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="76"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="81"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="9">
         <v>1</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="75"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="66" t="s">
+      <c r="G43" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="H43" s="68"/>
+      <c r="H43" s="75"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="70"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="77"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="22"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="68"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="75"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="70"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="77"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
@@ -10241,19 +10537,56 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
     <mergeCell ref="A29:P29"/>
     <mergeCell ref="A30:A37"/>
     <mergeCell ref="B30:C30"/>
@@ -10270,56 +10603,19 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10344,7 +10640,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -10402,7 +10698,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
@@ -10454,7 +10750,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B11" s="33" t="b">
         <v>1</v>
@@ -10908,86 +11204,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="50">
+      <c r="A1" s="47">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="G1" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="34" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36" t="s">
+      <c r="G2" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="25" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+      <c r="B3" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
-      <c r="G3" s="37"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>393</v>
-      </c>
       <c r="F5" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="26">
         <v>1</v>
       </c>
@@ -10995,14 +11291,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="26">
         <v>2</v>
       </c>
@@ -11010,14 +11306,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26">
         <v>3</v>
       </c>
@@ -11025,14 +11321,14 @@
         <v>20</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="26"/>
       <c r="C9" s="30"/>
       <c r="D9" s="29"/>
@@ -11041,95 +11337,95 @@
       <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="50">
         <v>2</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
+      <c r="G11" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="25" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="27" t="s">
+      <c r="C15" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="D15" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>393</v>
-      </c>
       <c r="F15" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="26">
         <v>1</v>
       </c>
@@ -11137,16 +11433,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>403</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>404</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="26">
         <v>2</v>
       </c>
@@ -11154,16 +11450,16 @@
         <v>10</v>
       </c>
       <c r="D17" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>405</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>406</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="26">
         <v>3</v>
       </c>
@@ -11171,18 +11467,18 @@
         <v>20</v>
       </c>
       <c r="D18" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>407</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>408</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="26">
         <v>4</v>
       </c>
@@ -11190,18 +11486,18 @@
         <v>30</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="26">
         <v>5</v>
       </c>
@@ -11209,18 +11505,18 @@
         <v>40</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>411</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>412</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="26">
         <v>6</v>
       </c>
@@ -11228,18 +11524,18 @@
         <v>50</v>
       </c>
       <c r="D21" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>416</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>417</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="26">
         <v>7</v>
       </c>
@@ -11247,18 +11543,18 @@
         <v>60</v>
       </c>
       <c r="D22" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>428</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>429</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="26">
         <v>8</v>
       </c>
@@ -11266,18 +11562,18 @@
         <v>70</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="26">
         <v>9</v>
       </c>
@@ -11285,18 +11581,18 @@
         <v>80</v>
       </c>
       <c r="D24" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>419</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>420</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="26">
         <v>10</v>
       </c>
@@ -11304,106 +11600,106 @@
         <v>90</v>
       </c>
       <c r="D25" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>422</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>423</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="45">
+        <v>4</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="34" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="48">
-        <v>4</v>
-      </c>
-      <c r="B27" s="34" t="s">
+      <c r="E27" s="35"/>
+      <c r="F27" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36" t="s">
+      <c r="G27" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="34" t="s">
+      <c r="E28" s="35"/>
+      <c r="F28" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36" t="s">
+      <c r="G28" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="25" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="37"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="27" t="s">
+      <c r="C31" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="D31" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>393</v>
-      </c>
       <c r="F31" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="G31" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="G31" s="28" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="26">
         <v>1</v>
       </c>
@@ -11411,16 +11707,16 @@
         <v>0</v>
       </c>
       <c r="D32" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E32" s="29" t="s">
         <v>403</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>404</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="26">
         <v>2</v>
       </c>
@@ -11428,16 +11724,16 @@
         <v>10</v>
       </c>
       <c r="D33" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>405</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>406</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="26">
         <v>3</v>
       </c>
@@ -11445,18 +11741,18 @@
         <v>20</v>
       </c>
       <c r="D34" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="E34" s="29" t="s">
         <v>407</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>408</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="26">
         <v>4</v>
       </c>
@@ -11464,16 +11760,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="26">
         <v>5</v>
       </c>
@@ -11481,16 +11777,16 @@
         <v>40</v>
       </c>
       <c r="D36" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E36" s="29" t="s">
         <v>411</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>412</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="26">
         <v>6</v>
       </c>
@@ -11498,16 +11794,16 @@
         <v>50</v>
       </c>
       <c r="D37" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="E37" s="29" t="s">
         <v>416</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>417</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="26">
         <v>7</v>
       </c>
@@ -11515,16 +11811,16 @@
         <v>60</v>
       </c>
       <c r="D38" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="E38" s="29" t="s">
         <v>428</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>429</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="26">
         <v>8</v>
       </c>
@@ -11532,104 +11828,104 @@
         <v>70</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="39">
+      <c r="A41" s="50">
         <v>5</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36" t="s">
+      <c r="G41" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="51"/>
+      <c r="B42" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" s="34" t="s">
+      <c r="E42" s="35"/>
+      <c r="F42" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36" t="s">
+      <c r="G42" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="25" t="s">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="G42" s="26" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
-      <c r="G43" s="37"/>
+      <c r="G43" s="35"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="42" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="51"/>
+      <c r="B45" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="27" t="s">
+      <c r="C45" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="D45" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>393</v>
-      </c>
       <c r="F45" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="G45" s="28" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="26">
         <v>1</v>
       </c>
@@ -11637,16 +11933,16 @@
         <v>0</v>
       </c>
       <c r="D46" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>440</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>441</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="26">
         <v>2</v>
       </c>
@@ -11654,16 +11950,16 @@
         <v>1</v>
       </c>
       <c r="D47" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="E47" s="29" t="s">
         <v>442</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>443</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="26">
         <v>3</v>
       </c>
@@ -11671,18 +11967,18 @@
         <v>2</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="26">
         <v>4</v>
       </c>
@@ -11690,32 +11986,42 @@
         <v>3</v>
       </c>
       <c r="D49" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>446</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>447</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B50:G50"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="A27:A40"/>
     <mergeCell ref="B40:G40"/>
@@ -11732,21 +12038,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B26:G26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11869,7 +12165,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -11884,7 +12180,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -12146,7 +12442,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="11"/>
@@ -12180,7 +12476,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="8"/>
@@ -12405,7 +12701,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -12420,7 +12716,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="37"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
@@ -12583,7 +12879,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -12598,7 +12894,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -12805,14 +13101,14 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>488</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>489</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -12837,14 +13133,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -12922,7 +13218,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="8"/>
@@ -12935,14 +13231,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -13025,14 +13321,14 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>360</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>361</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
@@ -13201,14 +13497,14 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>368</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
@@ -13349,14 +13645,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>357</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>358</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -13379,14 +13675,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -13409,14 +13705,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -13439,14 +13735,14 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -13467,14 +13763,14 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -13497,14 +13793,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>354</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>355</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -13527,14 +13823,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -13557,14 +13853,14 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="8"/>
@@ -13587,14 +13883,14 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>497</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>498</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="8"/>
@@ -13861,7 +14157,7 @@
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -13876,37 +14172,37 @@
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
       <c r="O47" s="38"/>
-      <c r="P47" s="37"/>
+      <c r="P47" s="35"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="82"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="65"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="39">
+      <c r="A50" s="50">
         <v>1</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="36" t="s">
+      <c r="C50" s="67"/>
+      <c r="D50" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E50" s="38"/>
@@ -13914,13 +14210,13 @@
       <c r="G50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H50" s="36"/>
+      <c r="H50" s="34"/>
       <c r="I50" s="38"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="72" t="s">
+      <c r="J50" s="35"/>
+      <c r="K50" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L50" s="74"/>
+      <c r="L50" s="69"/>
       <c r="M50" s="60" t="s">
         <v>142</v>
       </c>
@@ -13929,12 +14225,12 @@
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="78" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="36" t="s">
+      <c r="C51" s="67"/>
+      <c r="D51" s="34" t="s">
         <v>163</v>
       </c>
       <c r="E51" s="38"/>
@@ -13942,15 +14238,15 @@
       <c r="G51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="36" t="s">
+      <c r="H51" s="34" t="s">
         <v>162</v>
       </c>
       <c r="I51" s="38"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="72" t="s">
+      <c r="J51" s="35"/>
+      <c r="K51" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L51" s="74"/>
+      <c r="L51" s="69"/>
       <c r="M51" s="60" t="s">
         <v>73</v>
       </c>
@@ -13959,12 +14255,12 @@
       <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="78" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="36"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
       <c r="G52" s="21" t="s">
@@ -13972,7 +14268,7 @@
       </c>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
-      <c r="J52" s="37"/>
+      <c r="J52" s="35"/>
       <c r="K52" s="19"/>
       <c r="L52" s="20"/>
       <c r="M52" s="60"/>
@@ -13981,22 +14277,22 @@
       <c r="P52" s="62"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="78" t="s">
+      <c r="A53" s="51"/>
+      <c r="B53" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="36"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="72" t="s">
+      <c r="J53" s="35"/>
+      <c r="K53" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L53" s="74"/>
+      <c r="L53" s="69"/>
       <c r="M53" s="60" t="s">
         <v>108</v>
       </c>
@@ -14005,109 +14301,119 @@
       <c r="P53" s="62"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="63" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="65"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="72"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="72" t="s">
+      <c r="C55" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="73"/>
-      <c r="E55" s="74"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="69"/>
       <c r="F55" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="72" t="s">
+      <c r="G55" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="74"/>
-      <c r="I55" s="72" t="s">
+      <c r="H55" s="69"/>
+      <c r="I55" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="74"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="76"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="81"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="9">
         <v>1</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="73" t="s">
         <v>312</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="68"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="66" t="s">
+      <c r="G56" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="68"/>
+      <c r="H56" s="75"/>
       <c r="I56" s="3"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="70"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="77"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="68"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="68"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="75"/>
       <c r="I57" s="3"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="70"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="M52:P52"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A47:P47"/>
     <mergeCell ref="A49:P49"/>
@@ -14124,28 +14430,18 @@
     <mergeCell ref="M51:P51"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14184,7 +14480,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -14208,7 +14504,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -14217,7 +14513,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -14268,7 +14564,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -14283,7 +14579,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -14432,14 +14728,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>500</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>501</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -14451,7 +14747,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -14464,14 +14760,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>504</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -14483,7 +14779,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="8"/>
@@ -14496,14 +14792,14 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
@@ -14526,14 +14822,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>508</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>509</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -14558,14 +14854,14 @@
         <v>147</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>513</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8" t="s">
@@ -14588,14 +14884,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -14618,14 +14914,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -14760,7 +15056,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -14775,37 +15071,37 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
-      <c r="P21" s="37"/>
+      <c r="P21" s="35"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="82"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="65"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="39">
+      <c r="A24" s="50">
         <v>1</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="36" t="s">
+      <c r="C24" s="67"/>
+      <c r="D24" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E24" s="38"/>
@@ -14813,15 +15109,15 @@
       <c r="G24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="36" t="s">
-        <v>551</v>
+      <c r="H24" s="34" t="s">
+        <v>550</v>
       </c>
       <c r="I24" s="38"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="72" t="s">
+      <c r="J24" s="35"/>
+      <c r="K24" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="74"/>
+      <c r="L24" s="69"/>
       <c r="M24" s="60" t="s">
         <v>142</v>
       </c>
@@ -14830,12 +15126,12 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="34" t="s">
         <v>187</v>
       </c>
       <c r="E25" s="38"/>
@@ -14843,15 +15139,15 @@
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="72" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="60" t="s">
         <v>73</v>
       </c>
@@ -14860,12 +15156,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="36"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="21" t="s">
@@ -14873,7 +15169,7 @@
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
       <c r="M26" s="60"/>
@@ -14882,155 +15178,121 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="72" t="s">
+      <c r="J27" s="35"/>
+      <c r="K27" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="74"/>
+      <c r="L27" s="69"/>
       <c r="M27" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N27" s="61"/>
       <c r="O27" s="61"/>
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="63" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="65"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="72"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72" t="s">
+      <c r="H29" s="69"/>
+      <c r="I29" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="76"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="81"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="9">
         <v>1</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="68"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="70"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="77"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="68"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="K31:L31"/>
@@ -15047,6 +15309,40 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15057,7 +15353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A50"/>
     </sheetView>
   </sheetViews>
@@ -15169,7 +15465,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -15184,7 +15480,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -15352,7 +15648,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -15401,10 +15697,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>494</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -15448,7 +15744,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P13" s="1"/>
     </row>
@@ -15459,14 +15755,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -15551,14 +15847,14 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>371</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -15579,14 +15875,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -15596,7 +15892,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="8"/>
@@ -15609,19 +15905,19 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
       <c r="J19" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -15699,14 +15995,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>324</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
@@ -15736,7 +16032,7 @@
         <v>216</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -15782,7 +16078,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -15823,14 +16119,14 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -15844,7 +16140,7 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P26" s="1"/>
     </row>
@@ -15855,14 +16151,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -15908,7 +16204,7 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P28" s="1"/>
     </row>
@@ -16011,14 +16307,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>374</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -16041,14 +16337,14 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>377</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -16078,7 +16374,7 @@
         <v>58</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
@@ -16134,7 +16430,7 @@
         <v>168</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -16183,14 +16479,14 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>478</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="8"/>
@@ -16211,14 +16507,14 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>481</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="8"/>
@@ -16269,14 +16565,14 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>519</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>520</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="8"/>
@@ -16297,28 +16593,28 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>553</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>554</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P42" s="1"/>
     </row>
@@ -16329,16 +16625,16 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F43" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>460</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="8"/>
@@ -16361,13 +16657,13 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>9</v>
@@ -16613,34 +16909,34 @@
       <c r="P51" s="1"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="81"/>
-      <c r="P53" s="82"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="65"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="39">
+      <c r="A54" s="50">
         <v>1</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="36" t="s">
+      <c r="C54" s="67"/>
+      <c r="D54" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E54" s="38"/>
@@ -16648,15 +16944,15 @@
       <c r="G54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="36" t="s">
-        <v>464</v>
+      <c r="H54" s="34" t="s">
+        <v>463</v>
       </c>
       <c r="I54" s="38"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="72" t="s">
+      <c r="J54" s="35"/>
+      <c r="K54" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L54" s="74"/>
+      <c r="L54" s="69"/>
       <c r="M54" s="60" t="s">
         <v>142</v>
       </c>
@@ -16665,12 +16961,12 @@
       <c r="P54" s="62"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="78" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="36" t="s">
+      <c r="C55" s="67"/>
+      <c r="D55" s="34" t="s">
         <v>187</v>
       </c>
       <c r="E55" s="38"/>
@@ -16678,15 +16974,15 @@
       <c r="G55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H55" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I55" s="38"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="72" t="s">
+      <c r="J55" s="35"/>
+      <c r="K55" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L55" s="74"/>
+      <c r="L55" s="69"/>
       <c r="M55" s="60" t="s">
         <v>73</v>
       </c>
@@ -16695,12 +16991,12 @@
       <c r="P55" s="62"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
-      <c r="B56" s="78" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="36"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="34"/>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
       <c r="G56" s="21" t="s">
@@ -16708,7 +17004,7 @@
       </c>
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
-      <c r="J56" s="37"/>
+      <c r="J56" s="35"/>
       <c r="K56" s="19"/>
       <c r="L56" s="20"/>
       <c r="M56" s="60"/>
@@ -16717,128 +17013,128 @@
       <c r="P56" s="62"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" s="78" t="s">
+      <c r="A57" s="51"/>
+      <c r="B57" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="36"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="72" t="s">
+      <c r="J57" s="35"/>
+      <c r="K57" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="74"/>
+      <c r="L57" s="69"/>
       <c r="M57" s="60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N57" s="61"/>
       <c r="O57" s="61"/>
       <c r="P57" s="62"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="63" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="65"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="72"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="72" t="s">
+      <c r="C59" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="73"/>
-      <c r="E59" s="74"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="69"/>
       <c r="F59" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="72" t="s">
+      <c r="G59" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="74"/>
-      <c r="I59" s="72" t="s">
+      <c r="H59" s="69"/>
+      <c r="I59" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="74"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="76"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="82"/>
+      <c r="P59" s="81"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="9">
         <v>1</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="67"/>
-      <c r="E60" s="68"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="75"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="66" t="s">
+      <c r="G60" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H60" s="68"/>
+      <c r="H60" s="75"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="70"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="77"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="68"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="68"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="75"/>
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="70"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="78"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="77"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="39">
+      <c r="A62" s="50">
         <v>2</v>
       </c>
-      <c r="B62" s="78" t="s">
+      <c r="B62" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="36" t="s">
+      <c r="C62" s="67"/>
+      <c r="D62" s="34" t="s">
         <v>243</v>
       </c>
       <c r="E62" s="38"/>
@@ -16846,13 +17142,13 @@
       <c r="G62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="36"/>
+      <c r="H62" s="34"/>
       <c r="I62" s="38"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="72" t="s">
+      <c r="J62" s="35"/>
+      <c r="K62" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L62" s="74"/>
+      <c r="L62" s="69"/>
       <c r="M62" s="60" t="s">
         <v>142</v>
       </c>
@@ -16861,28 +17157,28 @@
       <c r="P62" s="62"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="78" t="s">
+      <c r="A63" s="51"/>
+      <c r="B63" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="36" t="s">
-        <v>383</v>
+      <c r="C63" s="67"/>
+      <c r="D63" s="34" t="s">
+        <v>382</v>
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
       <c r="G63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H63" s="36" t="s">
+      <c r="H63" s="34" t="s">
         <v>244</v>
       </c>
       <c r="I63" s="38"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="72" t="s">
+      <c r="J63" s="35"/>
+      <c r="K63" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L63" s="74"/>
+      <c r="L63" s="69"/>
       <c r="M63" s="60" t="s">
         <v>73</v>
       </c>
@@ -16891,12 +17187,12 @@
       <c r="P63" s="62"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
-      <c r="B64" s="78" t="s">
+      <c r="A64" s="51"/>
+      <c r="B64" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="36"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="21" t="s">
@@ -16904,7 +17200,7 @@
       </c>
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
-      <c r="J64" s="37"/>
+      <c r="J64" s="35"/>
       <c r="K64" s="19"/>
       <c r="L64" s="20"/>
       <c r="M64" s="60"/>
@@ -16913,22 +17209,22 @@
       <c r="P64" s="62"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
-      <c r="B65" s="78" t="s">
+      <c r="A65" s="51"/>
+      <c r="B65" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="36"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="38"/>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="72" t="s">
+      <c r="J65" s="35"/>
+      <c r="K65" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="74"/>
+      <c r="L65" s="69"/>
       <c r="M65" s="60" t="s">
         <v>108</v>
       </c>
@@ -16937,153 +17233,111 @@
       <c r="P65" s="62"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
-      <c r="B66" s="63" t="s">
+      <c r="A66" s="51"/>
+      <c r="B66" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="63"/>
-      <c r="L66" s="65"/>
-      <c r="M66" s="63"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="P66" s="65"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="70"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="72"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="72" t="s">
+      <c r="C67" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="73"/>
-      <c r="E67" s="74"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="69"/>
       <c r="F67" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="72" t="s">
+      <c r="G67" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="74"/>
-      <c r="I67" s="72" t="s">
+      <c r="H67" s="69"/>
+      <c r="I67" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="74"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="76"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="77"/>
-      <c r="O67" s="77"/>
-      <c r="P67" s="76"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="81"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="82"/>
+      <c r="P67" s="81"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="9">
         <v>1</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="D68" s="67"/>
-      <c r="E68" s="68"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="75"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="66" t="s">
+      <c r="G68" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H68" s="68"/>
+      <c r="H68" s="75"/>
       <c r="I68" s="3"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="70"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
-      <c r="P68" s="70"/>
+      <c r="K68" s="76"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="76"/>
+      <c r="N68" s="78"/>
+      <c r="O68" s="78"/>
+      <c r="P68" s="77"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="68"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="75"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="68"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="75"/>
       <c r="I69" s="3"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="70"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="71"/>
-      <c r="O69" s="71"/>
-      <c r="P69" s="70"/>
+      <c r="K69" s="76"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="76"/>
+      <c r="N69" s="78"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="77"/>
     </row>
     <row r="70" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A53:P53"/>
     <mergeCell ref="A54:A61"/>
     <mergeCell ref="B54:C54"/>
@@ -17100,19 +17354,61 @@
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="H56:J56"/>
     <mergeCell ref="M56:P56"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:P69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17235,7 +17531,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -17250,7 +17546,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -17399,14 +17695,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>454</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -17543,34 +17839,34 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="82"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="65"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="39">
+      <c r="A17" s="50">
         <v>1</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E17" s="38"/>
@@ -17578,13 +17874,13 @@
       <c r="G17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="72" t="s">
+      <c r="J17" s="35"/>
+      <c r="K17" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="74"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="60" t="s">
         <v>142</v>
       </c>
@@ -17593,12 +17889,12 @@
       <c r="P17" s="62"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="78" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="34" t="s">
         <v>187</v>
       </c>
       <c r="E18" s="38"/>
@@ -17606,15 +17902,15 @@
       <c r="G18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="34" t="s">
         <v>141</v>
       </c>
       <c r="I18" s="38"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="72" t="s">
+      <c r="J18" s="35"/>
+      <c r="K18" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="74"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="60" t="s">
         <v>73</v>
       </c>
@@ -17623,12 +17919,12 @@
       <c r="P18" s="62"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="78" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="21" t="s">
@@ -17636,7 +17932,7 @@
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
-      <c r="J19" s="37"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="60"/>
@@ -17645,22 +17941,22 @@
       <c r="P19" s="62"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="72" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="74"/>
+      <c r="L20" s="69"/>
       <c r="M20" s="60" t="s">
         <v>108</v>
       </c>
@@ -17669,104 +17965,104 @@
       <c r="P20" s="62"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="63" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="65"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="72"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="74"/>
-      <c r="I22" s="72" t="s">
+      <c r="H22" s="69"/>
+      <c r="I22" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="76"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="81"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="68"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="70"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="77"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="68"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="70"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="77"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="39">
+      <c r="A25" s="50">
         <v>2</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="34" t="s">
         <v>189</v>
       </c>
       <c r="E25" s="38"/>
@@ -17774,15 +18070,15 @@
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="36" t="s">
-        <v>466</v>
+      <c r="H25" s="34" t="s">
+        <v>465</v>
       </c>
       <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="72" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="60" t="s">
         <v>191</v>
       </c>
@@ -17791,12 +18087,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="34" t="s">
         <v>192</v>
       </c>
       <c r="E26" s="38"/>
@@ -17804,15 +18100,15 @@
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="34" t="s">
         <v>190</v>
       </c>
       <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="72" t="s">
+      <c r="J26" s="35"/>
+      <c r="K26" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="74"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="60" t="s">
         <v>73</v>
       </c>
@@ -17821,12 +18117,12 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="21" t="s">
@@ -17834,7 +18130,7 @@
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="60"/>
@@ -17843,144 +18139,144 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="78" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="36"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="72" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="74"/>
+      <c r="L28" s="69"/>
       <c r="M28" s="60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N28" s="61"/>
       <c r="O28" s="61"/>
       <c r="P28" s="62"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="65"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="72"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72" t="s">
+      <c r="H30" s="69"/>
+      <c r="I30" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="76"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="81"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="H31" s="68"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="68"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="70"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="77"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="39">
+      <c r="A33" s="50">
         <v>3</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="36" t="s">
-        <v>455</v>
+      <c r="C33" s="67"/>
+      <c r="D33" s="34" t="s">
+        <v>454</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="36" t="s">
-        <v>467</v>
+      <c r="H33" s="34" t="s">
+        <v>466</v>
       </c>
       <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="72" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="74"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="60" t="s">
         <v>191</v>
       </c>
@@ -17989,12 +18285,12 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="78" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="36" t="s">
+      <c r="C34" s="67"/>
+      <c r="D34" s="34" t="s">
         <v>192</v>
       </c>
       <c r="E34" s="38"/>
@@ -18002,15 +18298,15 @@
       <c r="G34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="36" t="s">
-        <v>456</v>
+      <c r="H34" s="34" t="s">
+        <v>455</v>
       </c>
       <c r="I34" s="38"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="72" t="s">
+      <c r="J34" s="35"/>
+      <c r="K34" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="L34" s="74"/>
+      <c r="L34" s="69"/>
       <c r="M34" s="60" t="s">
         <v>73</v>
       </c>
@@ -18019,12 +18315,12 @@
       <c r="P34" s="62"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="78" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="36"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
       <c r="G35" s="21" t="s">
@@ -18032,7 +18328,7 @@
       </c>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
-      <c r="J35" s="37"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="19"/>
       <c r="L35" s="20"/>
       <c r="M35" s="60"/>
@@ -18041,136 +18337,201 @@
       <c r="P35" s="62"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="78" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="36"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="72" t="s">
+      <c r="J36" s="35"/>
+      <c r="K36" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="74"/>
+      <c r="L36" s="69"/>
       <c r="M36" s="60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N36" s="61"/>
       <c r="O36" s="61"/>
       <c r="P36" s="62"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="63" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="65"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="72"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="72" t="s">
+      <c r="H38" s="69"/>
+      <c r="I38" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="74"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="76"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="81"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="9">
         <v>1</v>
       </c>
-      <c r="C39" s="66" t="s">
-        <v>457</v>
-      </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68"/>
+      <c r="C39" s="73" t="s">
+        <v>456</v>
+      </c>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="66" t="s">
+      <c r="G39" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="H39" s="68"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="70"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="77"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="68"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="75"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="70"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:F25"/>
@@ -18195,86 +18556,21 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408B98BF-1993-4409-A28B-1CD4C8FACE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7E7CF-02D9-47E3-B1B7-479102779D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="13" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="580">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1512,18 +1512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUSPEND_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suspend Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1585,10 +1573,6 @@
   </si>
   <si>
     <t>最后一次操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAG_SET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2046,10 +2030,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SIGNAL_SET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Signal Set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2082,14 +2062,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FROM_APP_STATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From App State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TO_APP_STATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2102,10 +2074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>源应用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHANGE_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2323,6 +2291,98 @@
   </si>
   <si>
     <t>NopWfAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERATOR_DEPT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operator Dept ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作者部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWNER_DEPT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner Dept ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有者部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT_RETRY_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Retry Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次重试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETRY_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已重试次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步骤ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于临时插入的步骤，可以通过此属性来指定它的后续跳转步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会签等步骤会产生一组相关的步骤实例，通过此属性表示它们是同一个业务操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAG_TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNAL_TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_OPERATOR_DEPT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Operator Dept ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次操作者单位ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3444,7 +3504,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -3468,7 +3528,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -3477,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -3823,7 +3883,7 @@
         <v>216</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -3846,14 +3906,14 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -3874,14 +3934,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8" t="s">
@@ -4314,7 +4374,7 @@
         <v>62</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I32" s="38"/>
       <c r="J32" s="35"/>
@@ -4377,7 +4437,7 @@
       </c>
       <c r="L34" s="69"/>
       <c r="M34" s="60" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N34" s="61"/>
       <c r="O34" s="61"/>
@@ -4592,7 +4652,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -4616,7 +4676,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -4625,7 +4685,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -4808,14 +4868,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
@@ -4840,14 +4900,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -4872,14 +4932,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -5437,10 +5497,10 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>293</v>
@@ -5471,10 +5531,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -6031,7 +6091,7 @@
         <v>62</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I32" s="38"/>
       <c r="J32" s="35"/>
@@ -6094,7 +6154,7 @@
       </c>
       <c r="L34" s="69"/>
       <c r="M34" s="60" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N34" s="61"/>
       <c r="O34" s="61"/>
@@ -6358,7 +6418,7 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -6964,7 +7024,7 @@
         <v>62</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="35"/>
@@ -7049,7 +7109,7 @@
       </c>
       <c r="L28" s="69"/>
       <c r="M28" s="60" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N28" s="61"/>
       <c r="O28" s="61"/>
@@ -7208,7 +7268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1EA77C-48C6-4C79-A89F-63884D9A79E6}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:L4"/>
     </sheetView>
   </sheetViews>
@@ -7285,7 +7345,7 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -7891,7 +7951,7 @@
         <v>62</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="35"/>
@@ -7976,7 +8036,7 @@
       </c>
       <c r="L28" s="69"/>
       <c r="M28" s="60" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N28" s="61"/>
       <c r="O28" s="61"/>
@@ -8135,7 +8195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF0B1E8-EF9C-4B0E-BEEA-DE0FFCF2D11A}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -8212,7 +8272,7 @@
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="56" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -8440,14 +8500,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -8489,7 +8549,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="8"/>
@@ -8532,14 +8592,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -8759,7 +8819,7 @@
       </c>
       <c r="L24" s="69"/>
       <c r="M24" s="60" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N24" s="61"/>
       <c r="O24" s="61"/>
@@ -8933,7 +8993,7 @@
       </c>
       <c r="L31" s="69"/>
       <c r="M31" s="60" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N31" s="61"/>
       <c r="O31" s="61"/>
@@ -9053,7 +9113,7 @@
       </c>
       <c r="L36" s="69"/>
       <c r="M36" s="60" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="N36" s="61"/>
       <c r="O36" s="61"/>
@@ -9107,7 +9167,7 @@
       </c>
       <c r="L38" s="69"/>
       <c r="M38" s="60" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N38" s="61"/>
       <c r="O38" s="61"/>
@@ -9167,13 +9227,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="73" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D41" s="74"/>
       <c r="E41" s="75"/>
       <c r="F41" s="3"/>
       <c r="G41" s="73" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="H41" s="75"/>
       <c r="I41" s="3"/>
@@ -9218,12 +9278,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
@@ -9235,19 +9289,18 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
@@ -9265,7 +9318,13 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:P27"/>
@@ -9301,6 +9360,7 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:M1"/>
@@ -10180,7 +10240,7 @@
         <v>62</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="35"/>
@@ -10265,7 +10325,7 @@
       </c>
       <c r="L33" s="69"/>
       <c r="M33" s="60" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N33" s="61"/>
       <c r="O33" s="61"/>
@@ -10439,7 +10499,7 @@
       </c>
       <c r="L40" s="69"/>
       <c r="M40" s="60" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N40" s="61"/>
       <c r="O40" s="61"/>
@@ -10698,7 +10758,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
@@ -10750,7 +10810,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B11" s="33" t="b">
         <v>1</v>
@@ -11208,41 +11268,41 @@
         <v>1</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="25" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="48"/>
       <c r="B2" s="36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="34" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" s="36" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="34"/>
@@ -11253,7 +11313,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="B4" s="39" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -11264,22 +11324,22 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D5" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>387</v>
-      </c>
       <c r="G5" s="28" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -11291,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
@@ -11306,7 +11366,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -11321,7 +11381,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -11350,41 +11410,41 @@
         <v>2</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="25" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="51"/>
       <c r="B12" s="36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="34" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
       <c r="B13" s="36" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="34"/>
@@ -11395,7 +11455,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
       <c r="B14" s="39" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
@@ -11406,22 +11466,22 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
       <c r="B15" s="27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>387</v>
-      </c>
       <c r="G15" s="28" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -11433,10 +11493,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -11450,10 +11510,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
@@ -11467,14 +11527,14 @@
         <v>20</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="32" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -11486,14 +11546,14 @@
         <v>30</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="32" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -11505,14 +11565,14 @@
         <v>40</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="32" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -11524,14 +11584,14 @@
         <v>50</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="32" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -11543,14 +11603,14 @@
         <v>60</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -11562,14 +11622,14 @@
         <v>70</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -11581,14 +11641,14 @@
         <v>80</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="32" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -11600,14 +11660,14 @@
         <v>90</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="32" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -11624,41 +11684,41 @@
         <v>4</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="34" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="25" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" s="36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" s="36" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="34"/>
@@ -11669,7 +11729,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" s="39" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -11680,22 +11740,22 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" s="27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D31" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="E31" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>387</v>
-      </c>
       <c r="G31" s="28" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -11707,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -11724,10 +11784,10 @@
         <v>10</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
@@ -11741,14 +11801,14 @@
         <v>20</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="32" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -11760,10 +11820,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="32"/>
@@ -11777,10 +11837,10 @@
         <v>40</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="32"/>
@@ -11794,10 +11854,10 @@
         <v>50</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="32"/>
@@ -11811,10 +11871,10 @@
         <v>60</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="32"/>
@@ -11828,10 +11888,10 @@
         <v>70</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="32"/>
@@ -11850,41 +11910,41 @@
         <v>5</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="34" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="25" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="51"/>
       <c r="B42" s="36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="34" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="51"/>
       <c r="B43" s="36" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="34"/>
@@ -11895,7 +11955,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="51"/>
       <c r="B44" s="39" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
@@ -11906,22 +11966,22 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="51"/>
       <c r="B45" s="27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D45" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="F45" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="E45" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>387</v>
-      </c>
       <c r="G45" s="28" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -11933,10 +11993,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
@@ -11950,10 +12010,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
@@ -11967,14 +12027,14 @@
         <v>2</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="29" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -11986,14 +12046,14 @@
         <v>3</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="29" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -12442,7 +12502,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="11"/>
@@ -12476,7 +12536,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="8"/>
@@ -12765,10 +12825,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13101,14 +13161,14 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -13133,14 +13193,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
@@ -13231,14 +13291,14 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -13319,16 +13379,18 @@
         <v>12</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="D19" s="11" t="s">
-        <v>358</v>
+        <v>167</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>360</v>
+        <v>169</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
@@ -13349,21 +13411,23 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="8"/>
       <c r="J20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K20" s="8">
+        <v>200</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -13377,14 +13441,14 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
@@ -13407,14 +13471,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
@@ -13437,14 +13501,14 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -13452,7 +13516,7 @@
         <v>28</v>
       </c>
       <c r="K23" s="8">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="11"/>
@@ -13467,23 +13531,21 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>202</v>
+        <v>362</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
-        <v>158</v>
+        <v>363</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>159</v>
+        <v>364</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
       <c r="J24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="8">
-        <v>500</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -13497,21 +13559,23 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11" t="s">
-        <v>365</v>
+        <v>203</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
-        <v>366</v>
+        <v>160</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>367</v>
+        <v>161</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
       <c r="J25" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="K25" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K25" s="8">
+        <v>32</v>
+      </c>
       <c r="L25" s="8"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -13525,14 +13589,14 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>203</v>
+        <v>317</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
-        <v>160</v>
+        <v>318</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>161</v>
+        <v>319</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -13540,7 +13604,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="8">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="11"/>
@@ -13555,14 +13619,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>317</v>
+        <v>204</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>318</v>
+        <v>205</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -13570,7 +13634,7 @@
         <v>28</v>
       </c>
       <c r="K27" s="8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="11"/>
@@ -13585,14 +13649,14 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -13615,14 +13679,14 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>207</v>
+        <v>355</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
-        <v>208</v>
+        <v>356</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>209</v>
+        <v>357</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -13645,14 +13709,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>355</v>
+        <v>527</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>356</v>
+        <v>528</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>357</v>
+        <v>539</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -13675,14 +13739,14 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -13705,14 +13769,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -13733,16 +13797,18 @@
         <v>26</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="D33" s="11" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -13830,7 +13896,7 @@
         <v>347</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -13883,23 +13949,25 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="E38" s="8"/>
+        <v>234</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F38" s="11" t="s">
-        <v>496</v>
+        <v>235</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>497</v>
+        <v>236</v>
       </c>
       <c r="H38" s="11"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="8">
-        <v>1000</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -13913,27 +13981,23 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="E39" s="8"/>
       <c r="F39" s="11" t="s">
-        <v>37</v>
+        <v>491</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1000</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -13947,26 +14011,24 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="8"/>
+        <v>575</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F40" s="11" t="s">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K40" s="8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="11"/>
@@ -13981,23 +14043,25 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F41" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -14013,17 +14077,17 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>27</v>
@@ -14047,17 +14111,17 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>27</v>
@@ -14079,25 +14143,27 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>111</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E44" s="8"/>
       <c r="F44" s="11" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="H44" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="I44" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K44" s="8">
+        <v>50</v>
+      </c>
       <c r="L44" s="8"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -14111,27 +14177,25 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>111</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E45" s="8"/>
       <c r="F45" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I45" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J45" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="8">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -14139,16 +14203,30 @@
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
+      <c r="A46" s="8">
+        <v>39</v>
+      </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="D46" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>236</v>
+      </c>
       <c r="H46" s="11"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="11"/>
+      <c r="I46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="11"/>
@@ -14157,121 +14235,121 @@
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="35"/>
+      <c r="A47" s="8">
+        <v>40</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="8">
+        <v>200</v>
+      </c>
+      <c r="L47" s="8"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="1"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="65"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="50">
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="65"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="50">
         <v>1</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B52" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="34" t="s">
+      <c r="C52" s="67"/>
+      <c r="D52" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="L50" s="69"/>
-      <c r="M50" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="62"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="I51" s="38"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="L51" s="69"/>
-      <c r="M51" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="62"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
-      <c r="B52" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="34"/>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
-      <c r="G52" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H52" s="38"/>
+      <c r="G52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="34"/>
       <c r="I52" s="38"/>
       <c r="J52" s="35"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="60"/>
+      <c r="K52" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L52" s="69"/>
+      <c r="M52" s="60" t="s">
+        <v>142</v>
+      </c>
       <c r="N52" s="61"/>
       <c r="O52" s="61"/>
       <c r="P52" s="62"/>
@@ -14279,22 +14357,28 @@
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="51"/>
       <c r="B53" s="66" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C53" s="67"/>
-      <c r="D53" s="34"/>
+      <c r="D53" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="G53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>162</v>
+      </c>
       <c r="I53" s="38"/>
       <c r="J53" s="35"/>
       <c r="K53" s="68" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="L53" s="69"/>
       <c r="M53" s="60" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="N53" s="61"/>
       <c r="O53" s="61"/>
@@ -14302,134 +14386,180 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="51"/>
-      <c r="B54" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="72"/>
+      <c r="B54" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="67"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="62"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="51"/>
-      <c r="B55" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="79"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="69"/>
-      <c r="I55" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="69"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="81"/>
+      <c r="B55" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="67"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55" s="69"/>
+      <c r="M55" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="62"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="51"/>
-      <c r="B56" s="9">
-        <v>1</v>
-      </c>
-      <c r="C56" s="73" t="s">
-        <v>312</v>
-      </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="H56" s="75"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="77"/>
+      <c r="B56" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="72"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="51"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="77"/>
+      <c r="B57" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="79"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="69"/>
+      <c r="I57" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="69"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="82"/>
+      <c r="P57" s="81"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="51"/>
+      <c r="B58" s="9">
+        <v>1</v>
+      </c>
+      <c r="C58" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="D58" s="74"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58" s="75"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="78"/>
+      <c r="O58" s="78"/>
+      <c r="P58" s="77"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="51"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="78"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="C57:E57"/>
     <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:P57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:P58"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:P55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A49:P49"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A52:A59"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:P52"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A47:P47"/>
-    <mergeCell ref="A49:P49"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -14453,7 +14583,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:J25"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14480,7 +14610,7 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -14504,7 +14634,7 @@
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -14513,7 +14643,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -14728,14 +14858,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -14760,14 +14890,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
@@ -14787,19 +14917,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
@@ -14817,28 +14947,30 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" s="11" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="8">
-        <v>100</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -14847,30 +14979,28 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>147</v>
-      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I14" s="8"/>
       <c r="J14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K14" s="8">
+        <v>50</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -14879,19 +15009,19 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
@@ -14909,19 +15039,19 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -14939,7 +15069,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -14973,7 +15103,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -15007,7 +15137,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -15110,7 +15240,7 @@
         <v>62</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="35"/>
@@ -15195,7 +15325,7 @@
       </c>
       <c r="L27" s="69"/>
       <c r="M27" s="60" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="N27" s="61"/>
       <c r="O27" s="61"/>
@@ -15351,10 +15481,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A50"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15565,7 +15695,9 @@
       <c r="D8" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F8" s="11" t="s">
         <v>179</v>
       </c>
@@ -15648,7 +15780,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
@@ -15697,10 +15829,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
@@ -15755,14 +15887,14 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
@@ -15847,14 +15979,14 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -15875,14 +16007,14 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
@@ -16032,7 +16164,7 @@
         <v>216</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
@@ -16112,21 +16244,21 @@
       <c r="O25" s="8"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>19</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>324</v>
+        <v>560</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
-        <v>326</v>
+        <v>561</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>328</v>
+        <v>562</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="8"/>
@@ -16139,9 +16271,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="8" t="s">
-        <v>331</v>
-      </c>
+      <c r="O26" s="8"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -16151,14 +16281,14 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="8"/>
@@ -16171,7 +16301,9 @@
       <c r="L27" s="8"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="8"/>
+      <c r="O27" s="8" t="s">
+        <v>331</v>
+      </c>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -16181,16 +16313,14 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>223</v>
+        <v>329</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="8"/>
@@ -16203,9 +16333,7 @@
       <c r="L28" s="8"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="8" t="s">
-        <v>332</v>
-      </c>
+      <c r="O28" s="8"/>
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -16215,14 +16343,16 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F29" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -16235,7 +16365,9 @@
       <c r="L29" s="8"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="8"/>
+      <c r="O29" s="8" t="s">
+        <v>332</v>
+      </c>
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -16245,16 +16377,14 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -16277,14 +16407,16 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>199</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F31" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8"/>
@@ -16307,14 +16439,14 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>371</v>
+        <v>197</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>372</v>
+        <v>198</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>373</v>
+        <v>233</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8"/>
@@ -16322,7 +16454,7 @@
         <v>28</v>
       </c>
       <c r="K32" s="8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="11"/>
@@ -16337,14 +16469,16 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="E33" s="8"/>
+        <v>368</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F33" s="11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="8"/>
@@ -16367,21 +16501,25 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="8"/>
+        <v>371</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F34" s="11" t="s">
-        <v>58</v>
+        <v>372</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K34" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K34" s="8">
+        <v>200</v>
+      </c>
       <c r="L34" s="8"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -16395,14 +16533,14 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11" t="s">
-        <v>305</v>
+        <v>57</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>306</v>
+        <v>58</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>61</v>
+        <v>333</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="8"/>
@@ -16423,14 +16561,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11" t="s">
-        <v>167</v>
+        <v>305</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>343</v>
+        <v>61</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="8"/>
@@ -16451,14 +16589,14 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="11" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="8"/>
@@ -16479,14 +16617,14 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>475</v>
+        <v>302</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="11" t="s">
-        <v>476</v>
+        <v>303</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>477</v>
+        <v>304</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="8"/>
@@ -16507,19 +16645,21 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="E39" s="8"/>
+        <v>471</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="F39" s="11" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="8"/>
       <c r="J39" s="11" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -16535,19 +16675,19 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="8"/>
+        <v>474</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="F40" s="11" t="s">
-        <v>235</v>
+        <v>475</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>236</v>
+        <v>476</v>
       </c>
       <c r="H40" s="11"/>
-      <c r="I40" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
         <v>29</v>
       </c>
@@ -16565,19 +16705,21 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="E41" s="8"/>
+        <v>563</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F41" s="11" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="8"/>
       <c r="J41" s="11" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -16593,29 +16735,27 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="E42" s="8"/>
+        <v>566</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F42" s="11" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="H42" s="11"/>
-      <c r="I42" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="I42" s="8"/>
       <c r="J42" s="11" t="s">
-        <v>554</v>
+        <v>29</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
-      <c r="O42" s="8" t="s">
-        <v>555</v>
-      </c>
+      <c r="O42" s="8"/>
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -16625,25 +16765,25 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>458</v>
+        <v>235</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>459</v>
+        <v>236</v>
       </c>
       <c r="H43" s="11"/>
-      <c r="I43" s="8"/>
+      <c r="I43" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J43" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="8">
-        <v>100</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -16657,25 +16797,23 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
-        <v>377</v>
+        <v>509</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>378</v>
+        <v>510</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>9</v>
+        <v>511</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="8"/>
       <c r="J44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="8">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -16689,31 +16827,31 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11" t="s">
-        <v>36</v>
+        <v>543</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>37</v>
+        <v>544</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>94</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="H45" s="11"/>
       <c r="I45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
-      <c r="O45" s="8"/>
+      <c r="O45" s="8" t="s">
+        <v>547</v>
+      </c>
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -16723,28 +16861,24 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="11" t="s">
-        <v>39</v>
+        <v>453</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>40</v>
+        <v>454</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K46" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="11"/>
@@ -16759,27 +16893,25 @@
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="11" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K47" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K47" s="8">
+        <v>200</v>
+      </c>
       <c r="L47" s="8"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
@@ -16793,33 +16925,31 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="11" t="s">
-        <v>47</v>
+        <v>447</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>48</v>
+        <v>448</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K48" s="8">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
-      <c r="O48" s="8"/>
+      <c r="O48" s="8" t="s">
+        <v>570</v>
+      </c>
       <c r="P48" s="1"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -16829,31 +16959,31 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="11" t="s">
-        <v>50</v>
+        <v>572</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>51</v>
+        <v>571</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K49" s="8">
+        <v>32</v>
+      </c>
       <c r="L49" s="8"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
-      <c r="O49" s="8"/>
+      <c r="O49" s="8" t="s">
+        <v>574</v>
+      </c>
       <c r="P49" s="1"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -16863,27 +16993,27 @@
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="11" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I50" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="8">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -16891,266 +17021,320 @@
       <c r="P50" s="1"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
+      <c r="A51" s="8">
+        <v>44</v>
+      </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="D51" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="8">
+        <v>50</v>
+      </c>
       <c r="L51" s="8"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="8"/>
       <c r="P51" s="1"/>
     </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>45</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="1"/>
+    </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="8">
+        <v>46</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="8">
+        <v>50</v>
+      </c>
+      <c r="L53" s="8"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>47</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>48</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" s="8">
+        <v>200</v>
+      </c>
+      <c r="L55" s="8"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="65"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="50">
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="65"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="50">
         <v>1</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B59" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="34" t="s">
+      <c r="C59" s="67"/>
+      <c r="D59" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="2" t="s">
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="I54" s="38"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="68" t="s">
+      <c r="H59" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="I59" s="38"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L54" s="69"/>
-      <c r="M54" s="60" t="s">
+      <c r="L59" s="69"/>
+      <c r="M59" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="62"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="I55" s="38"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="L55" s="69"/>
-      <c r="M55" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="62"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
-      <c r="B56" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="62"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="L57" s="69"/>
-      <c r="M57" s="60" t="s">
-        <v>464</v>
-      </c>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="62"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="72"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="69"/>
-      <c r="I59" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="69"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="81"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="62"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="51"/>
-      <c r="B60" s="9">
-        <v>1</v>
-      </c>
-      <c r="C60" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="D60" s="74"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="H60" s="75"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="77"/>
+      <c r="B60" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="67"/>
+      <c r="D60" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I60" s="38"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L60" s="69"/>
+      <c r="M60" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="62"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="51"/>
-      <c r="B61" s="73"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="77"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="77"/>
+      <c r="B61" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="67"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="62"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="50">
-        <v>2</v>
-      </c>
+      <c r="A62" s="51"/>
       <c r="B62" s="66" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C62" s="67"/>
-      <c r="D62" s="34" t="s">
-        <v>243</v>
-      </c>
+      <c r="D62" s="34"/>
       <c r="E62" s="38"/>
       <c r="F62" s="38"/>
-      <c r="G62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" s="34"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="35"/>
       <c r="K62" s="68" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="L62" s="69"/>
       <c r="M62" s="60" t="s">
-        <v>142</v>
+        <v>460</v>
       </c>
       <c r="N62" s="61"/>
       <c r="O62" s="61"/>
@@ -17158,171 +17342,291 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="51"/>
-      <c r="B63" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="67"/>
-      <c r="D63" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="I63" s="38"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="L63" s="69"/>
-      <c r="M63" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="62"/>
+      <c r="B63" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="72"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="51"/>
-      <c r="B64" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="62"/>
+      <c r="B64" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="79"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="69"/>
+      <c r="I64" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="69"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="82"/>
+      <c r="P64" s="81"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="51"/>
-      <c r="B65" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="67"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="L65" s="69"/>
-      <c r="M65" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="62"/>
+      <c r="B65" s="9">
+        <v>1</v>
+      </c>
+      <c r="C65" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="74"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="H65" s="75"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="77"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="51"/>
-      <c r="B66" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="72"/>
-      <c r="M66" s="70"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="71"/>
-      <c r="P66" s="72"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="76"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="77"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="51"/>
-      <c r="B67" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="79"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="69"/>
-      <c r="I67" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="69"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="81"/>
-      <c r="M67" s="80"/>
-      <c r="N67" s="82"/>
-      <c r="O67" s="82"/>
-      <c r="P67" s="81"/>
+      <c r="A67" s="50">
+        <v>2</v>
+      </c>
+      <c r="B67" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="67"/>
+      <c r="D67" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="34"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L67" s="69"/>
+      <c r="M67" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="62"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="51"/>
-      <c r="B68" s="9">
-        <v>1</v>
-      </c>
-      <c r="C68" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="D68" s="74"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="H68" s="75"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="76"/>
-      <c r="L68" s="77"/>
-      <c r="M68" s="76"/>
-      <c r="N68" s="78"/>
-      <c r="O68" s="78"/>
-      <c r="P68" s="77"/>
+      <c r="B68" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="67"/>
+      <c r="D68" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="I68" s="38"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L68" s="69"/>
+      <c r="M68" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="62"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="51"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="78"/>
-      <c r="O69" s="78"/>
-      <c r="P69" s="77"/>
-    </row>
-    <row r="70" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B69" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="67"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="62"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="51"/>
+      <c r="B70" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="67"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L70" s="69"/>
+      <c r="M70" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="62"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="51"/>
+      <c r="B71" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="70"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="72"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="51"/>
+      <c r="B72" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="79"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="69"/>
+      <c r="I72" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="69"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="81"/>
+      <c r="M72" s="80"/>
+      <c r="N72" s="82"/>
+      <c r="O72" s="82"/>
+      <c r="P72" s="81"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="51"/>
+      <c r="B73" s="9">
+        <v>1</v>
+      </c>
+      <c r="C73" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" s="74"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="H73" s="75"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="76"/>
+      <c r="N73" s="78"/>
+      <c r="O73" s="78"/>
+      <c r="P73" s="77"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="51"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="77"/>
+      <c r="M74" s="76"/>
+      <c r="N74" s="78"/>
+      <c r="O74" s="78"/>
+      <c r="P74" s="77"/>
+    </row>
+    <row r="75" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="84">
     <mergeCell ref="A6:P6"/>
@@ -17338,77 +17642,77 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="H59:J59"/>
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="M59:P59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="H60:J60"/>
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="M60:P60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
     <mergeCell ref="M61:P61"/>
-    <mergeCell ref="A62:A69"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D62:J62"/>
     <mergeCell ref="K62:L62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="K68:L68"/>
     <mergeCell ref="M62:P62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="B63:J63"/>
     <mergeCell ref="K63:L63"/>
     <mergeCell ref="M63:P63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
     <mergeCell ref="M64:P64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="G65:H65"/>
     <mergeCell ref="K65:L65"/>
     <mergeCell ref="M65:P65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="K66:L66"/>
     <mergeCell ref="M66:P66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="H67:J67"/>
     <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="K73:L73"/>
     <mergeCell ref="M67:P67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:L68"/>
     <mergeCell ref="M68:P68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:P69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:P74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17695,14 +17999,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
@@ -18071,7 +18375,7 @@
         <v>62</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="35"/>
@@ -18156,7 +18460,7 @@
       </c>
       <c r="L28" s="69"/>
       <c r="M28" s="60" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N28" s="61"/>
       <c r="O28" s="61"/>
@@ -18261,7 +18565,7 @@
       </c>
       <c r="C33" s="67"/>
       <c r="D33" s="34" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
@@ -18269,7 +18573,7 @@
         <v>62</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I33" s="38"/>
       <c r="J33" s="35"/>
@@ -18299,7 +18603,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="35"/>
@@ -18354,7 +18658,7 @@
       </c>
       <c r="L36" s="69"/>
       <c r="M36" s="60" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N36" s="61"/>
       <c r="O36" s="61"/>
@@ -18414,7 +18718,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="73" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D39" s="74"/>
       <c r="E39" s="75"/>

--- a/nop-wf/model/nop-wf.orm.xlsx
+++ b/nop-wf/model/nop-wf.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7E7CF-02D9-47E3-B1B7-479102779D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64DB9C9-36B6-4B60-9A8B-15B827C1A4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="583">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2383,6 +2383,18 @@
   </si>
   <si>
     <t>上次操作者单位ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTOR_MODEL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor Model ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与者模型ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2773,19 +2785,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2821,15 +2842,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2860,27 +2872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2908,7 +2899,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2918,6 +2915,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3512,11 +3524,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3588,7 +3600,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -3603,7 +3615,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -4142,34 +4154,34 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="65"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="82"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="50">
+      <c r="A24" s="39">
         <v>1</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="79"/>
+      <c r="D24" s="36" t="s">
         <v>140</v>
       </c>
       <c r="E24" s="38"/>
@@ -4177,13 +4189,13 @@
       <c r="G24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="34"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="68" t="s">
+      <c r="J24" s="37"/>
+      <c r="K24" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="69"/>
+      <c r="L24" s="74"/>
       <c r="M24" s="60" t="s">
         <v>142</v>
       </c>
@@ -4192,12 +4204,12 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="36" t="s">
         <v>187</v>
       </c>
       <c r="E25" s="38"/>
@@ -4205,15 +4217,15 @@
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="36" t="s">
         <v>141</v>
       </c>
       <c r="I25" s="38"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="68" t="s">
+      <c r="J25" s="37"/>
+      <c r="K25" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="69"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="60" t="s">
         <v>73</v>
       </c>
@@ -4222,12 +4234,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="21" t="s">
@@ -4235,7 +4247,7 @@
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="35"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
       <c r="M26" s="60"/>
@@ -4244,22 +4256,22 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="68" t="s">
+      <c r="J27" s="37"/>
+      <c r="K27" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="69"/>
+      <c r="L27" s="74"/>
       <c r="M27" s="60" t="s">
         <v>108</v>
       </c>
@@ -4268,103 +4280,103 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="70" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="72"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="65"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="69"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="68" t="s">
+      <c r="H29" s="74"/>
+      <c r="I29" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="69"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="81"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="76"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="9">
         <v>1</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="73" t="s">
+      <c r="G30" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="75"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="77"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="70"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="75"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="77"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="70"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="50">
+      <c r="A32" s="39">
         <v>2</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="67"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="83" t="s">
         <v>250</v>
       </c>
@@ -4373,15 +4385,15 @@
       <c r="G32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="36" t="s">
         <v>477</v>
       </c>
       <c r="I32" s="38"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="68" t="s">
+      <c r="J32" s="37"/>
+      <c r="K32" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L32" s="69"/>
+      <c r="L32" s="74"/>
       <c r="M32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4390,11 +4402,11 @@
       <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="83" t="s">
         <v>178</v>
       </c>
@@ -4403,15 +4415,15 @@
       <c r="G33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="36" t="s">
         <v>177</v>
       </c>
       <c r="I33" s="38"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="68" t="s">
+      <c r="J33" s="37"/>
+      <c r="K33" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L33" s="69"/>
+      <c r="L33" s="74"/>
       <c r="M33" s="60" t="s">
         <v>73</v>
       </c>
@@ -4420,22 +4432,22 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="66" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="34"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="68" t="s">
+      <c r="J34" s="37"/>
+      <c r="K34" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="69"/>
+      <c r="L34" s="74"/>
       <c r="M34" s="60" t="s">
         <v>460</v>
       </c>
@@ -4444,90 +4456,90 @@
       <c r="P34" s="62"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
-      <c r="B35" s="70" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="72"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="65"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="69"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="69"/>
-      <c r="I36" s="68" t="s">
+      <c r="H36" s="74"/>
+      <c r="I36" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="69"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="81"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="9">
         <v>1</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="H37" s="75"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="77"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="70"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="75"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="68"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="77"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="70"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -4535,18 +4547,57 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A24:A31"/>
@@ -4563,57 +4614,18 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4660,11 +4672,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4736,7 +4748,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -4751,7 +4763,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -5140,27 +5152,33 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="65"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="A3:C3"/>
@@ -5169,12 +5187,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5221,11 +5233,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -5297,7 +5309,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -5312,7 +5324,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -5859,34 +5871,34 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="65"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="82"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="50">
+      <c r="A24" s="39">
         <v>1</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="79"/>
+      <c r="D24" s="36" t="s">
         <v>140</v>
       </c>
       <c r="E24" s="38"/>
@@ -5894,13 +5906,13 @@
       <c r="G24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="34"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="68" t="s">
+      <c r="J24" s="37"/>
+      <c r="K24" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="69"/>
+      <c r="L24" s="74"/>
       <c r="M24" s="60" t="s">
         <v>142</v>
       </c>
@@ -5909,12 +5921,12 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="36" t="s">
         <v>187</v>
       </c>
       <c r="E25" s="38"/>
@@ -5922,15 +5934,15 @@
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="36" t="s">
         <v>141</v>
       </c>
       <c r="I25" s="38"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="68" t="s">
+      <c r="J25" s="37"/>
+      <c r="K25" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="69"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="60" t="s">
         <v>73</v>
       </c>
@@ -5939,12 +5951,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="21" t="s">
@@ -5952,7 +5964,7 @@
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="35"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
       <c r="M26" s="60"/>
@@ -5961,22 +5973,22 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="68" t="s">
+      <c r="J27" s="37"/>
+      <c r="K27" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="69"/>
+      <c r="L27" s="74"/>
       <c r="M27" s="60" t="s">
         <v>108</v>
       </c>
@@ -5985,103 +5997,103 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="70" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="72"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="65"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="69"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="68" t="s">
+      <c r="H29" s="74"/>
+      <c r="I29" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="69"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="81"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="76"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="9">
         <v>1</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="73" t="s">
+      <c r="G30" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="75"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="77"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="70"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="75"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="77"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="70"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="50">
+      <c r="A32" s="39">
         <v>2</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="67"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="83" t="s">
         <v>250</v>
       </c>
@@ -6090,15 +6102,15 @@
       <c r="G32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="36" t="s">
         <v>463</v>
       </c>
       <c r="I32" s="38"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="68" t="s">
+      <c r="J32" s="37"/>
+      <c r="K32" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L32" s="69"/>
+      <c r="L32" s="74"/>
       <c r="M32" s="60" t="s">
         <v>191</v>
       </c>
@@ -6107,11 +6119,11 @@
       <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="83" t="s">
         <v>178</v>
       </c>
@@ -6120,15 +6132,15 @@
       <c r="G33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="36" t="s">
         <v>177</v>
       </c>
       <c r="I33" s="38"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="68" t="s">
+      <c r="J33" s="37"/>
+      <c r="K33" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L33" s="69"/>
+      <c r="L33" s="74"/>
       <c r="M33" s="60" t="s">
         <v>73</v>
       </c>
@@ -6137,22 +6149,22 @@
       <c r="P33" s="62"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="66" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="34"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="68" t="s">
+      <c r="J34" s="37"/>
+      <c r="K34" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="69"/>
+      <c r="L34" s="74"/>
       <c r="M34" s="60" t="s">
         <v>460</v>
       </c>
@@ -6161,90 +6173,90 @@
       <c r="P34" s="62"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
-      <c r="B35" s="70" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="72"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="65"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="69"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="69"/>
-      <c r="I36" s="68" t="s">
+      <c r="H36" s="74"/>
+      <c r="I36" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="69"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="81"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="9">
         <v>1</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="H37" s="75"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="77"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="70"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="75"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="68"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="77"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="70"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -6252,6 +6264,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="K25:L25"/>
@@ -6268,69 +6343,6 @@
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6376,11 +6388,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -6424,11 +6436,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="34"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="35"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -6454,7 +6466,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -6469,7 +6481,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -6970,7 +6982,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -6985,37 +6997,37 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="35"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="65"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="82"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="50">
+      <c r="A25" s="39">
         <v>1</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="36" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="38"/>
@@ -7023,15 +7035,15 @@
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="36" t="s">
         <v>464</v>
       </c>
       <c r="I25" s="38"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="68" t="s">
+      <c r="J25" s="37"/>
+      <c r="K25" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="69"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="60" t="s">
         <v>142</v>
       </c>
@@ -7040,12 +7052,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="79"/>
+      <c r="D26" s="36" t="s">
         <v>187</v>
       </c>
       <c r="E26" s="38"/>
@@ -7053,15 +7065,15 @@
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="36" t="s">
         <v>141</v>
       </c>
       <c r="I26" s="38"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="68" t="s">
+      <c r="J26" s="37"/>
+      <c r="K26" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="69"/>
+      <c r="L26" s="74"/>
       <c r="M26" s="60" t="s">
         <v>73</v>
       </c>
@@ -7070,12 +7082,12 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="21" t="s">
@@ -7083,7 +7095,7 @@
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="60"/>
@@ -7092,22 +7104,22 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="68" t="s">
+      <c r="J28" s="37"/>
+      <c r="K28" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="69"/>
+      <c r="L28" s="74"/>
       <c r="M28" s="60" t="s">
         <v>460</v>
       </c>
@@ -7116,117 +7128,111 @@
       <c r="P28" s="62"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="72"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="69"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="69"/>
-      <c r="I30" s="68" t="s">
+      <c r="H30" s="74"/>
+      <c r="I30" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="69"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="81"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="76"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="H31" s="75"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="77"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="70"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="75"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="68"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="77"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
@@ -7243,20 +7249,26 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7303,11 +7315,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -7351,11 +7363,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="34"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="35"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -7381,7 +7393,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -7396,7 +7408,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -7897,7 +7909,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -7912,37 +7924,37 @@
       <c r="M22" s="38"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="35"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="65"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="82"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="50">
+      <c r="A25" s="39">
         <v>1</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="36" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="38"/>
@@ -7950,15 +7962,15 @@
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="36" t="s">
         <v>465</v>
       </c>
       <c r="I25" s="38"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="68" t="s">
+      <c r="J25" s="37"/>
+      <c r="K25" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="69"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="60" t="s">
         <v>142</v>
       </c>
@@ -7967,12 +7979,12 @@
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="79"/>
+      <c r="D26" s="36" t="s">
         <v>187</v>
       </c>
       <c r="E26" s="38"/>
@@ -7980,15 +7992,15 @@
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="36" t="s">
         <v>141</v>
       </c>
       <c r="I26" s="38"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="68" t="s">
+      <c r="J26" s="37"/>
+      <c r="K26" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="69"/>
+      <c r="L26" s="74"/>
       <c r="M26" s="60" t="s">
         <v>73</v>
       </c>
@@ -7997,12 +8009,12 @@
       <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="21" t="s">
@@ -8010,7 +8022,7 @@
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="60"/>
@@ -8019,22 +8031,22 @@
       <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="68" t="s">
+      <c r="J28" s="37"/>
+      <c r="K28" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="69"/>
+      <c r="L28" s="74"/>
       <c r="M28" s="60" t="s">
         <v>460</v>
       </c>
@@ -8043,117 +8055,111 @@
       <c r="P28" s="62"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="72"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="69"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="69"/>
-      <c r="I30" s="68" t="s">
+      <c r="H30" s="74"/>
+      <c r="I30" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="69"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="81"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="76"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="H31" s="75"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="77"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="70"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="75"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="68"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="77"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
@@ -8170,20 +8176,26 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8230,11 +8242,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="18"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -8278,11 +8290,11 @@
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="34"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="35"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -8308,7 +8320,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -8323,7 +8335,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
@@ -8700,34 +8712,34 @@
       <c r="P17" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="65"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="82"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="50">
+      <c r="A21" s="39">
         <v>1</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="79"/>
+      <c r="D21" s="36" t="s">
         <v>140</v>
       </c>
       <c r="E21" s="38"/>
@@ -8735,13 +8747,13 @@
       <c r="G21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="34"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="38"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="68" t="s">
+      <c r="J21" s="37"/>
+      <c r="K21" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="69"/>
+      <c r="L21" s="74"/>
       <c r="M21" s="60" t="s">
         <v>142</v>
       </c>
@@ -8750,12 +8762,12 @@
       <c r="P21" s="62"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
-      <c r="B22" s="66" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="79"/>
+      <c r="D22" s="36" t="s">
         <v>187</v>
       </c>
       <c r="E22" s="38"/>
@@ -8763,15 +8775,15 @@
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="36" t="s">
         <v>141</v>
       </c>
       <c r="I22" s="38"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="68" t="s">
+      <c r="J22" s="37"/>
+      <c r="K22" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="69"/>
+      <c r="L22" s="74"/>
       <c r="M22" s="60" t="s">
         <v>73</v>
       </c>
@@ -8780,12 +8792,12 @@
       <c r="P22" s="62"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="66" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="21" t="s">
@@ -8793,7 +8805,7 @@
       </c>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="60"/>
@@ -8802,22 +8814,22 @@
       <c r="P23" s="62"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="68" t="s">
+      <c r="J24" s="37"/>
+      <c r="K24" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="69"/>
+      <c r="L24" s="74"/>
       <c r="M24" s="60" t="s">
         <v>467</v>
       </c>
@@ -8826,103 +8838,103 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="70" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="72"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="65"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="69"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="68" t="s">
+      <c r="H26" s="74"/>
+      <c r="I26" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="69"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="81"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="76"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="9">
         <v>1</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="73" t="s">
+      <c r="G27" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="75"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="77"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="70"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
+      <c r="A28" s="40"/>
+      <c r="B28" 